--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1700" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="模型话费" sheetId="1" r:id="rId1"/>
+    <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,16 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="226">
   <si>
-    <t>DXF  龙珠    悟吉塔</t>
-    <rPh sb="5" eb="6">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
       <t>mei'li'shan'guang</t>
@@ -102,19 +92,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>bei'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>模心  MG   掉毛</t>
-    <rPh sb="0" eb="1">
-      <t>mo'xin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin'zang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>diao'mao</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -441,10 +418,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2018.06</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>寄生兽</t>
     <rPh sb="0" eb="2">
       <t>ji'shen'sho</t>
@@ -1753,6 +1726,39 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>模心  MG   掉毛                   预定</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'zang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao'mao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有玩没完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXF  龙珠    超三巴达克</t>
+    <rPh sb="5" eb="6">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chao'san</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ba'da'ke</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1920,12 +1926,6 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1958,6 +1958,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2239,7 +2245,7 @@
   <dimension ref="A1:Y690"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2255,14 +2261,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2270,30 +2276,30 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>163.80000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2301,15 +2307,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="27">
+        <v>219</v>
+      </c>
+      <c r="B7" s="25">
         <v>68.349999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2325,7 +2331,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2335,32 +2341,32 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <f>SUM(C4:C10)</f>
         <v>787.15000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="13"/>
+      <c r="A12" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>217</v>
+      <c r="A13" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>216</v>
+      <c r="A14" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2370,46 +2376,46 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
         <v>132.75</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <f>SUM(C11:C14)</f>
         <v>919.90000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="13"/>
+      <c r="A16" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="13">
         <v>324</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <f>SUM(C15:C16)</f>
         <v>1243.9000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="13"/>
+      <c r="A18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2417,7 +2423,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2435,45 +2441,45 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <f>SUM(C17:C21)</f>
         <v>1549.21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="A23" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="15">
+        <v>206</v>
+      </c>
+      <c r="B24" s="13">
         <v>49.67</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <f>SUM(C22:C23)</f>
         <v>1598.88</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="13"/>
+      <c r="A25" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>207</v>
+      <c r="A26" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2481,7 +2487,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2489,7 +2495,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2505,7 +2511,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -2513,7 +2519,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -2521,7 +2527,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -2531,24 +2537,24 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="15">
+      <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <f>SUM(C24:C32)</f>
         <v>2697.3100000000004</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="13"/>
+      <c r="A34" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -2556,7 +2562,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -2596,7 +2602,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -2604,15 +2610,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>193</v>
+      <c r="A43" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -2622,33 +2628,33 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
         <v>826.02999999999986</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="16">
         <f>SUM(C33:C43)</f>
         <v>3523.34</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" s="13"/>
+      <c r="A45" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>191</v>
+      <c r="A46" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
-        <v>190</v>
+      <c r="A47" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -2658,25 +2664,25 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
         <v>500.7</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="16">
         <f>SUM(C44:C47)</f>
         <v>4024.04</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="13"/>
+      <c r="A49" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
-        <v>188</v>
+      <c r="A50" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -2684,7 +2690,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -2692,15 +2698,15 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>185</v>
+      <c r="A53" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -2710,41 +2716,41 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="15">
+      <c r="A54" s="15"/>
+      <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
         <v>515.5</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="16">
         <f>SUM(C48:C53)</f>
         <v>4539.54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="13"/>
+      <c r="A55" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>183</v>
+      <c r="A56" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
-        <v>182</v>
+      <c r="A57" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>181</v>
+      <c r="A58" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -2752,15 +2758,15 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>179</v>
+      <c r="A60" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -2770,41 +2776,41 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="15">
+      <c r="A61" s="15"/>
+      <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
         <v>981.68</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="16">
         <f>SUM(C54:C60)</f>
         <v>5521.54</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="13"/>
+      <c r="A62" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>177</v>
+      <c r="A63" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>176</v>
+      <c r="A64" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>175</v>
+      <c r="A65" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -2814,33 +2820,33 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="15">
+      <c r="A66" s="15"/>
+      <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
         <v>207.14</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="16">
         <f>SUM(C61:C65)</f>
         <v>5728.68</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="13"/>
+      <c r="A67" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>173</v>
+      <c r="A68" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>172</v>
+      <c r="A69" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -2850,41 +2856,41 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="15">
+      <c r="A70" s="15"/>
+      <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
         <v>198.3</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="16">
         <f>SUM(C66:C69)</f>
         <v>5926.9800000000005</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" s="13"/>
+      <c r="A71" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>170</v>
+      <c r="A72" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>169</v>
+      <c r="A73" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>168</v>
+      <c r="A74" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -2894,49 +2900,49 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="15">
+      <c r="A75" s="15"/>
+      <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
         <v>415</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="16">
         <f>SUM(C70:C74)</f>
         <v>6341.9800000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" s="13"/>
+      <c r="A76" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>166</v>
+      <c r="A77" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
-        <v>165</v>
+      <c r="A78" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
-        <v>164</v>
+      <c r="A79" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>163</v>
+      <c r="A80" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -2946,49 +2952,49 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="15">
+      <c r="A81" s="15"/>
+      <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
         <v>386.53</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="16">
         <f>SUM(C75:C80)</f>
         <v>6728.51</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="13"/>
+      <c r="A82" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
-        <v>162</v>
+      <c r="A83" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
-        <v>161</v>
+      <c r="A84" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
-        <v>160</v>
+      <c r="A85" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
-        <v>159</v>
+      <c r="A86" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -2998,41 +3004,41 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="15">
+      <c r="A87" s="15"/>
+      <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
         <v>579.15</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="16">
         <f>SUM(C81:C86)</f>
         <v>7307.66</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="13"/>
+      <c r="A88" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
-        <v>157</v>
+      <c r="A89" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
-        <v>156</v>
+      <c r="A90" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="17" t="s">
-        <v>155</v>
+      <c r="A91" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3042,8 +3048,8 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="15">
+      <c r="A92" s="15"/>
+      <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
         <v>229.26</v>
       </c>
@@ -3053,247 +3059,247 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" s="13"/>
+      <c r="A93" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="17" t="s">
-        <v>153</v>
+      <c r="A94" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
-        <v>141</v>
+      <c r="A95" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="17" t="s">
-        <v>152</v>
+      <c r="A96" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
-        <v>151</v>
+      <c r="A97" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>150</v>
+      <c r="A98" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>149</v>
+      <c r="A99" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
-        <v>148</v>
+      <c r="A100" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
-        <v>147</v>
+      <c r="A101" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>146</v>
+      <c r="A102" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>145</v>
+      <c r="A103" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
-        <v>144</v>
+      <c r="A104" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="21">
         <v>1068.92</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="15">
+      <c r="A105" s="15"/>
+      <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
         <v>1068.92</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="22">
         <f>SUM(C92:C104)</f>
         <v>8605.84</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="23"/>
+      <c r="A106" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
-        <v>142</v>
+      <c r="A107" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" s="21"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" s="21"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>140</v>
+      <c r="A109" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" s="21"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>139</v>
+      <c r="A110" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="21"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>138</v>
+      <c r="A111" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
       </c>
-      <c r="C111" s="25">
+      <c r="C111" s="23">
         <v>365.99</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="15">
+      <c r="A112" s="20"/>
+      <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
         <v>365.99</v>
       </c>
-      <c r="C112" s="24">
+      <c r="C112" s="22">
         <f>SUM(C105:C111)</f>
         <v>8971.83</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="23"/>
+      <c r="A113" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="26"/>
+      <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>136</v>
+      <c r="A114" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="21"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>135</v>
+      <c r="A115" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
       </c>
-      <c r="C115" s="23"/>
+      <c r="C115" s="21"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
-        <v>134</v>
+      <c r="A116" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
       </c>
-      <c r="C116" s="23"/>
+      <c r="C116" s="21"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>133</v>
+      <c r="A117" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
-        <v>132</v>
+      <c r="A118" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
-        <v>131</v>
+      <c r="A119" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="22" t="s">
-        <v>130</v>
+      <c r="A120" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="22" t="s">
-        <v>129</v>
+      <c r="A121" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3301,7 +3307,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3312,24 +3318,24 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="15">
+      <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C123" s="16">
         <f>SUM(C112:C122)</f>
         <v>9807.17</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="13"/>
+      <c r="A124" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>126</v>
+      <c r="A125" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3345,7 +3351,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3353,7 +3359,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3361,31 +3367,31 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B129" s="20">
+        <v>119</v>
+      </c>
+      <c r="B129" s="18">
         <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" s="20">
+      <c r="A130" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" s="18">
         <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B131" s="20">
+      <c r="A131" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3401,7 +3407,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3409,7 +3415,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3417,7 +3423,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3435,7 +3441,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3444,7 +3450,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3453,7 +3459,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3474,25 +3480,25 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142"/>
-      <c r="B142" s="15">
+      <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
         <v>1349.6</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="16">
         <f>SUM(C123:C141)</f>
         <v>11156.77</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B143" s="13"/>
+      <c r="A143" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3501,7 +3507,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -3518,7 +3524,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -3526,7 +3532,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -3542,7 +3548,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -3550,7 +3556,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -3566,55 +3572,55 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>98</v>
+      <c r="A154" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
-        <v>97</v>
+      <c r="A155" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
-        <v>96</v>
+      <c r="A156" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
-        <v>95</v>
+      <c r="A157" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
-        <v>94</v>
+      <c r="A158" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
-        <v>93</v>
+      <c r="A159" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -3626,8 +3632,8 @@
       <c r="O159"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
-        <v>92</v>
+      <c r="A160" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -3635,29 +3641,29 @@
       <c r="C160" s="4">
         <v>1461.48</v>
       </c>
-      <c r="D160" s="19"/>
-      <c r="E160" s="15"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161" s="17"/>
-      <c r="B161" s="15">
+      <c r="A161" s="15"/>
+      <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
         <v>1461.48</v>
       </c>
-      <c r="C161" s="18">
+      <c r="C161" s="16">
         <f>SUM(C142:C160)</f>
         <v>12618.25</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="14">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="13"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A163" s="17" t="s">
-        <v>91</v>
+      <c r="A163" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -3665,7 +3671,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -3673,7 +3679,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -3681,7 +3687,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -3689,7 +3695,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -3697,15 +3703,15 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
-        <v>85</v>
+      <c r="A169" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -3713,7 +3719,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -3721,7 +3727,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -3729,7 +3735,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -3741,7 +3747,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -3751,7 +3757,7 @@
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B174" s="15">
+      <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
       </c>
@@ -3761,14 +3767,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="14">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="13"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -3776,7 +3782,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -3804,14 +3810,14 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="14">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="13"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -3819,7 +3825,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -3827,18 +3833,18 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -3846,71 +3852,71 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
-      <c r="A186" s="17" t="s">
-        <v>71</v>
+      <c r="A186" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="17" t="s">
-        <v>70</v>
+      <c r="A187" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="17" t="s">
-        <v>69</v>
+      <c r="A188" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="17" t="s">
-        <v>68</v>
+      <c r="A189" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="17" t="s">
-        <v>67</v>
+      <c r="A190" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="17" t="s">
-        <v>66</v>
+      <c r="A191" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="17" t="s">
-        <v>65</v>
+      <c r="A192" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
-        <v>64</v>
+      <c r="A193" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -3920,8 +3926,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="17"/>
-      <c r="B194" s="15">
+      <c r="A194" s="15"/>
+      <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
         <v>1328.56</v>
       </c>
@@ -3931,22 +3937,22 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="14">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="13"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="17" t="s">
-        <v>63</v>
+      <c r="A196" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
-        <v>62</v>
+      <c r="A197" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -3954,7 +3960,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -3967,7 +3973,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B200" s="15">
+      <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
       </c>
@@ -3977,14 +3983,14 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="14">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="13"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -3992,7 +3998,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4000,18 +4006,18 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B204" s="11">
         <v>9.9</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4019,7 +4025,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4027,7 +4033,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4035,7 +4041,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4043,13 +4049,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B209" s="11">
         <v>10</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4059,7 +4065,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B211" s="15">
+      <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>548</v>
       </c>
@@ -4069,10 +4075,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B212" s="13"/>
+      <c r="A212" s="27">
+        <v>2018.06</v>
+      </c>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4080,7 +4086,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B214" s="15">
+      <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
       </c>
@@ -4090,14 +4096,14 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="14">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="13"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4105,7 +4111,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4113,7 +4119,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4121,51 +4127,51 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B219" s="11">
         <v>9.7100000000000009</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B220" s="11">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B221" s="11">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B222" s="11">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4173,7 +4179,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4185,7 +4191,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B226" s="15">
+      <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>820.11999999999989</v>
       </c>
@@ -4195,14 +4201,14 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B227" s="13"/>
+      <c r="A227" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4218,13 +4224,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B230" s="11">
         <v>10</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4233,7 +4239,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B232" s="15">
+      <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>388</v>
       </c>
@@ -4243,157 +4249,157 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B233" s="13"/>
+      <c r="A233" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B238" s="11">
         <v>9.66</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B240" s="11">
         <v>9.66</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B241" s="11">
         <v>9.66</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B243" s="11">
         <v>9.66</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B244" s="11">
         <v>9.66</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B246" s="11">
         <v>9.61</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
@@ -4401,73 +4407,73 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B248" s="11">
         <v>9.61</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B249" s="11">
         <v>9.61</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B250" s="11">
         <v>9.61</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B251" s="16"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>115.86</v>
+        <v>263.10000000000002</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B252" s="15">
+      <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>263.10000000000002</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20000.239999999998</v>
+        <v>20147.479999999996</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="14">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="13"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B254" s="11">
         <v>9.61</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B255" s="5">
         <v>68</v>
@@ -4475,7 +4481,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B256" s="5">
         <v>80.3</v>
@@ -4483,7 +4489,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B257" s="5">
         <v>129.69999999999999</v>
@@ -4491,13 +4497,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B258" s="11">
         <v>9.61</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4512,70 +4518,73 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>20297.46</v>
+        <v>20444.699999999997</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="14">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="13"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B263" s="11">
         <v>9.61</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B264" s="11">
         <v>9.61</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B265" s="11">
         <v>9.61</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B266" s="11">
         <v>9.61</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267" s="5">
+      <c r="A267" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B267" s="11">
         <v>180</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B268" s="5">
         <v>59.5</v>
@@ -4583,7 +4592,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B269" s="5">
         <v>59</v>
@@ -4591,7 +4600,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270" s="5">
         <v>81.2</v>
@@ -4599,7 +4608,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -4607,15 +4616,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
-      </c>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B273" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.3">
@@ -4636,7 +4640,7 @@
       </c>
       <c r="C277" s="10">
         <f>SUM(C261:C276)</f>
-        <v>20876.599999999999</v>
+        <v>21023.839999999997</v>
       </c>
     </row>
     <row r="345" spans="10:10" x14ac:dyDescent="0.3">
@@ -4743,5 +4747,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="233">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1759,6 +1759,97 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ba'da'ke</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS  龙珠    GT超四悟空           预定</t>
+    <rPh sb="5" eb="6">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu'kong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS  龙珠    自在极意悟空         预定</t>
+    <rPh sb="5" eb="6">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'zai'ji'yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu'kong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生兽</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shen'shou</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场版  终极战士   悟吉塔         预定</t>
+    <rPh sb="0" eb="1">
+      <t>ju'chang'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆好</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京jojo</t>
+    <rPh sb="0" eb="1">
+      <t>nan'jin</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>永珍模型     红角马               预定</t>
+    <rPh sb="2" eb="3">
+      <t>mo'xin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao'ma</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ma'pi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1959,10 +2050,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2242,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y690"/>
+  <dimension ref="A1:Y692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2261,10 +2352,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2292,10 +2383,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2351,10 +2442,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2387,10 +2478,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2408,10 +2499,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2451,10 +2542,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2472,10 +2563,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2547,10 +2638,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2639,10 +2730,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -2675,10 +2766,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -2727,10 +2818,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -2787,10 +2878,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -2831,10 +2922,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -2867,10 +2958,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -2911,10 +3002,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -2963,10 +3054,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3015,10 +3106,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3059,10 +3150,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3167,10 +3258,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3232,10 +3323,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3328,10 +3419,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3490,10 +3581,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3656,10 +3747,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -3767,10 +3858,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -3810,10 +3901,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -3937,10 +4028,10 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -3983,10 +4074,10 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4075,10 +4166,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4096,10 +4187,10 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4201,10 +4292,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4249,10 +4340,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4455,10 +4546,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4522,10 +4613,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4622,70 +4713,104 @@
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I275" s="2"/>
-      <c r="J275"/>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C276" s="4">
-        <v>579.14</v>
-      </c>
-      <c r="I276" s="2"/>
-      <c r="J276"/>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B277" s="5">
-        <f>SUM(B263:B276)</f>
-        <v>579.14</v>
-      </c>
-      <c r="C277" s="10">
-        <f>SUM(C261:C276)</f>
-        <v>21023.839999999997</v>
-      </c>
-    </row>
-    <row r="345" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J345" s="9"/>
-    </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I387" s="8"/>
-    </row>
-    <row r="675" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O675" s="8"/>
-    </row>
-    <row r="680" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y680">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="681" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y681">
-        <v>12</v>
-      </c>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B273" s="5">
+        <v>10</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B274" s="5">
+        <v>9.61</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B275" s="5">
+        <v>10</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B276" s="5">
+        <v>50</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I277" s="2"/>
+      <c r="J277"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C278" s="4">
+        <v>658.75</v>
+      </c>
+      <c r="I278" s="2"/>
+      <c r="J278"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B279" s="5">
+        <f>SUM(B263:B278)</f>
+        <v>658.75</v>
+      </c>
+      <c r="C279" s="10">
+        <f>SUM(C261:C278)</f>
+        <v>21103.449999999997</v>
+      </c>
+    </row>
+    <row r="347" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J347" s="9"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I389" s="8"/>
+    </row>
+    <row r="677" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="O677" s="8"/>
     </row>
     <row r="682" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y682">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="683" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N683" s="8"/>
       <c r="Y683">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="684" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y684">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N685" s="8"/>
+      <c r="Y685">
         <v>10</v>
-      </c>
-    </row>
-    <row r="685" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y685">
-        <v>9</v>
       </c>
     </row>
     <row r="686" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y686">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="687" spans="14:25" x14ac:dyDescent="0.3">
@@ -4695,22 +4820,54 @@
     </row>
     <row r="688" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y688">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="689" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y689">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y690">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="691" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y691">
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y690" s="7">
-        <f>SUM(Y680:Y689)</f>
+    <row r="692" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y692" s="7">
+        <f>SUM(Y682:Y691)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A113:B113"/>
@@ -4722,30 +4879,8 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18" numberStoredAsText="1"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="238">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1850,6 +1850,65 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴   横炮                     预定</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hen'pao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴   甲壳虫大黄蜂             预定</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'ke'chong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da'huang'feng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊家</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖国版   ZERO  超赛布罗利</t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo'ban</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chao'sai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'luo'li</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴   路障</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lu'zhang</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2333,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y692"/>
+  <dimension ref="A1:Y694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4778,49 +4837,98 @@
         <v>21103.449999999997</v>
       </c>
     </row>
-    <row r="347" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J347" s="9"/>
-    </row>
-    <row r="389" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I389" s="8"/>
-    </row>
-    <row r="677" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O677" s="8"/>
-    </row>
-    <row r="682" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y682">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="683" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y683">
-        <v>12</v>
-      </c>
+    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A280" s="26">
+        <v>2019.01</v>
+      </c>
+      <c r="B280" s="27"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B281" s="5">
+        <v>20</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B282" s="5">
+        <v>20</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B283" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B284" s="5">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="4">
+        <v>356.4</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="5">
+        <f>SUM(B281:B289)</f>
+        <v>356.4</v>
+      </c>
+      <c r="C290" s="10">
+        <f>SUM(C279:C289)</f>
+        <v>21459.85</v>
+      </c>
+    </row>
+    <row r="349" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J349" s="9"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I391" s="8"/>
+    </row>
+    <row r="679" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="O679" s="8"/>
     </row>
     <row r="684" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y684">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="685" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N685" s="8"/>
       <c r="Y685">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="686" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y686">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="687" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N687" s="8"/>
+      <c r="Y687">
         <v>10</v>
-      </c>
-    </row>
-    <row r="687" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y687">
-        <v>9</v>
       </c>
     </row>
     <row r="688" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y688">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689" spans="25:25" x14ac:dyDescent="0.3">
@@ -4830,22 +4938,32 @@
     </row>
     <row r="690" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y690">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="691" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y691">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y692">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y693">
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y692" s="7">
-        <f>SUM(Y682:Y691)</f>
+    <row r="694" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y694" s="7">
+        <f>SUM(Y684:Y693)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A23:B23"/>
@@ -4868,6 +4986,7 @@
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A113:B113"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="240">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1909,6 +1909,26 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>lu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>威将     战刃大黄蜂mpm03</t>
+    <rPh sb="0" eb="1">
+      <t>wei'jinag</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan'ren</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷变宝   GT-05 擎天OP柱</t>
+    <rPh sb="0" eb="1">
+      <t>ku'bian'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qin'tian'zhu</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2109,10 +2129,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2394,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2411,10 +2431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2442,10 +2462,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2501,10 +2521,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2537,10 +2557,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2558,10 +2578,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2601,10 +2621,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2622,10 +2642,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2697,10 +2717,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2789,10 +2809,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -2825,10 +2845,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -2877,10 +2897,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -2937,10 +2957,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -2981,10 +3001,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3017,10 +3037,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3061,10 +3081,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3113,10 +3133,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3165,10 +3185,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3209,10 +3229,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3317,10 +3337,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3382,10 +3402,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3478,10 +3498,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3640,10 +3660,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,10 +3826,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -3917,10 +3937,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -3960,10 +3980,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4087,10 +4107,10 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4133,10 +4153,10 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4225,10 +4245,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4246,10 +4266,10 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4351,10 +4371,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4399,10 +4419,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4605,10 +4625,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4672,10 +4692,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4838,10 +4858,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -4881,19 +4901,35 @@
         <v>174.4</v>
       </c>
     </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B285" s="5">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B286" s="5">
+        <v>149</v>
+      </c>
+    </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C289" s="4">
-        <v>356.4</v>
+        <v>544.20000000000005</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" s="5">
         <f>SUM(B281:B289)</f>
-        <v>356.4</v>
+        <v>544.20000000000005</v>
       </c>
       <c r="C290" s="10">
         <f>SUM(C279:C289)</f>
-        <v>21459.85</v>
+        <v>21647.649999999998</v>
       </c>
     </row>
     <row r="349" spans="10:10" x14ac:dyDescent="0.3">
@@ -4964,28 +5000,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
@@ -4998,6 +5012,28 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -460,20 +460,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蒲源</t>
-    <rPh sb="0" eb="1">
-      <t>pu'tua</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS        小时鸣人              预定</t>
-    <rPh sb="0" eb="4">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>国产小贱贱粘土人</t>
     <rPh sb="0" eb="2">
       <t>guo'cha</t>
@@ -1929,6 +1915,23 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>qin'tian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴   钢索</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gang'suo</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROS        小时鸣人              </t>
+    <rPh sb="0" eb="4">
+      <t>bo's</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2129,10 +2132,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2414,7 +2417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -2431,14 +2434,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2462,14 +2465,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2485,7 +2488,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2501,7 +2504,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2521,14 +2524,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="26"/>
+      <c r="A12" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2557,17 +2560,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2578,14 +2581,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="26"/>
+      <c r="A18" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2621,17 +2624,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="26"/>
+      <c r="A23" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2642,14 +2645,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="26"/>
+      <c r="A25" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -2717,14 +2720,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="26"/>
+      <c r="A34" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -2732,7 +2735,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -2772,7 +2775,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -2809,14 +2812,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="26"/>
+      <c r="A45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -2845,14 +2848,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="26"/>
+      <c r="A49" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -2860,7 +2863,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -2868,7 +2871,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -2897,14 +2900,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="26"/>
+      <c r="A55" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -2912,7 +2915,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -2957,14 +2960,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="26"/>
+      <c r="A62" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -2972,7 +2975,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3001,14 +3004,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="26"/>
+      <c r="A67" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3037,14 +3040,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="26"/>
+      <c r="A71" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3052,7 +3055,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3081,14 +3084,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="26"/>
+      <c r="A76" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3133,14 +3136,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="26"/>
+      <c r="A82" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3148,7 +3151,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3156,7 +3159,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3164,7 +3167,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3185,14 +3188,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="26"/>
+      <c r="A88" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3200,7 +3203,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3208,7 +3211,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3229,14 +3232,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="26"/>
+      <c r="A93" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3244,7 +3247,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3260,7 +3263,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3268,7 +3271,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3292,7 +3295,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3300,7 +3303,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3337,15 +3340,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="26"/>
+      <c r="A106" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3354,7 +3357,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3363,7 +3366,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3381,7 +3384,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3402,15 +3405,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="26"/>
+      <c r="A113" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3428,7 +3431,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3445,7 +3448,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3453,7 +3456,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3461,7 +3464,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3469,7 +3472,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3498,14 +3501,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="26"/>
+      <c r="A124" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3513,7 +3516,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3521,7 +3524,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3545,7 +3548,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3553,7 +3556,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3569,7 +3572,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3577,7 +3580,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3585,7 +3588,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3602,7 +3605,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3620,7 +3623,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3629,7 +3632,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3660,15 +3663,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B143" s="26"/>
+      <c r="A143" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3677,7 +3680,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -3686,7 +3689,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -3718,7 +3721,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -3726,7 +3729,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -3758,7 +3761,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -3774,7 +3777,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -3790,7 +3793,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -3803,7 +3806,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -3826,14 +3829,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -3841,7 +3844,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -3849,7 +3852,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -3881,7 +3884,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -3897,7 +3900,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -3937,14 +3940,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -3952,7 +3955,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -3980,14 +3983,14 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4003,18 +4006,18 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4022,7 +4025,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4030,7 +4033,7 @@
     </row>
     <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4046,7 +4049,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4054,7 +4057,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4062,7 +4065,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4070,7 +4073,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4078,15 +4081,15 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4095,7 +4098,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4106,43 +4109,43 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="27"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4152,40 +4155,37 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B201" s="27"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B204" s="11">
-        <v>9.9</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B204" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>53</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>52</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>51</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>50</v>
       </c>
@@ -4231,24 +4231,24 @@
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
-        <v>548</v>
+        <v>615.1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
-        <v>548</v>
+        <v>615.1</v>
       </c>
       <c r="C211" s="10">
         <f>SUM(C200:C210)</f>
-        <v>17856.14</v>
+        <v>17923.239999999998</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4262,14 +4262,14 @@
       </c>
       <c r="C214" s="10">
         <f>SUM(C211:C213)</f>
-        <v>17856.14</v>
+        <v>17923.239999999998</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4367,14 +4367,14 @@
       </c>
       <c r="C226" s="10">
         <f>SUM(C214:C225)</f>
-        <v>18676.259999999998</v>
+        <v>18743.359999999997</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4415,14 +4415,14 @@
       </c>
       <c r="C232" s="10">
         <f>SUM(C225:C231)</f>
-        <v>19884.379999999997</v>
+        <v>19951.479999999996</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4621,14 +4621,14 @@
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20147.479999999996</v>
+        <v>20214.579999999994</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>20444.699999999997</v>
+        <v>20511.799999999996</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4743,13 +4743,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B267" s="11">
         <v>180</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,7 +4786,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -4794,18 +4794,18 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B273" s="5">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B274" s="5">
         <v>9.61</v>
@@ -4816,24 +4816,24 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B275" s="5">
         <v>10</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B276" s="5">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -4854,40 +4854,40 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21103.449999999997</v>
+        <v>21170.549999999996</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B281" s="5">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B282" s="5">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -4911,25 +4911,33 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
       </c>
     </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B287" s="5">
+        <v>302.8</v>
+      </c>
+    </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C289" s="4">
-        <v>544.20000000000005</v>
+        <v>847</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" s="5">
         <f>SUM(B281:B289)</f>
-        <v>544.20000000000005</v>
+        <v>847</v>
       </c>
       <c r="C290" s="10">
         <f>SUM(C279:C289)</f>
-        <v>21647.649999999998</v>
+        <v>22017.549999999996</v>
       </c>
     </row>
     <row r="349" spans="10:10" x14ac:dyDescent="0.3">
@@ -5000,6 +5008,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
@@ -5012,28 +5042,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="238">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -368,29 +368,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蒲原</t>
-    <rPh sb="0" eb="1">
-      <t>pu'yuan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗宾codeB 景品                    预定</t>
-    <rPh sb="0" eb="1">
-      <t>luo'bin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">黑曼巴 L红蜘蛛                    </t>
     <rPh sb="0" eb="1">
       <t>hei'man'ba</t>
@@ -559,13 +536,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>唯美模玩社</t>
-    <rPh sb="0" eb="1">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GROS  终极自在极意功   悟空       </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
@@ -1932,6 +1902,16 @@
     <t xml:space="preserve">GROS        小时鸣人              </t>
     <rPh sb="0" eb="4">
       <t>bo's</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">罗宾codeB 景品                    </t>
+    <rPh sb="0" eb="1">
+      <t>luo'bin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'pin</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2132,10 +2112,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2417,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2434,14 +2414,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2449,7 +2429,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2465,14 +2445,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2480,7 +2460,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2488,7 +2468,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2496,7 +2476,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2504,7 +2484,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2524,14 +2504,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2539,7 +2519,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2560,17 +2540,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2581,14 +2561,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2596,7 +2576,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2604,7 +2584,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2624,17 +2604,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2645,14 +2625,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="27"/>
+      <c r="A25" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2660,7 +2640,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2668,7 +2648,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2676,7 +2656,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2684,7 +2664,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -2692,7 +2672,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -2700,7 +2680,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -2720,14 +2700,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -2735,7 +2715,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -2743,7 +2723,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -2751,7 +2731,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -2759,7 +2739,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -2767,7 +2747,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -2775,7 +2755,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -2783,7 +2763,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -2791,7 +2771,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -2812,14 +2792,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="27"/>
+      <c r="A45" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -2827,7 +2807,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -2848,14 +2828,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="27"/>
+      <c r="A49" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -2863,7 +2843,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -2871,7 +2851,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -2879,7 +2859,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -2900,14 +2880,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="27"/>
+      <c r="A55" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -2915,7 +2895,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -2923,7 +2903,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -2931,7 +2911,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -2939,7 +2919,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -2960,14 +2940,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="27"/>
+      <c r="A62" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -2975,7 +2955,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -2983,7 +2963,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3004,14 +2984,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="27"/>
+      <c r="A67" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3019,7 +2999,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3040,14 +3020,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="27"/>
+      <c r="A71" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3055,7 +3035,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3063,7 +3043,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3084,14 +3064,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="27"/>
+      <c r="A76" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3099,7 +3079,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3107,7 +3087,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3115,7 +3095,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3136,14 +3116,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="27"/>
+      <c r="A82" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3151,7 +3131,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3159,7 +3139,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3167,7 +3147,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3188,14 +3168,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B88" s="27"/>
+      <c r="A88" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3203,7 +3183,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3211,7 +3191,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3232,14 +3212,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" s="27"/>
+      <c r="A93" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3247,7 +3227,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3255,7 +3235,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3263,7 +3243,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3271,7 +3251,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3279,7 +3259,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3287,7 +3267,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3295,7 +3275,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3303,7 +3283,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3311,7 +3291,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3319,7 +3299,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3340,15 +3320,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B106" s="27"/>
+      <c r="A106" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3357,7 +3337,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3366,7 +3346,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3375,7 +3355,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3384,7 +3364,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3405,15 +3385,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" s="27"/>
+      <c r="A113" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3422,7 +3402,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3431,7 +3411,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3440,7 +3420,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3448,7 +3428,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3456,7 +3436,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3464,7 +3444,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3472,7 +3452,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3480,7 +3460,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3501,14 +3481,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="27"/>
+      <c r="A124" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3516,7 +3496,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3524,7 +3504,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3532,7 +3512,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3540,7 +3520,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3548,7 +3528,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3556,7 +3536,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3564,7 +3544,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3572,7 +3552,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3580,7 +3560,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3588,7 +3568,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3596,7 +3576,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3605,7 +3585,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3614,7 +3594,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3623,7 +3603,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3632,7 +3612,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3641,7 +3621,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3663,15 +3643,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B143" s="27"/>
+      <c r="A143" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3680,7 +3660,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -3689,7 +3669,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -3697,7 +3677,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -3705,7 +3685,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -3713,7 +3693,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -3721,7 +3701,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -3729,7 +3709,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -3737,7 +3717,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -3745,7 +3725,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -3753,7 +3733,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -3761,7 +3741,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -3769,7 +3749,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -3777,7 +3757,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -3785,7 +3765,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -3793,7 +3773,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -3806,7 +3786,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -3829,14 +3809,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -3844,7 +3824,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -3852,7 +3832,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -3860,7 +3840,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -3868,7 +3848,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -3876,7 +3856,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -3884,7 +3864,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -3892,7 +3872,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -3900,7 +3880,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -3908,7 +3888,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -3920,7 +3900,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -3940,30 +3920,30 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -3972,7 +3952,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -3982,106 +3962,103 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="26"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4089,7 +4066,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4110,14 +4087,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4125,7 +4102,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4133,7 +4110,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4156,14 +4133,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4171,7 +4148,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4179,7 +4156,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4187,7 +4164,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4195,7 +4172,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4203,7 +4180,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4211,7 +4188,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4219,13 +4196,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B209" s="11">
         <v>10</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4245,10 +4222,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4266,14 +4243,14 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4281,7 +4258,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4289,21 +4266,18 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B219" s="11">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>43</v>
+      <c r="A219" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" s="5">
+        <v>83.71</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4357,24 +4331,24 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
-        <v>820.12</v>
+        <v>894.12</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
-        <v>820.11999999999989</v>
+        <v>894.11999999999989</v>
       </c>
       <c r="C226" s="10">
         <f>SUM(C214:C225)</f>
-        <v>18743.359999999997</v>
+        <v>18817.359999999997</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4415,14 +4389,14 @@
       </c>
       <c r="C232" s="10">
         <f>SUM(C225:C231)</f>
-        <v>19951.479999999996</v>
+        <v>20099.479999999996</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4621,14 +4595,14 @@
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20214.579999999994</v>
+        <v>20362.579999999994</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4688,14 +4662,14 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>20511.799999999996</v>
+        <v>20659.799999999996</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4743,13 +4717,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B267" s="11">
         <v>180</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,7 +4760,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -4794,18 +4768,18 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B273" s="5">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B274" s="5">
         <v>9.61</v>
@@ -4816,24 +4790,24 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B275" s="5">
         <v>10</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B276" s="5">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -4854,40 +4828,40 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21170.549999999996</v>
+        <v>21318.549999999996</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B281" s="5">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B282" s="5">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -4895,7 +4869,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -4903,7 +4877,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -4911,7 +4885,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -4919,7 +4893,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -4937,7 +4911,7 @@
       </c>
       <c r="C290" s="10">
         <f>SUM(C279:C289)</f>
-        <v>22017.549999999996</v>
+        <v>22165.549999999996</v>
       </c>
     </row>
     <row r="349" spans="10:10" x14ac:dyDescent="0.3">
@@ -5008,28 +4982,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
@@ -5042,6 +4994,28 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="239">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -42,7 +42,7 @@
     <rPh sb="19" eb="20">
       <t>wei'wei</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
@@ -61,7 +61,7 @@
     <rPh sb="21" eb="22">
       <t>te'bie</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超绝技巧     蓝发        孙悟空</t>
@@ -77,7 +77,7 @@
     <rPh sb="19" eb="20">
       <t>sun</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超绝技巧     蓝发        贝吉塔</t>
@@ -93,7 +93,7 @@
     <rPh sb="19" eb="20">
       <t>bei'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蒲原</t>
@@ -109,7 +109,7 @@
     <rPh sb="28" eb="29">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DXF   一拳超人   琦玉             预定</t>
@@ -125,7 +125,7 @@
     <rPh sb="28" eb="29">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EXQ     叛逆的鲁路修 CC           预定</t>
@@ -141,7 +141,7 @@
     <rPh sb="28" eb="29">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>KOA   造型王   路飞四档           预定</t>
@@ -160,155 +160,155 @@
     <rPh sb="27" eb="28">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GROS            绿谷              预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1/4             路人女主 英梨梨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SMSP            祖国超四悟空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>闪光与魅力      女帝</t>
     <rPh sb="0" eb="5">
       <t>nv'd</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>闪光与魅力      布尔玛            预定</t>
     <rPh sb="0" eb="2">
       <t>shan'guan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AOH       欧尔麦特                预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Grandista  山治                   预定           </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Grandista  索隆                   预定           </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>变形金刚封绘集</t>
     <rPh sb="0" eb="2">
       <t>bian'xi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">龙珠GT    贝吉塔超4               预定 </t>
     <rPh sb="0" eb="1">
       <t>long'zh</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 海侠 甚平                    预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 山治                         预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 孙悟空 军装                  预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 卡塔库栗 卡二                预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 人造人 17号                  预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 比克 短笛                    预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 孙悟空 打伞修行              预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 佛利萨 第2形态               预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 黑悟空 扎马斯                预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 贝吉塔 比达                  预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 特兰克斯 未来                预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BWFC 小悟空 童年                  预定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2018.10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>玩模主义</t>
     <rPh sb="0" eb="2">
       <t>wan'mo</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>御模道     1/6 赛文               预定</t>
     <rPh sb="0" eb="1">
       <t>yu'mo'da</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HG     魔神Z大魔神                </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HG     魔神Z铁甲万能侠            </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2018.09</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PI 新52超人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FDS   海贼王    蕾玖</t>
     <rPh sb="0" eb="1">
       <t>lei'jiu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蒲原</t>
     <rPh sb="0" eb="1">
       <t>pu'yuan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>景品  剧场 终极战士    贝吉塔     预定</t>
@@ -327,7 +327,7 @@
     <rPh sb="23" eb="24">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>景品  剧场 终极战士    孙悟空     预定</t>
@@ -346,7 +346,7 @@
     <rPh sb="23" eb="24">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>景品  剧场 终极战士    布罗利     预定</t>
@@ -365,7 +365,7 @@
     <rPh sb="23" eb="24">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">黑曼巴 L红蜘蛛                    </t>
@@ -375,7 +375,7 @@
     <rPh sb="5" eb="6">
       <t>hong'zhi'zhu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑曼巴  氮气宙斯</t>
@@ -385,215 +385,215 @@
     <rPh sb="7" eb="8">
       <t>zhou'si</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>屁股</t>
     <rPh sb="0" eb="2">
       <t>pi'gi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>寄生兽</t>
     <rPh sb="0" eb="2">
       <t>ji'shen'sho</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>二十周年   悟空</t>
     <rPh sb="0" eb="2">
       <t>er'shi'zhou'nia</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BOS         超赛悟空              </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS        悟饭                  </t>
     <rPh sb="0" eb="14">
       <t>bo's</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">龟波气功    悟空                  </t>
     <rPh sb="0" eb="2">
       <t>gui'b</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">闪光魅力    兰琪                  </t>
     <rPh sb="0" eb="1">
       <t>shan'guangyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>国产小贱贱粘土人</t>
     <rPh sb="0" eb="2">
       <t>guo'cha</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PA    小姐姐+摩托拼装</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大班        MG黄狼</t>
     <rPh sb="0" eb="2">
       <t>da'ba</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>JOJO        疯狂钻石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1/6         钢铁奥特曼            </t>
     <rPh sb="0" eb="2">
       <t>gang'tie</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>msp  悟天克斯</t>
     <rPh sb="0" eb="2">
       <t>wu'tian</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大班 HG 雷霆吉姆</t>
     <rPh sb="0" eb="2">
       <t>da'ban</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大班 HG 雷霆宙域78+吉姆3+飙狼+百式德尔塔</t>
     <rPh sb="0" eb="2">
       <t>da'ban</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">龙珠TV      腾云小悟空            </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">魅力闪光    峰不二子              </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">海贼王      婚纱     女帝         </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BOS         界王拳   悟空        </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版 幻想金瓶梅瓶儿  + 祖国版 监狱学园白木芽衣副会长</t>
     <rPh sb="0" eb="3">
       <t>zu'guo'ban</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版   Megahouse女帝侧卧泳装</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>高高HG   德天使+厄运式</t>
     <rPh sb="0" eb="2">
       <t>gao'ga</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS  终极自在极意功   悟空       </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PA    塞巴F拼装</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">龙珠Z  竞争对手  全功率弗利萨     </t>
     <rPh sb="0" eb="22">
       <t>bo's</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PA    塞巴F拼装</t>
     <rPh sb="0" eb="1">
       <t>sai'ba</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS     鸣人                </t>
     <rPh sb="0" eb="16">
       <t>bo's</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS     路飞                    </t>
     <rPh sb="0" eb="16">
       <t>bo's</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS   佐助                       </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS   卡卡西                     </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>悟空+贝吉塔   Figuration胸像</t>
     <rPh sb="0" eb="2">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HS 正义女神F雪崩</t>
@@ -603,7 +603,7 @@
     <rPh sb="8" eb="9">
       <t>xue'ben</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版 msp悟吉塔+Figuration悟吉塔</t>
@@ -616,7 +616,7 @@
     <rPh sb="21" eb="22">
       <t>wu'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DXF  超三悟天克斯</t>
@@ -626,7 +626,7 @@
     <rPh sb="7" eb="8">
       <t>wu'tian'ke'si</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>万代拼装 沙鲁+超四悟空</t>
@@ -645,7 +645,7 @@
     <rPh sb="10" eb="11">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版 msp原色贝吉塔</t>
@@ -658,7 +658,7 @@
     <rPh sb="9" eb="10">
       <t>bei'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版 龙珠 少年红发悟空</t>
@@ -677,7 +677,7 @@
     <rPh sb="11" eb="12">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>万代拼装17,18号+超四贝吉塔</t>
@@ -696,7 +696,7 @@
     <rPh sb="13" eb="14">
       <t>bei'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">龙珠   蓝超贝吉特          </t>
@@ -709,7 +709,7 @@
     <rPh sb="5" eb="6">
       <t>bei'ji'te</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>龙珠DS 悟空+弗利萨</t>
@@ -722,7 +722,7 @@
     <rPh sb="8" eb="9">
       <t>fu'li'sa</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>KOA 20周年 海贼路飞</t>
@@ -738,7 +738,7 @@
     <rPh sb="12" eb="13">
       <t>fei'jiyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DXF  超级龙珠英雄  超赛悟空      </t>
@@ -760,7 +760,7 @@
     <rPh sb="19" eb="20">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>龙珠Z BOS 超赛贝吉塔 预定</t>
@@ -776,7 +776,7 @@
     <rPh sb="14" eb="15">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>龙珠Z BOS 超赛悟空 预定</t>
@@ -792,7 +792,7 @@
     <rPh sb="13" eb="14">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SC造型王 4档路飞+FES 03系列02款超三悟空</t>
@@ -820,7 +820,7 @@
     <rPh sb="24" eb="25">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会6 站立18号+终极闪光贝吉塔</t>
@@ -842,7 +842,7 @@
     <rPh sb="15" eb="16">
       <t>bei'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>万代robot魂  环太平洋2</t>
@@ -858,7 +858,7 @@
     <rPh sb="11" eb="12">
       <t>tai'pin'yangyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版SMSD 爆气悟空</t>
@@ -871,7 +871,7 @@
     <rPh sb="10" eb="11">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版SMSP 原色悟空</t>
@@ -881,7 +881,7 @@
     <rPh sb="10" eb="11">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版SMSP 原色贝吉塔</t>
@@ -894,7 +894,7 @@
     <rPh sb="10" eb="11">
       <t>bei'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>变色 布尔玛</t>
@@ -904,7 +904,7 @@
     <rPh sb="3" eb="4">
       <t>bu'er'mayu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">闪光魅力   18号                </t>
@@ -917,7 +917,7 @@
     <rPh sb="11" eb="12">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">武道会5    虎皮悟空               </t>
@@ -933,7 +933,7 @@
     <rPh sb="10" eb="11">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DXF        极意空                 </t>
@@ -943,7 +943,7 @@
     <rPh sb="8" eb="9">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国megahouse 18号</t>
@@ -953,7 +953,7 @@
     <rPh sb="14" eb="15">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>龙珠  彩色相片</t>
@@ -966,11 +966,11 @@
     <rPh sb="6" eb="7">
       <t>xiang'pian</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Grandista  ROS巴达克              </t>
@@ -980,7 +980,7 @@
     <rPh sb="16" eb="17">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>七龙珠  画集+线稿</t>
@@ -996,7 +996,7 @@
     <rPh sb="8" eb="9">
       <t>xian</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会7   悟吉塔补款</t>
@@ -1009,7 +1009,7 @@
     <rPh sb="10" eb="11">
       <t>bu'kuan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>高高重炮</t>
@@ -1019,14 +1019,14 @@
     <rPh sb="2" eb="3">
       <t>zhong'pao</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会8   龟派气功悟空</t>
     <rPh sb="11" eb="12">
       <t>wu'kongyu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">武道会8    弗利萨                 </t>
@@ -1036,7 +1036,7 @@
     <rPh sb="11" eb="12">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">武道会8    沙鲁                   </t>
@@ -1049,7 +1049,7 @@
     <rPh sb="10" eb="11">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会6   超三发波</t>
@@ -1062,7 +1062,7 @@
     <rPh sb="9" eb="10">
       <t>fa'bo</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版七龙珠    smsp悟空</t>
@@ -1075,7 +1075,7 @@
     <rPh sb="14" eb="15">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>龟派气功  黑发悟空</t>
@@ -1088,7 +1088,7 @@
     <rPh sb="8" eb="9">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会7   悟吉塔订金</t>
@@ -1101,14 +1101,14 @@
     <rPh sb="10" eb="11">
       <t>din'jin</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>msp 特兰克斯</t>
     <rPh sb="4" eb="5">
       <t>te'lan'ke'is</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">大班 mb红红异端                </t>
@@ -1121,7 +1121,7 @@
     <rPh sb="9" eb="10">
       <t>din'jin</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>扎古三连星</t>
@@ -1131,7 +1131,7 @@
     <rPh sb="2" eb="3">
       <t>san'lian'xin</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大班   MG自由2.0</t>
@@ -1141,7 +1141,7 @@
     <rPh sb="7" eb="8">
       <t>zi'you</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会6  超赛 贝吉塔</t>
@@ -1154,7 +1154,7 @@
     <rPh sb="9" eb="10">
       <t>bei'ji'ta</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武道会6  超二+超三  悟空</t>
@@ -1173,11 +1173,11 @@
     <rPh sb="13" eb="14">
       <t>wu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>msp大组立超赛特兰克斯</t>
@@ -1190,47 +1190,47 @@
     <rPh sb="8" eb="9">
       <t>te'lan'ke'si</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Grandista ROS贝吉塔 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>原子模型，R2-D2 R5-D</t>
   </si>
   <si>
     <t>机甲红异端改武器包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Grandista ROS 觉悟3桃红(已付) + 黑发悟空</t>
     <rPh sb="0" eb="2">
       <t>yi'daohei'fawu'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>机甲先驱 透明红异端</t>
     <rPh sb="0" eb="1">
       <t>ji'jia</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>漫画悟饭24cm</t>
   </si>
   <si>
     <t xml:space="preserve">Grandista ROS 悟空 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MENG 俾斯麦号战列舰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EVA初号机</t>
@@ -1246,72 +1246,72 @@
     <rPh sb="0" eb="1">
       <t>za'zhi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MB能天使【含四套装备】</t>
   </si>
   <si>
     <t>2017.9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>海盗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大班雪崩*2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>沙漠+双龙</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>87133灰色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>防静电ESD14C特尖型直尖头</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超时空要塞</t>
     <rPh sb="0" eb="1">
       <t>chao'shi'kong'yao'sai</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OLFA爱利华AK-5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>a3切割板</t>
     <rPh sb="2" eb="3">
       <t>qie'ge'ban</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DSPIAE ST-A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MB雪崩能天使</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Z高达</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>长牙虎</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>田宫渗线液</t>
@@ -1321,101 +1321,101 @@
     <rPh sb="2" eb="3">
       <t>shen'xian'ye</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑武士+白兵+幻象长牙狮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>元祖 敢达3.0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MS-232（带背胶）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>卡海牛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EVA武器搭载架</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>L级威镇天</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>恩佐法拉利</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞翼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MB金异端</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>透明重炮+猎鸥</t>
     <rPh sb="5" eb="6">
       <t>lie'ou</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>圣约</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>机甲红异端</t>
     <rPh sb="0" eb="1">
       <t>ji'jia</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DX</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>闪电扎古</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>京宝梵改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>杰斯塔加农</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>X魔王+凤凰飞翼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>奥迪双钻超限列兵</t>
@@ -1431,7 +1431,7 @@
     <rPh sb="6" eb="7">
       <t>lie'bin</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NX红蓝异端</t>
@@ -1441,23 +1441,23 @@
     <rPh sb="4" eb="5">
       <t>yi'duan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>红七剑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RG新安洲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DA神意</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工具+补件</t>
@@ -1467,82 +1467,82 @@
     <rPh sb="3" eb="4">
       <t>bu'jian</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强袭自由</t>
     <rPh sb="0" eb="1">
       <t>qiang'xi'zi'you</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PG奥古</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暴风+命运</t>
     <rPh sb="3" eb="4">
       <t>ming'yun</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>兹莎+完美强袭</t>
     <rPh sb="3" eb="4">
       <t>wan'mei'qiang'xi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>梅萨拉+拖1+KA飞翼+宇宙星神+杰斯塔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
     <rPh sb="0" eb="1">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MK3+创燃+AGE双枪型+艾比安</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>箱牌锉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>锋芒水口剪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HG杰斯塔+卡尔斯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>00R</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>沙扎比</t>
     <rPh sb="0" eb="1">
       <t>sha'zha'bi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>迅雷+圣盾</t>
@@ -1552,7 +1552,7 @@
     <rPh sb="3" eb="4">
       <t>shen'dun</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>原石新安洲</t>
@@ -1562,18 +1562,18 @@
     <rPh sb="2" eb="3">
       <t>xin'an'zhou</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">版件架 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>万代铁血</t>
     <rPh sb="0" eb="1">
       <t>wan'dai'tie'xue</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>万代铁血</t>
@@ -1583,33 +1583,33 @@
     <rPh sb="2" eb="3">
       <t>tie'xue</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PG全武装独角兽武器包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>充电模块</t>
     <rPh sb="0" eb="1">
       <t>chong'dian'mo'kuai</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>车模</t>
     <rPh sb="0" eb="1">
       <t>che'mo</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>童年卡片</t>
@@ -1619,61 +1619,61 @@
     <rPh sb="2" eb="3">
       <t>ka'pian</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>独角兽高达 PG</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2016.4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>量子00Q</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RM嫣红强袭凤装备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2015.10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>卡牛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EX-S EXS 高达</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>海牛吴羽东华</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强袭自由</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>决斗</t>
     <rPh sb="0" eb="1">
       <t>jue'dou</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>红异端</t>
     <rPh sb="0" eb="1">
       <t>hong'yi'duan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>模型工具</t>
@@ -1683,27 +1683,7 @@
     <rPh sb="2" eb="3">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>模心  MG   掉毛                   预定</t>
-    <rPh sb="0" eb="1">
-      <t>mo'xin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin'zang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>diao'mao</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有玩没完</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DXF  龙珠    超三巴达克</t>
@@ -1716,7 +1696,7 @@
     <rPh sb="13" eb="14">
       <t>ba'da'ke</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BOS  龙珠    GT超四悟空           预定</t>
@@ -1729,7 +1709,7 @@
     <rPh sb="28" eb="29">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BOS  龙珠    自在极意悟空         预定</t>
@@ -1751,14 +1731,14 @@
     <rPh sb="26" eb="27">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>寄生兽</t>
     <rPh sb="0" eb="1">
       <t>ji'shen'shou</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>剧场版  终极战士   悟吉塔         预定</t>
@@ -1774,21 +1754,21 @@
     <rPh sb="24" eb="25">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>皆好</t>
     <rPh sb="1" eb="2">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>南京jojo</t>
     <rPh sb="0" eb="1">
       <t>nan'jin</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>永珍模型     红角马               预定</t>
@@ -1807,7 +1787,7 @@
     <rPh sb="27" eb="28">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑曼巴   横炮                     预定</t>
@@ -1820,7 +1800,7 @@
     <rPh sb="29" eb="30">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑曼巴   甲壳虫大黄蜂             预定</t>
@@ -1836,14 +1816,14 @@
     <rPh sb="25" eb="26">
       <t>yu'din</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>伊家</t>
     <rPh sb="0" eb="1">
       <t>yi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>祖国版   ZERO  超赛布罗利</t>
@@ -1856,7 +1836,7 @@
     <rPh sb="14" eb="15">
       <t>bu'luo'li</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑曼巴   路障</t>
@@ -1866,7 +1846,7 @@
     <rPh sb="6" eb="7">
       <t>lu'zhang</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>威将     战刃大黄蜂mpm03</t>
@@ -1876,7 +1856,7 @@
     <rPh sb="7" eb="8">
       <t>zhan'ren</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>酷变宝   GT-05 擎天OP柱</t>
@@ -1886,7 +1866,7 @@
     <rPh sb="12" eb="13">
       <t>qin'tian'zhu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑曼巴   钢索</t>
@@ -1896,14 +1876,14 @@
     <rPh sb="6" eb="7">
       <t>gang'suo</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GROS        小时鸣人              </t>
     <rPh sb="0" eb="4">
       <t>bo's</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">罗宾codeB 景品                    </t>
@@ -1913,7 +1893,49 @@
     <rPh sb="8" eb="9">
       <t>jin'pin</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROS    海贼王   艾斯             预定</t>
+    <rPh sb="8" eb="9">
+      <t>hai'zei'wang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ai'si</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXF   一拳超人  杰诺斯            预定</t>
+    <rPh sb="6" eb="7">
+      <t>yi'quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao'ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'nuo'si</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">模心  MG   掉毛                  </t>
+    <rPh sb="0" eb="1">
+      <t>mo'xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'zang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao'mao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1923,7 +1945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1935,13 +1957,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2022,6 +2037,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2052,75 +2085,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2395,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y694"/>
+  <dimension ref="A1:Y697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4156,7 +4197,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4274,7 +4315,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4716,14 +4757,11 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B267" s="11">
+      <c r="A267" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B267" s="5">
         <v>180</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4760,7 +4798,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -4768,20 +4806,20 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B273" s="11">
+        <v>10</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B273" s="5">
-        <v>10</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B274" s="5">
+        <v>220</v>
+      </c>
+      <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
@@ -4790,24 +4828,24 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B275" s="5">
+        <v>222</v>
+      </c>
+      <c r="B275" s="11">
         <v>10</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B276" s="5">
+        <v>225</v>
+      </c>
+      <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -4839,29 +4877,29 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B281" s="11">
+        <v>20</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B281" s="5">
-        <v>20</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B282" s="5">
+        <v>227</v>
+      </c>
+      <c r="B282" s="11">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -4869,7 +4907,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -4877,7 +4915,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -4885,7 +4923,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -4893,90 +4931,112 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C289" s="4">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B288" s="11">
+        <v>9.61</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B289" s="11">
+        <v>9.61</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C292" s="4">
         <v>847</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B290" s="5">
-        <f>SUM(B281:B289)</f>
-        <v>847</v>
-      </c>
-      <c r="C290" s="10">
-        <f>SUM(C279:C289)</f>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B293" s="5">
+        <f>SUM(B281:B292)</f>
+        <v>866.22</v>
+      </c>
+      <c r="C293" s="10">
+        <f>SUM(C279:C292)</f>
         <v>22165.549999999996</v>
       </c>
     </row>
-    <row r="349" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J349" s="9"/>
-    </row>
-    <row r="391" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I391" s="8"/>
-    </row>
-    <row r="679" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O679" s="8"/>
-    </row>
-    <row r="684" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y684">
+    <row r="352" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J352" s="9"/>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I394" s="8"/>
+    </row>
+    <row r="682" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O682" s="8"/>
+    </row>
+    <row r="687" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Y687">
         <v>9</v>
       </c>
     </row>
-    <row r="685" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y685">
+    <row r="688" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Y688">
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y686">
+    <row r="689" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y689">
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N687" s="8"/>
-      <c r="Y687">
+    <row r="690" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N690" s="8"/>
+      <c r="Y690">
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y688">
+    <row r="691" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y691">
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y689">
+    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y692">
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y690">
+    <row r="693" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y693">
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y691">
+    <row r="694" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y694">
         <v>9</v>
       </c>
     </row>
-    <row r="692" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y692">
+    <row r="695" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y695">
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y693">
+    <row r="696" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y696">
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y694" s="7">
-        <f>SUM(Y684:Y693)</f>
+    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y697" s="7">
+        <f>SUM(Y687:Y696)</f>
         <v>97</v>
       </c>
     </row>
@@ -5017,7 +5077,7 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18" numberStoredAsText="1"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="239">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -395,13 +395,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>寄生兽</t>
-    <rPh sb="0" eb="2">
-      <t>ji'shen'sho</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>二十周年   悟空</t>
     <rPh sb="0" eb="2">
       <t>er'shi'zhou'nia</t>
@@ -1909,14 +1902,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DXF   一拳超人  杰诺斯            预定</t>
-    <rPh sb="6" eb="7">
+    <t xml:space="preserve">模心  MG   掉毛                  </t>
+    <rPh sb="0" eb="1">
+      <t>mo'xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'zang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao'mao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXF     一拳超人  杰诺斯          预定</t>
+    <rPh sb="8" eb="9">
       <t>yi'quan</t>
     </rPh>
-    <rPh sb="8" eb="9">
+    <rPh sb="10" eb="11">
       <t>chao'ren</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="14" eb="15">
       <t>jie'nuo'si</t>
     </rPh>
     <rPh sb="27" eb="28">
@@ -1925,15 +1931,21 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">模心  MG   掉毛                  </t>
-    <rPh sb="0" eb="1">
-      <t>mo'xin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xin'zang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>diao'mao</t>
+    <t>龙珠    超绝技巧五  特兰克斯      预定</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chao'jue'ji'qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>te'lan'ke'si</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2438,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2474,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2470,7 +2482,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2493,7 +2505,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2501,7 +2513,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2509,7 +2521,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2517,7 +2529,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2525,7 +2537,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2546,13 +2558,13 @@
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2560,7 +2572,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2582,7 +2594,7 @@
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="4">
@@ -2591,7 +2603,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2603,13 +2615,13 @@
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2617,7 +2629,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2625,7 +2637,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2646,7 +2658,7 @@
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="4">
@@ -2655,7 +2667,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2667,13 +2679,13 @@
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2681,7 +2693,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2689,7 +2701,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2697,7 +2709,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2705,7 +2717,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -2713,7 +2725,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -2721,7 +2733,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -2742,13 +2754,13 @@
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -2756,7 +2768,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -2764,7 +2776,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -2772,7 +2784,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -2780,7 +2792,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -2788,7 +2800,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -2796,7 +2808,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -2804,7 +2816,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -2812,7 +2824,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -2834,13 +2846,13 @@
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -2848,7 +2860,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -2870,13 +2882,13 @@
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -2884,7 +2896,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -2892,7 +2904,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -2900,7 +2912,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -2922,13 +2934,13 @@
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -2936,7 +2948,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -2944,7 +2956,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -2952,7 +2964,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -2960,7 +2972,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -2982,13 +2994,13 @@
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -2996,7 +3008,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3004,7 +3016,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3026,13 +3038,13 @@
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3040,7 +3052,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3062,13 +3074,13 @@
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3076,7 +3088,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3084,7 +3096,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3106,13 +3118,13 @@
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3120,7 +3132,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3128,7 +3140,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3136,7 +3148,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3158,13 +3170,13 @@
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3172,7 +3184,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3180,7 +3192,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3188,7 +3200,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3210,13 +3222,13 @@
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3224,7 +3236,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3232,7 +3244,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3254,13 +3266,13 @@
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3268,7 +3280,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3276,7 +3288,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3284,7 +3296,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3292,7 +3304,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3300,7 +3312,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3308,7 +3320,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3316,7 +3328,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3324,7 +3336,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3332,7 +3344,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3340,7 +3352,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3362,14 +3374,14 @@
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3378,7 +3390,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3387,7 +3399,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3396,7 +3408,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3405,7 +3417,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3427,14 +3439,14 @@
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3443,7 +3455,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3452,7 +3464,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3461,7 +3473,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3469,7 +3481,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3477,7 +3489,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3485,7 +3497,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3493,7 +3505,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3501,7 +3513,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3523,13 +3535,13 @@
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3537,7 +3549,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3545,7 +3557,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3553,7 +3565,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3561,7 +3573,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3569,7 +3581,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3577,7 +3589,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3585,7 +3597,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3593,7 +3605,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3601,7 +3613,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3609,7 +3621,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3617,7 +3629,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3626,7 +3638,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3635,7 +3647,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3644,7 +3656,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3653,7 +3665,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3662,7 +3674,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3685,14 +3697,14 @@
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3701,7 +3713,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -3710,7 +3722,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -3718,7 +3730,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -3726,7 +3738,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -3734,7 +3746,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -3742,7 +3754,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -3750,7 +3762,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -3758,7 +3770,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -3766,7 +3778,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -3774,7 +3786,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -3782,7 +3794,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -3790,7 +3802,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -3798,7 +3810,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -3806,7 +3818,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -3814,7 +3826,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -3827,7 +3839,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -3857,7 +3869,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -3865,7 +3877,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -3873,7 +3885,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -3881,7 +3893,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -3889,7 +3901,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -3905,7 +3917,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -3913,7 +3925,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -3921,7 +3933,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -3929,7 +3941,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -3968,7 +3980,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -3976,7 +3988,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -3984,7 +3996,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4011,7 +4023,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4019,7 +4031,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4027,7 +4039,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4035,7 +4047,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4043,7 +4055,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4051,7 +4063,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4059,7 +4071,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4067,7 +4079,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4075,7 +4087,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4083,7 +4095,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4091,7 +4103,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4099,7 +4111,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4107,7 +4119,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4135,7 +4147,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4143,7 +4155,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4151,7 +4163,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4181,7 +4193,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4189,7 +4201,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4197,7 +4209,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4205,7 +4217,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4213,7 +4225,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4221,7 +4233,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4229,37 +4241,34 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B209" s="11">
-        <v>10</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="A209" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="B209" s="5">
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
-        <v>615.1</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
-        <v>615.1</v>
+        <v>691.1</v>
       </c>
       <c r="C211" s="10">
         <f>SUM(C200:C210)</f>
-        <v>17923.239999999998</v>
+        <v>17999.239999999998</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4280,7 +4289,7 @@
       </c>
       <c r="C214" s="10">
         <f>SUM(C211:C213)</f>
-        <v>17923.239999999998</v>
+        <v>17999.239999999998</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4315,7 +4324,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4382,7 +4391,7 @@
       </c>
       <c r="C226" s="10">
         <f>SUM(C214:C225)</f>
-        <v>18817.359999999997</v>
+        <v>18893.359999999997</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4430,7 +4439,7 @@
       </c>
       <c r="C232" s="10">
         <f>SUM(C225:C231)</f>
-        <v>20099.479999999996</v>
+        <v>20175.479999999996</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4636,7 +4645,7 @@
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20362.579999999994</v>
+        <v>20438.579999999994</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4703,7 +4712,7 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>20659.799999999996</v>
+        <v>20735.799999999996</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4758,7 +4767,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -4798,7 +4807,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -4806,18 +4815,18 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
@@ -4828,24 +4837,24 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B275" s="11">
         <v>10</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -4866,7 +4875,7 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21318.549999999996</v>
+        <v>21394.549999999996</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
@@ -4877,29 +4886,29 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B282" s="11">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -4907,7 +4916,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -4915,7 +4924,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -4923,7 +4932,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -4931,7 +4940,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -4939,7 +4948,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
@@ -4959,19 +4968,30 @@
         <v>39</v>
       </c>
     </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B290" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
-        <v>847</v>
+        <v>876.02</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
-        <v>866.22</v>
+        <v>876.02</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>22165.549999999996</v>
+        <v>22270.569999999996</v>
       </c>
     </row>
     <row r="352" spans="10:10" x14ac:dyDescent="0.3">

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="239">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -297,73 +297,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FDS   海贼王    蕾玖</t>
-    <rPh sb="0" eb="1">
-      <t>lei'jiu</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>蒲原</t>
     <rPh sb="0" eb="1">
       <t>pu'yuan</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>景品  剧场 终极战士    贝吉塔     预定</t>
-    <rPh sb="0" eb="1">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ju'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>景品  剧场 终极战士    孙悟空     预定</t>
-    <rPh sb="0" eb="1">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ju'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>sun'wu'kong</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>景品  剧场 终极战士    布罗利     预定</t>
-    <rPh sb="0" eb="1">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ju'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'luo'li</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -395,13 +331,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>二十周年   悟空</t>
-    <rPh sb="0" eb="2">
-      <t>er'shi'zhou'nia</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">BOS         超赛悟空              </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
@@ -1879,16 +1808,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">罗宾codeB 景品                    </t>
-    <rPh sb="0" eb="1">
-      <t>luo'bin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin'pin</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>GROS    海贼王   艾斯             预定</t>
     <rPh sb="8" eb="9">
       <t>hai'zei'wang</t>
@@ -1946,6 +1865,78 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">景品  剧场 终极战士    布罗利     </t>
+    <rPh sb="0" eb="1">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'luo'li</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">景品  剧场 终极战士    孙悟空     </t>
+    <rPh sb="0" eb="1">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sun'wu'kong</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">景品  剧场 终极战士    贝吉塔     </t>
+    <rPh sb="0" eb="1">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bei'ji'ta</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDS   codeB 海贼王    蕾玖</t>
+    <rPh sb="0" eb="1">
+      <t>lei'jiu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FDS   海贼王 codeB    罗宾                </t>
+    <rPh sb="6" eb="7">
+      <t>hai'zei'wang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>luo'bin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十周年    悟空</t>
+    <rPh sb="0" eb="2">
+      <t>er'shi'zhou'nia</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2161,10 +2152,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2450,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2467,14 +2458,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2482,7 +2473,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2498,14 +2489,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2513,7 +2504,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2521,7 +2512,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2529,7 +2520,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2537,7 +2528,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2557,14 +2548,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="26"/>
+      <c r="A12" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2572,7 +2563,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2593,17 +2584,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2614,14 +2605,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="26"/>
+      <c r="A18" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2629,7 +2620,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2637,7 +2628,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2657,17 +2648,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="26"/>
+      <c r="A23" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2678,14 +2669,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="26"/>
+      <c r="A25" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2693,7 +2684,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2701,7 +2692,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2709,7 +2700,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2717,7 +2708,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -2725,7 +2716,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -2733,7 +2724,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -2753,14 +2744,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="26"/>
+      <c r="A34" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -2768,7 +2759,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -2776,7 +2767,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -2784,7 +2775,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -2792,7 +2783,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -2800,7 +2791,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -2808,7 +2799,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -2816,7 +2807,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -2824,7 +2815,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -2845,14 +2836,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="26"/>
+      <c r="A45" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -2860,7 +2851,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -2881,14 +2872,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="26"/>
+      <c r="A49" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -2896,7 +2887,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -2904,7 +2895,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -2912,7 +2903,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -2933,14 +2924,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="26"/>
+      <c r="A55" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -2948,7 +2939,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -2956,7 +2947,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -2964,7 +2955,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -2972,7 +2963,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -2993,14 +2984,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="26"/>
+      <c r="A62" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3008,7 +2999,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3016,7 +3007,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3037,14 +3028,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="26"/>
+      <c r="A67" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3052,7 +3043,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3073,14 +3064,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="26"/>
+      <c r="A71" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3088,7 +3079,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3096,7 +3087,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3117,14 +3108,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="26"/>
+      <c r="A76" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3132,7 +3123,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3140,7 +3131,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3148,7 +3139,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3169,14 +3160,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="26"/>
+      <c r="A82" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3184,7 +3175,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3192,7 +3183,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3200,7 +3191,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3221,14 +3212,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" s="26"/>
+      <c r="A88" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3236,7 +3227,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3244,7 +3235,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3265,14 +3256,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" s="26"/>
+      <c r="A93" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3280,7 +3271,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3288,7 +3279,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3296,7 +3287,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3304,7 +3295,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3312,7 +3303,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3320,7 +3311,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3328,7 +3319,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3336,7 +3327,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3344,7 +3335,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3352,7 +3343,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3373,15 +3364,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B106" s="26"/>
+      <c r="A106" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3390,7 +3381,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3399,7 +3390,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3408,7 +3399,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3417,7 +3408,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3438,15 +3429,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B113" s="26"/>
+      <c r="A113" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3455,7 +3446,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3464,7 +3455,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3473,7 +3464,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3481,7 +3472,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3489,7 +3480,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3497,7 +3488,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3505,7 +3496,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3513,7 +3504,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3534,14 +3525,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="26"/>
+      <c r="A124" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3549,7 +3540,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3557,7 +3548,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3565,7 +3556,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3573,7 +3564,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3581,7 +3572,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3589,7 +3580,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3597,7 +3588,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3605,7 +3596,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3613,7 +3604,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3621,7 +3612,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3629,7 +3620,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3638,7 +3629,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3647,7 +3638,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3656,7 +3647,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3665,7 +3656,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3674,7 +3665,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3696,15 +3687,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B143" s="26"/>
+      <c r="A143" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3713,7 +3704,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -3722,7 +3713,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -3730,7 +3721,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -3738,7 +3729,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -3746,7 +3737,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -3754,7 +3745,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -3762,7 +3753,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -3770,7 +3761,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -3778,7 +3769,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -3786,7 +3777,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -3794,7 +3785,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -3802,7 +3793,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -3810,7 +3801,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -3818,7 +3809,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -3826,7 +3817,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -3839,7 +3830,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -3862,14 +3853,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -3877,7 +3868,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -3885,7 +3876,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -3893,7 +3884,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -3901,7 +3892,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -3909,7 +3900,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -3917,7 +3908,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -3925,7 +3916,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -3933,7 +3924,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -3941,7 +3932,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -3953,7 +3944,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -3973,14 +3964,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -3988,7 +3979,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -3996,7 +3987,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4016,14 +4007,14 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4031,7 +4022,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4039,7 +4030,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4047,7 +4038,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4055,7 +4046,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4063,7 +4054,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4071,7 +4062,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4079,7 +4070,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4087,7 +4078,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4095,7 +4086,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4103,7 +4094,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4111,7 +4102,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4119,7 +4110,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4140,14 +4131,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4155,7 +4146,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4163,7 +4154,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4186,14 +4177,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4201,7 +4192,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4209,7 +4200,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4217,7 +4208,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4225,7 +4216,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4233,7 +4224,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4241,27 +4232,27 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4271,18 +4262,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B212" s="27"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4292,86 +4283,77 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B215" s="27"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B220" s="11">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B221" s="11">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B222" s="11">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B220" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B222" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>37</v>
       </c>
@@ -4381,24 +4363,24 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
-        <v>894.12</v>
+        <v>1103.99</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
-        <v>894.11999999999989</v>
+        <v>1103.99</v>
       </c>
       <c r="C226" s="10">
         <f>SUM(C214:C225)</f>
-        <v>18893.359999999997</v>
+        <v>19103.23</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4439,14 +4421,14 @@
       </c>
       <c r="C232" s="10">
         <f>SUM(C225:C231)</f>
-        <v>20175.479999999996</v>
+        <v>20595.22</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4645,14 +4627,14 @@
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20438.579999999994</v>
+        <v>20858.32</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4712,14 +4694,14 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>20735.799999999996</v>
+        <v>21155.54</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4767,7 +4749,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -4807,7 +4789,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -4815,46 +4797,46 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B275" s="11">
         <v>10</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -4875,40 +4857,40 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21394.549999999996</v>
+        <v>21814.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B282" s="11">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -4916,7 +4898,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -4924,7 +4906,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -4932,7 +4914,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -4940,7 +4922,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -4948,35 +4930,35 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -4991,7 +4973,7 @@
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>22270.569999999996</v>
+        <v>22690.31</v>
       </c>
     </row>
     <row r="352" spans="10:10" x14ac:dyDescent="0.3">
@@ -5062,6 +5044,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
@@ -5074,28 +5078,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="241">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1937,6 +1937,26 @@
     <t>二十周年    悟空</t>
     <rPh sb="0" eb="2">
       <t>er'shi'zhou'nia</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一诺</t>
+    <rPh sb="0" eb="1">
+      <t>yi'nuo</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS     超4 贝吉塔                预定</t>
+    <rPh sb="8" eb="9">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bei'ji'ta</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2152,10 +2172,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2441,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2458,10 +2478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2489,10 +2509,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2548,10 +2568,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2584,10 +2604,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2605,10 +2625,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2648,10 +2668,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2669,10 +2689,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2744,10 +2764,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2836,10 +2856,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -2872,10 +2892,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -2924,10 +2944,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -2984,10 +3004,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3028,10 +3048,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3064,10 +3084,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3108,10 +3128,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3160,10 +3180,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3212,10 +3232,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3256,10 +3276,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3364,10 +3384,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3429,10 +3449,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3525,10 +3545,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3687,10 +3707,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3853,10 +3873,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -3964,10 +3984,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4007,10 +4027,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4131,10 +4151,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4177,10 +4197,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4263,10 +4283,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4284,10 +4304,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4377,10 +4397,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4425,10 +4445,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4631,10 +4651,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4698,10 +4718,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4861,10 +4881,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -4961,19 +4981,56 @@
         <v>38</v>
       </c>
     </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B291" s="11">
+        <v>10</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
-        <v>876.02</v>
+        <v>886.02</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
-        <v>876.02</v>
+        <v>886.02</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>22690.31</v>
+        <v>22700.31</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A294" s="27">
+        <v>2019.02</v>
+      </c>
+      <c r="B294" s="26"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B302" s="5">
+        <f>SUM(B295:B301)</f>
+        <v>0</v>
+      </c>
+      <c r="C302" s="10">
+        <f>SUM(C292:C301)</f>
+        <v>23586.33</v>
       </c>
     </row>
     <row r="352" spans="10:10" x14ac:dyDescent="0.3">
@@ -5043,29 +5100,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
+  <mergeCells count="35">
+    <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A106:B106"/>
@@ -5078,6 +5114,28 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="246">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1957,6 +1957,80 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>XINHAO 软质  织田 1/4 村主宏美</t>
+    <rPh sb="7" eb="8">
+      <t>ruan'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi'tian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cun'zhu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hong'mei</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产figma    凹造型人偶模型</t>
+    <rPh sb="0" eb="1">
+      <t>guo'chan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ao'zao'xin</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren'ou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mo'xin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>XINHAO 优质  织田 1/4 桑岛优子</t>
+    <rPh sb="7" eb="8">
+      <t>you'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi'tian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>sang'dao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>you'zi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人女主     加藤惠 兔女郎</t>
+    <rPh sb="9" eb="10">
+      <t>jia'ten'hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu'nv'lang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人女主     霞之丘诗羽  兔女郎</t>
+    <rPh sb="9" eb="10">
+      <t>xia'zhi'qiu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'pian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tu'nv'lang</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2172,10 +2246,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2461,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2478,10 +2552,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2509,10 +2583,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2568,10 +2642,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2604,10 +2678,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2625,10 +2699,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2668,10 +2742,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2689,10 +2763,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2764,10 +2838,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2856,10 +2930,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -2892,10 +2966,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -2944,10 +3018,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3004,10 +3078,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3048,10 +3122,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3084,10 +3158,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3128,10 +3202,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3180,10 +3254,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3232,10 +3306,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3276,10 +3350,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3384,10 +3458,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3449,10 +3523,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3545,10 +3619,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3707,10 +3781,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3873,10 +3947,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -3984,10 +4058,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4027,10 +4101,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4151,10 +4225,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4197,10 +4271,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4283,10 +4357,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4304,10 +4378,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4397,10 +4471,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4445,10 +4519,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4651,10 +4725,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4718,10 +4792,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4881,10 +4955,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5008,14 +5082,49 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="27"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="B295" s="5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B296" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B297" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B298" s="5">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B299" s="5">
+        <v>136.5</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5026,7 +5135,7 @@
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B302" s="5">
         <f>SUM(B295:B301)</f>
-        <v>0</v>
+        <v>589.9</v>
       </c>
       <c r="C302" s="10">
         <f>SUM(C292:C301)</f>
@@ -5101,19 +5210,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A76:B76"/>
@@ -5124,18 +5232,19 @@
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1993,22 +1993,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>XINHAO 优质  织田 1/4 桑岛优子</t>
-    <rPh sb="7" eb="8">
-      <t>you'zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhi'tian</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>sang'dao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>you'zi</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>路人女主     加藤惠 兔女郎</t>
     <rPh sb="9" eb="10">
       <t>jia'ten'hui</t>
@@ -2031,6 +2015,16 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>tu'nv'lang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴       ls-03擎天柱</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qin'tian'zhu</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2536,7 +2530,7 @@
   <dimension ref="A1:Y697"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295"/>
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5099,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B297" s="5">
         <v>88</v>
@@ -5113,15 +5107,15 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B298" s="5">
-        <v>175.4</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B299" s="5">
         <v>136.5</v>
@@ -5135,7 +5129,7 @@
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B302" s="5">
         <f>SUM(B295:B301)</f>
-        <v>589.9</v>
+        <v>671.3</v>
       </c>
       <c r="C302" s="10">
         <f>SUM(C292:C301)</f>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED9BB350-DEBF-4F41-9E9C-941C7C3E684E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="247">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -2025,6 +2026,13 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>qin'tian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBK  大力神+酷变宝灾星</t>
+    <rPh sb="0" eb="1">
+      <t>bian'bao</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2032,11 +2040,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2240,10 +2248,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2259,6 +2267,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2526,14 +2537,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y697"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A299" sqref="A299"/>
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -2545,13 +2556,13 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+    <row r="1" spans="1:3" ht="28">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>210</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -2576,13 +2587,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>209</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>208</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>207</v>
       </c>
@@ -2606,7 +2617,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>206</v>
       </c>
@@ -2614,7 +2625,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>205</v>
       </c>
@@ -2625,7 +2636,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -2635,13 +2646,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:3" ht="28">
+      <c r="A12" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
         <v>203</v>
       </c>
@@ -2649,7 +2660,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="24" t="s">
         <v>202</v>
       </c>
@@ -2660,7 +2671,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -2671,16 +2682,16 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:3" ht="28">
+      <c r="A16" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
         <v>200</v>
       </c>
@@ -2692,13 +2703,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:3" ht="28">
+      <c r="A18" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>197</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>198</v>
       </c>
@@ -2714,7 +2725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>197</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -2735,16 +2746,16 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:3" ht="28">
+      <c r="A23" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
@@ -2756,13 +2767,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:3" ht="28">
+      <c r="A25" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="24" t="s">
         <v>193</v>
       </c>
@@ -2770,7 +2781,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>192</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>192</v>
       </c>
@@ -2786,7 +2797,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>191</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>190</v>
       </c>
@@ -2802,7 +2813,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
@@ -2810,7 +2821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>188</v>
       </c>
@@ -2821,7 +2832,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -2831,13 +2842,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:3" ht="28">
+      <c r="A34" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>186</v>
       </c>
@@ -2845,7 +2856,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>185</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>184</v>
       </c>
@@ -2861,7 +2872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>183</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>182</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>181</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>180</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>180</v>
       </c>
@@ -2901,7 +2912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="15" t="s">
         <v>179</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -2923,13 +2934,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:3" ht="28">
+      <c r="A45" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="26"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -2937,7 +2948,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="15" t="s">
         <v>176</v>
       </c>
@@ -2948,7 +2959,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -2959,13 +2970,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:3" ht="28">
+      <c r="A49" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="27"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="26"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
         <v>174</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>173</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>172</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
         <v>171</v>
       </c>
@@ -3000,7 +3011,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3011,13 +3022,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:3" ht="28">
+      <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="27"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="26"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="24" t="s">
         <v>169</v>
       </c>
@@ -3025,7 +3036,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
         <v>168</v>
       </c>
@@ -3033,7 +3044,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="15" t="s">
         <v>167</v>
       </c>
@@ -3041,7 +3052,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>166</v>
       </c>
@@ -3049,7 +3060,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="15" t="s">
         <v>165</v>
       </c>
@@ -3060,7 +3071,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3071,13 +3082,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+    <row r="62" spans="1:3" ht="28">
+      <c r="A62" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="27"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="15" t="s">
         <v>163</v>
       </c>
@@ -3085,7 +3096,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="15" t="s">
         <v>162</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
         <v>161</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3115,13 +3126,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+    <row r="67" spans="1:3" ht="28">
+      <c r="A67" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="27"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="26"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="15" t="s">
         <v>159</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="15" t="s">
         <v>158</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3151,13 +3162,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+    <row r="71" spans="1:3" ht="28">
+      <c r="A71" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="27"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="15" t="s">
         <v>156</v>
       </c>
@@ -3165,7 +3176,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="15" t="s">
         <v>155</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="15" t="s">
         <v>154</v>
       </c>
@@ -3184,7 +3195,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3195,13 +3206,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+    <row r="76" spans="1:3" ht="28">
+      <c r="A76" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="27"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="26"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="15" t="s">
         <v>152</v>
       </c>
@@ -3209,7 +3220,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="15" t="s">
         <v>151</v>
       </c>
@@ -3217,7 +3228,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="15" t="s">
         <v>150</v>
       </c>
@@ -3225,7 +3236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="15" t="s">
         <v>149</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3247,13 +3258,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+    <row r="82" spans="1:3" ht="28">
+      <c r="A82" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="26"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="15" t="s">
         <v>148</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="15" t="s">
         <v>147</v>
       </c>
@@ -3269,7 +3280,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="15" t="s">
         <v>146</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="15" t="s">
         <v>145</v>
       </c>
@@ -3288,7 +3299,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3299,13 +3310,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+    <row r="88" spans="1:3" ht="28">
+      <c r="A88" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="27"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="26"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="15" t="s">
         <v>143</v>
       </c>
@@ -3313,7 +3324,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="15" t="s">
         <v>142</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="15" t="s">
         <v>141</v>
       </c>
@@ -3332,7 +3343,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3343,13 +3354,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+    <row r="93" spans="1:3" ht="28">
+      <c r="A93" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="27"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="26"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="15" t="s">
         <v>139</v>
       </c>
@@ -3357,7 +3368,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="15" t="s">
         <v>127</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="15" t="s">
         <v>138</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="15" t="s">
         <v>137</v>
       </c>
@@ -3381,7 +3392,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="15" t="s">
         <v>136</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="15" t="s">
         <v>135</v>
       </c>
@@ -3397,7 +3408,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="15" t="s">
         <v>134</v>
       </c>
@@ -3405,7 +3416,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="15" t="s">
         <v>133</v>
       </c>
@@ -3413,7 +3424,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="15" t="s">
         <v>132</v>
       </c>
@@ -3421,7 +3432,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="15" t="s">
         <v>131</v>
       </c>
@@ -3429,7 +3440,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="15" t="s">
         <v>130</v>
       </c>
@@ -3440,7 +3451,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3451,14 +3462,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+    <row r="106" spans="1:3" ht="28">
+      <c r="A106" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="20" t="s">
         <v>128</v>
       </c>
@@ -3467,7 +3478,7 @@
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>127</v>
       </c>
@@ -3476,7 +3487,7 @@
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="20" t="s">
         <v>126</v>
       </c>
@@ -3485,7 +3496,7 @@
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="20" t="s">
         <v>125</v>
       </c>
@@ -3494,7 +3505,7 @@
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="20" t="s">
         <v>124</v>
       </c>
@@ -3505,7 +3516,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -3516,14 +3527,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+    <row r="113" spans="1:3" ht="28">
+      <c r="A113" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="20" t="s">
         <v>122</v>
       </c>
@@ -3532,7 +3543,7 @@
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="20" t="s">
         <v>121</v>
       </c>
@@ -3541,7 +3552,7 @@
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="20" t="s">
         <v>120</v>
       </c>
@@ -3550,7 +3561,7 @@
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="20" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>118</v>
       </c>
@@ -3566,7 +3577,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="20" t="s">
         <v>117</v>
       </c>
@@ -3574,7 +3585,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="20" t="s">
         <v>116</v>
       </c>
@@ -3582,7 +3593,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="20" t="s">
         <v>115</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>114</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -3612,13 +3623,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+    <row r="124" spans="1:3" ht="28">
+      <c r="A124" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="26"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>112</v>
       </c>
@@ -3626,7 +3637,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>111</v>
       </c>
@@ -3634,7 +3645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>110</v>
       </c>
@@ -3642,7 +3653,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>109</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>108</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="19" t="s">
         <v>107</v>
       </c>
@@ -3666,7 +3677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="19" t="s">
         <v>106</v>
       </c>
@@ -3674,7 +3685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>105</v>
       </c>
@@ -3682,7 +3693,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>104</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>103</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>102</v>
       </c>
@@ -3706,7 +3717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -3715,7 +3726,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>100</v>
       </c>
@@ -3724,7 +3735,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>99</v>
       </c>
@@ -3733,7 +3744,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>98</v>
       </c>
@@ -3742,7 +3753,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>97</v>
       </c>
@@ -3751,7 +3762,7 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>96</v>
       </c>
@@ -3763,7 +3774,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -3774,14 +3785,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+    <row r="143" spans="1:3" ht="28">
+      <c r="A143" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>94</v>
       </c>
@@ -3790,7 +3801,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="6" t="s">
         <v>93</v>
       </c>
@@ -3799,7 +3810,7 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="6" t="s">
         <v>92</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="6" t="s">
         <v>91</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="6" t="s">
         <v>90</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149" s="6" t="s">
         <v>89</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="6" t="s">
         <v>88</v>
       </c>
@@ -3839,7 +3850,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="6" t="s">
         <v>87</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="6" t="s">
         <v>86</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="6" t="s">
         <v>85</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="15" t="s">
         <v>84</v>
       </c>
@@ -3871,7 +3882,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="15" t="s">
         <v>83</v>
       </c>
@@ -3879,7 +3890,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="15" t="s">
         <v>82</v>
       </c>
@@ -3887,7 +3898,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="15" t="s">
         <v>81</v>
       </c>
@@ -3895,7 +3906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="15" t="s">
         <v>80</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="15" t="s">
         <v>79</v>
       </c>
@@ -3916,7 +3927,7 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="15" t="s">
         <v>78</v>
       </c>
@@ -3929,7 +3940,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -3940,13 +3951,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+    <row r="162" spans="1:15" ht="28">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B162" s="26"/>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="15" t="s">
         <v>77</v>
       </c>
@@ -3954,7 +3965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="6" t="s">
         <v>76</v>
       </c>
@@ -3962,7 +3973,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="6" t="s">
         <v>75</v>
       </c>
@@ -3970,7 +3981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="6" t="s">
         <v>74</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="6" t="s">
         <v>73</v>
       </c>
@@ -3986,7 +3997,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="6" t="s">
         <v>72</v>
       </c>
@@ -3994,7 +4005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="15" t="s">
         <v>71</v>
       </c>
@@ -4002,7 +4013,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="6" t="s">
         <v>70</v>
       </c>
@@ -4010,7 +4021,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="6" t="s">
         <v>69</v>
       </c>
@@ -4018,7 +4029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="6" t="s">
         <v>68</v>
       </c>
@@ -4030,7 +4041,7 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="6" t="s">
         <v>67</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4051,13 +4062,13 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+    <row r="175" spans="1:15" ht="28">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B175" s="26"/>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="6" t="s">
         <v>66</v>
       </c>
@@ -4065,7 +4076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>65</v>
       </c>
@@ -4073,7 +4084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>64</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4094,13 +4105,13 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+    <row r="180" spans="1:3" ht="28">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="26"/>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>63</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>62</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>61</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>60</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>59</v>
       </c>
@@ -4140,7 +4151,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="48">
       <c r="A186" s="15" t="s">
         <v>58</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
         <v>57</v>
       </c>
@@ -4156,7 +4167,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="15" t="s">
         <v>56</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="15" t="s">
         <v>55</v>
       </c>
@@ -4172,7 +4183,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="15" t="s">
         <v>54</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="15" t="s">
         <v>53</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="15" t="s">
         <v>52</v>
       </c>
@@ -4196,7 +4207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="15" t="s">
         <v>51</v>
       </c>
@@ -4207,7 +4218,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4218,13 +4229,13 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+    <row r="195" spans="1:3" ht="28">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="26"/>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="15" t="s">
         <v>50</v>
       </c>
@@ -4232,7 +4243,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="15" t="s">
         <v>49</v>
       </c>
@@ -4240,7 +4251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>48</v>
       </c>
@@ -4248,13 +4259,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4264,13 +4275,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+    <row r="201" spans="1:3" ht="28">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="26"/>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>47</v>
       </c>
@@ -4278,7 +4289,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -4286,7 +4297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>228</v>
       </c>
@@ -4294,7 +4305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>45</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>44</v>
       </c>
@@ -4310,7 +4321,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>42</v>
       </c>
@@ -4326,7 +4337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>238</v>
       </c>
@@ -4334,13 +4345,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4350,18 +4361,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+    <row r="212" spans="1:3" ht="28">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="26"/>
+    </row>
+    <row r="213" spans="1:3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4371,13 +4382,13 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+    <row r="215" spans="1:3" ht="28">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="26"/>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>41</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>40</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>39</v>
       </c>
@@ -4401,7 +4412,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>237</v>
       </c>
@@ -4409,7 +4420,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
         <v>233</v>
       </c>
@@ -4417,7 +4428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>234</v>
       </c>
@@ -4425,7 +4436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>235</v>
       </c>
@@ -4433,7 +4444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>236</v>
       </c>
@@ -4441,7 +4452,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>37</v>
       </c>
@@ -4449,12 +4460,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4464,13 +4475,13 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+    <row r="227" spans="1:4" ht="28">
+      <c r="A227" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="27"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="26"/>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
         <v>35</v>
       </c>
@@ -4478,7 +4489,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
         <v>34</v>
       </c>
@@ -4486,7 +4497,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="12" t="s">
         <v>33</v>
       </c>
@@ -4497,12 +4508,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="C231" s="4">
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>388</v>
@@ -4512,13 +4523,13 @@
         <v>20595.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+    <row r="233" spans="1:4" ht="28">
+      <c r="A233" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="27"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="26"/>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="12" t="s">
         <v>30</v>
       </c>
@@ -4529,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="12" t="s">
         <v>29</v>
       </c>
@@ -4540,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="12" t="s">
         <v>28</v>
       </c>
@@ -4551,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="12" t="s">
         <v>27</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="12" t="s">
         <v>26</v>
       </c>
@@ -4573,7 +4584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="12" t="s">
         <v>25</v>
       </c>
@@ -4584,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="12" t="s">
         <v>24</v>
       </c>
@@ -4595,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="12" t="s">
         <v>23</v>
       </c>
@@ -4606,7 +4617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="12" t="s">
         <v>22</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="12" t="s">
         <v>21</v>
       </c>
@@ -4628,7 +4639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="12" t="s">
         <v>20</v>
       </c>
@@ -4639,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="12" t="s">
         <v>19</v>
       </c>
@@ -4650,7 +4661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="12" t="s">
         <v>18</v>
       </c>
@@ -4661,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
         <v>17</v>
       </c>
@@ -4669,7 +4680,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="12" t="s">
         <v>16</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="12" t="s">
         <v>15</v>
       </c>
@@ -4691,7 +4702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" s="12" t="s">
         <v>14</v>
       </c>
@@ -4702,13 +4713,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>263.10000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>263.10000000000002</v>
@@ -4718,13 +4729,13 @@
         <v>20858.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+    <row r="253" spans="1:4" ht="28">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="26"/>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="12" t="s">
         <v>13</v>
       </c>
@@ -4735,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
         <v>12</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
         <v>11</v>
       </c>
@@ -4751,7 +4762,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
         <v>10</v>
       </c>
@@ -4759,7 +4770,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" s="12" t="s">
         <v>9</v>
       </c>
@@ -4770,12 +4781,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="C260" s="4">
         <v>297.22000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="B261" s="5">
         <f>SUM(B254:B260)</f>
         <v>297.22000000000003</v>
@@ -4785,13 +4796,13 @@
         <v>21155.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+    <row r="262" spans="1:4" ht="28">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="26"/>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="12" t="s">
         <v>8</v>
       </c>
@@ -4802,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" s="12" t="s">
         <v>7</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" s="12" t="s">
         <v>6</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" s="12" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
         <v>230</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
         <v>3</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
         <v>2</v>
       </c>
@@ -4859,7 +4870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
         <v>1</v>
       </c>
@@ -4867,7 +4878,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>212</v>
       </c>
@@ -4883,7 +4894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273" s="12" t="s">
         <v>213</v>
       </c>
@@ -4894,7 +4905,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10">
       <c r="A274" s="12" t="s">
         <v>214</v>
       </c>
@@ -4905,7 +4916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10">
       <c r="A275" s="12" t="s">
         <v>216</v>
       </c>
@@ -4916,7 +4927,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276" s="12" t="s">
         <v>219</v>
       </c>
@@ -4927,18 +4938,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="C278" s="4">
         <v>658.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="B279" s="5">
         <f>SUM(B263:B278)</f>
         <v>658.75</v>
@@ -4948,13 +4959,13 @@
         <v>21814.29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+    <row r="280" spans="1:10" ht="28">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B280" s="26"/>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="12" t="s">
         <v>220</v>
       </c>
@@ -4965,7 +4976,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282" s="12" t="s">
         <v>221</v>
       </c>
@@ -4976,7 +4987,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283" s="6" t="s">
         <v>223</v>
       </c>
@@ -4984,7 +4995,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284" s="6" t="s">
         <v>224</v>
       </c>
@@ -4992,7 +5003,7 @@
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285" s="6" t="s">
         <v>226</v>
       </c>
@@ -5000,7 +5011,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286" s="6" t="s">
         <v>225</v>
       </c>
@@ -5008,7 +5019,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287" s="6" t="s">
         <v>227</v>
       </c>
@@ -5016,7 +5027,7 @@
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288" s="12" t="s">
         <v>229</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" s="12" t="s">
         <v>231</v>
       </c>
@@ -5038,7 +5049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" s="12" t="s">
         <v>232</v>
       </c>
@@ -5049,7 +5060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" s="12" t="s">
         <v>240</v>
       </c>
@@ -5060,12 +5071,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="C292" s="4">
         <v>886.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
         <v>886.02</v>
@@ -5075,13 +5086,13 @@
         <v>22700.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+    <row r="294" spans="1:4" ht="28">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="26"/>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
         <v>241</v>
       </c>
@@ -5089,7 +5100,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
         <v>242</v>
       </c>
@@ -5097,7 +5108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
         <v>244</v>
       </c>
@@ -5105,7 +5116,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
         <v>245</v>
       </c>
@@ -5113,7 +5124,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" s="6" t="s">
         <v>243</v>
       </c>
@@ -5121,82 +5132,90 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
+      <c r="A300" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B300" s="5">
+        <v>229.23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="C301" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="B302" s="5">
         <f>SUM(B295:B301)</f>
-        <v>671.3</v>
+        <v>900.53</v>
       </c>
       <c r="C302" s="10">
         <f>SUM(C292:C301)</f>
         <v>23586.33</v>
       </c>
     </row>
-    <row r="352" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="10:10">
       <c r="J352" s="9"/>
     </row>
-    <row r="394" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="9:9">
       <c r="I394" s="8"/>
     </row>
-    <row r="682" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="682" spans="15:25">
       <c r="O682" s="8"/>
     </row>
-    <row r="687" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="687" spans="15:25">
       <c r="Y687">
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="688" spans="15:25">
       <c r="Y688">
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="689" spans="14:25">
       <c r="Y689">
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="690" spans="14:25">
       <c r="N690" s="8"/>
       <c r="Y690">
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="691" spans="14:25">
       <c r="Y691">
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="692" spans="14:25">
       <c r="Y692">
         <v>9</v>
       </c>
     </row>
-    <row r="693" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="693" spans="14:25">
       <c r="Y693">
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="694" spans="14:25">
       <c r="Y694">
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="695" spans="14:25">
       <c r="Y695">
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="696" spans="14:25">
       <c r="Y696">
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="697" spans="14:25">
       <c r="Y697" s="7">
         <f>SUM(Y687:Y696)</f>
         <v>97</v>
@@ -5204,29 +5223,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
@@ -5239,9 +5235,33 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED9BB350-DEBF-4F41-9E9C-941C7C3E684E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="248">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -2033,6 +2032,19 @@
     <t>NBK  大力神+酷变宝灾星</t>
     <rPh sb="0" eb="1">
       <t>bian'bao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠    人造人间   18号           预定</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'zao'ren'jian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hao</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2040,11 +2052,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2248,10 +2260,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2537,14 +2549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y697"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -2556,13 +2568,13 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
-      <c r="A1" s="26">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>210</v>
       </c>
@@ -2578,7 +2590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -2587,13 +2599,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
-      <c r="A5" s="26">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>209</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>208</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>207</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>206</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>205</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -2646,13 +2658,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>203</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>202</v>
       </c>
@@ -2671,7 +2683,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -2682,16 +2694,16 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>200</v>
       </c>
@@ -2703,13 +2715,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>197</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>198</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>197</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -2746,16 +2758,16 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
@@ -2767,13 +2779,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>193</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>192</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>192</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>191</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>190</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>188</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -2842,13 +2854,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="26"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>186</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>185</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>184</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>183</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>182</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>181</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>180</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>180</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>179</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -2934,13 +2946,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="26"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" s="27"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>177</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>176</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -2970,13 +2982,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="26"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>174</v>
       </c>
@@ -2984,7 +2996,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>173</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>172</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>171</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3022,13 +3034,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28">
-      <c r="A55" s="26" t="s">
+    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="26"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="B55" s="27"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>169</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>168</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>167</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>166</v>
       </c>
@@ -3060,7 +3072,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>165</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3082,13 +3094,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="26"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>163</v>
       </c>
@@ -3096,7 +3108,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>162</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>161</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3126,13 +3138,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28">
-      <c r="A67" s="26" t="s">
+    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="26"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>159</v>
       </c>
@@ -3140,7 +3152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>158</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3162,13 +3174,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28">
-      <c r="A71" s="26" t="s">
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>156</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>155</v>
       </c>
@@ -3184,7 +3196,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>154</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3206,13 +3218,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28">
-      <c r="A76" s="26" t="s">
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="26"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>152</v>
       </c>
@@ -3220,7 +3232,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>151</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>150</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>149</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3258,13 +3270,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28">
-      <c r="A82" s="26" t="s">
+    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="26"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>148</v>
       </c>
@@ -3272,7 +3284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>147</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>146</v>
       </c>
@@ -3288,7 +3300,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>145</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3310,13 +3322,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28">
-      <c r="A88" s="26" t="s">
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A88" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="26"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>143</v>
       </c>
@@ -3324,7 +3336,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>142</v>
       </c>
@@ -3332,7 +3344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>141</v>
       </c>
@@ -3343,7 +3355,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3354,13 +3366,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28">
-      <c r="A93" s="26" t="s">
+    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A93" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="26"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>139</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>127</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>138</v>
       </c>
@@ -3384,7 +3396,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>137</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>136</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>135</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>134</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>133</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>132</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>131</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>130</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3462,14 +3474,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28">
-      <c r="A106" s="26" t="s">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A106" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>128</v>
       </c>
@@ -3478,7 +3490,7 @@
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>127</v>
       </c>
@@ -3487,7 +3499,7 @@
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>126</v>
       </c>
@@ -3496,7 +3508,7 @@
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>125</v>
       </c>
@@ -3505,7 +3517,7 @@
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>124</v>
       </c>
@@ -3516,7 +3528,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -3527,14 +3539,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28">
-      <c r="A113" s="26" t="s">
+    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A113" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>122</v>
       </c>
@@ -3543,7 +3555,7 @@
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
         <v>121</v>
       </c>
@@ -3552,7 +3564,7 @@
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
         <v>120</v>
       </c>
@@ -3561,7 +3573,7 @@
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
         <v>119</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1">
+    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>118</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
         <v>117</v>
       </c>
@@ -3585,7 +3597,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
         <v>116</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
         <v>115</v>
       </c>
@@ -3601,7 +3613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>114</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -3623,13 +3635,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28">
-      <c r="A124" s="26" t="s">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A124" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="26"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1">
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>112</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>111</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>110</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>109</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>108</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>107</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>106</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>105</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>104</v>
       </c>
@@ -3701,7 +3713,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>103</v>
       </c>
@@ -3709,7 +3721,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>102</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -3726,7 +3738,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>100</v>
       </c>
@@ -3735,7 +3747,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>99</v>
       </c>
@@ -3744,7 +3756,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>98</v>
       </c>
@@ -3753,7 +3765,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>97</v>
       </c>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>96</v>
       </c>
@@ -3774,7 +3786,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -3785,14 +3797,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28">
-      <c r="A143" s="26" t="s">
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>94</v>
       </c>
@@ -3801,7 +3813,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>93</v>
       </c>
@@ -3810,7 +3822,7 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>92</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>91</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>90</v>
       </c>
@@ -3834,7 +3846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>89</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>88</v>
       </c>
@@ -3850,7 +3862,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>87</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>86</v>
       </c>
@@ -3866,7 +3878,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>85</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>84</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>83</v>
       </c>
@@ -3890,7 +3902,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>82</v>
       </c>
@@ -3898,7 +3910,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>81</v>
       </c>
@@ -3906,7 +3918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>80</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>79</v>
       </c>
@@ -3927,7 +3939,7 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>78</v>
       </c>
@@ -3940,7 +3952,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -3951,13 +3963,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28">
-      <c r="A162" s="27">
+    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="B162" s="27"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>77</v>
       </c>
@@ -3965,7 +3977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>76</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>75</v>
       </c>
@@ -3981,7 +3993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>74</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>73</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>72</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>71</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>70</v>
       </c>
@@ -4021,7 +4033,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>69</v>
       </c>
@@ -4029,7 +4041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>68</v>
       </c>
@@ -4041,7 +4053,7 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>67</v>
       </c>
@@ -4052,7 +4064,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4062,13 +4074,13 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28">
-      <c r="A175" s="27">
+    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="B175" s="27"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>66</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>65</v>
       </c>
@@ -4084,7 +4096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>64</v>
       </c>
@@ -4095,7 +4107,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4105,13 +4117,13 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28">
-      <c r="A180" s="27">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="B180" s="27"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>63</v>
       </c>
@@ -4119,7 +4131,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>62</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>61</v>
       </c>
@@ -4135,7 +4147,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>60</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>59</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48">
+    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>58</v>
       </c>
@@ -4159,7 +4171,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>57</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>56</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +4195,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>54</v>
       </c>
@@ -4191,7 +4203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>53</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>52</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>51</v>
       </c>
@@ -4218,7 +4230,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4229,13 +4241,13 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28">
-      <c r="A195" s="27">
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="B195" s="27"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>50</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>49</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>48</v>
       </c>
@@ -4259,13 +4271,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4275,13 +4287,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28">
-      <c r="A201" s="27">
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="B201" s="27"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>47</v>
       </c>
@@ -4289,7 +4301,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>228</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>45</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>44</v>
       </c>
@@ -4321,7 +4333,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>43</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>42</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>238</v>
       </c>
@@ -4345,13 +4357,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4361,18 +4373,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28">
-      <c r="A212" s="27">
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="B212" s="27"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4382,13 +4394,13 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28">
-      <c r="A215" s="27">
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="B215" s="27"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>41</v>
       </c>
@@ -4396,7 +4408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>40</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>39</v>
       </c>
@@ -4412,7 +4424,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>237</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>233</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>234</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>235</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>236</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>37</v>
       </c>
@@ -4460,12 +4472,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4475,13 +4487,13 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28">
-      <c r="A227" s="27" t="s">
+    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A227" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="26"/>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="B227" s="27"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>35</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
         <v>33</v>
       </c>
@@ -4508,12 +4520,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C231" s="4">
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>388</v>
@@ -4523,13 +4535,13 @@
         <v>20595.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28">
-      <c r="A233" s="27" t="s">
+    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A233" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="26"/>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="B233" s="27"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>30</v>
       </c>
@@ -4540,7 +4552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>29</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>28</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>27</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>26</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>25</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>24</v>
       </c>
@@ -4606,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>23</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>22</v>
       </c>
@@ -4628,7 +4640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>21</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>20</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>19</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>18</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>17</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>16</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
         <v>15</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>14</v>
       </c>
@@ -4713,13 +4725,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>263.10000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>263.10000000000002</v>
@@ -4729,13 +4741,13 @@
         <v>20858.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28">
-      <c r="A253" s="27">
+    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="B253" s="27"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>13</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>12</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4774,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>10</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>9</v>
       </c>
@@ -4781,12 +4793,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C260" s="4">
         <v>297.22000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="5">
         <f>SUM(B254:B260)</f>
         <v>297.22000000000003</v>
@@ -4796,13 +4808,13 @@
         <v>21155.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28">
-      <c r="A262" s="27">
+    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="B262" s="27"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>8</v>
       </c>
@@ -4813,7 +4825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>7</v>
       </c>
@@ -4824,7 +4836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>6</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +4858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>230</v>
       </c>
@@ -4854,7 +4866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>3</v>
       </c>
@@ -4862,7 +4874,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>2</v>
       </c>
@@ -4870,7 +4882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>1</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>0</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>212</v>
       </c>
@@ -4894,7 +4906,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>213</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
         <v>214</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>216</v>
       </c>
@@ -4927,7 +4939,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>219</v>
       </c>
@@ -4938,18 +4950,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
         <v>658.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="5">
         <f>SUM(B263:B278)</f>
         <v>658.75</v>
@@ -4959,13 +4971,13 @@
         <v>21814.29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28">
-      <c r="A280" s="27">
+    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="B280" s="27"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>220</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
         <v>221</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>223</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>224</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>226</v>
       </c>
@@ -5011,7 +5023,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>225</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>227</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>229</v>
       </c>
@@ -5038,7 +5050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>231</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>232</v>
       </c>
@@ -5060,7 +5072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>240</v>
       </c>
@@ -5071,12 +5083,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
         <v>886.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
         <v>886.02</v>
@@ -5086,13 +5098,13 @@
         <v>22700.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28">
-      <c r="A294" s="27">
+    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="B294" s="27"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>241</v>
       </c>
@@ -5100,7 +5112,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>242</v>
       </c>
@@ -5108,7 +5120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>244</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>245</v>
       </c>
@@ -5124,7 +5136,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>243</v>
       </c>
@@ -5132,7 +5144,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>246</v>
       </c>
@@ -5140,89 +5152,123 @@
         <v>229.23</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="C301" s="4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B301" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C303" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="B302" s="5">
-        <f>SUM(B295:B301)</f>
-        <v>900.53</v>
-      </c>
-      <c r="C302" s="10">
-        <f>SUM(C292:C301)</f>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="5">
+        <f>SUM(B295:B303)</f>
+        <v>910.32999999999993</v>
+      </c>
+      <c r="C304" s="10">
+        <f>SUM(C292:C303)</f>
         <v>23586.33</v>
       </c>
     </row>
-    <row r="352" spans="10:10">
-      <c r="J352" s="9"/>
-    </row>
-    <row r="394" spans="9:9">
-      <c r="I394" s="8"/>
-    </row>
-    <row r="682" spans="15:25">
-      <c r="O682" s="8"/>
-    </row>
-    <row r="687" spans="15:25">
-      <c r="Y687">
+    <row r="354" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J354" s="9"/>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I396" s="8"/>
+    </row>
+    <row r="684" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O684" s="8"/>
+    </row>
+    <row r="689" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y689">
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="15:25">
-      <c r="Y688">
+    <row r="690" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y690">
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="14:25">
-      <c r="Y689">
+    <row r="691" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y691">
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="14:25">
-      <c r="N690" s="8"/>
-      <c r="Y690">
+    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N692" s="8"/>
+      <c r="Y692">
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="14:25">
-      <c r="Y691">
+    <row r="693" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y693">
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="14:25">
-      <c r="Y692">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="693" spans="14:25">
-      <c r="Y693">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="694" spans="14:25">
+    <row r="694" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y694">
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="14:25">
+    <row r="695" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y695">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="696" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y696">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y697">
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="14:25">
-      <c r="Y696">
+    <row r="698" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y698">
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="14:25">
-      <c r="Y697" s="7">
-        <f>SUM(Y687:Y696)</f>
+    <row r="699" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y699" s="7">
+        <f>SUM(Y689:Y698)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
@@ -5235,29 +5281,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="254">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1634,54 +1634,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BOS  龙珠    自在极意悟空         预定</t>
-    <rPh sb="5" eb="6">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zi'zai'ji'yi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji'yi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wu'kong</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>寄生兽</t>
     <rPh sb="0" eb="1">
       <t>ji'shen'shou</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧场版  终极战士   悟吉塔         预定</t>
-    <rPh sb="0" eb="1">
-      <t>ju'chang'ban</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆好</t>
-    <rPh sb="1" eb="2">
-      <t>hao</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2045,6 +2000,150 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠    超绝技巧四   极意空       预定</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chao'jue'ji'qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>si</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'si</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>明源</t>
+    <rPh sb="0" eb="1">
+      <t>min'yuan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">剧场版  终极战士   悟吉塔         </t>
+    <rPh sb="0" eb="1">
+      <t>ju'chang'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS  龙珠    黑发极意空           预定</t>
+    <rPh sb="5" eb="6">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hei'fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠    超战士列传   贝吉特       预定</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chao'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan'shi'lie'zhuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bei'ji'te</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠    超战士列传   发波空       预定</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chao'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan'shi'lie'zhuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fa'bo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龙珠BOS     GT超四悟吉塔          预定 </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chao'si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠    LC传奇 超一悟吉塔         预定</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan'qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chao'yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆好</t>
+    <rPh sb="0" eb="1">
+      <t>jie'hao</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2260,10 +2359,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2550,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y699"/>
+  <dimension ref="A1:Y704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2569,10 +2668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2600,10 +2699,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2659,10 +2758,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2695,10 +2794,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2716,10 +2815,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2759,10 +2858,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2780,10 +2879,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2855,10 +2954,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2947,10 +3046,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -2983,10 +3082,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3035,10 +3134,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3095,10 +3194,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3139,10 +3238,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3175,10 +3274,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3219,10 +3318,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3271,10 +3370,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3323,10 +3422,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3367,10 +3466,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3475,10 +3574,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3540,10 +3639,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3636,10 +3735,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3798,10 +3897,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3964,10 +4063,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4075,10 +4174,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4118,10 +4217,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4242,10 +4341,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4288,10 +4387,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4311,7 +4410,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4351,7 +4450,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4374,10 +4473,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4395,10 +4494,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4426,7 +4525,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4434,7 +4533,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4442,7 +4541,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4450,7 +4549,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4458,7 +4557,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4488,10 +4587,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4536,10 +4635,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4742,10 +4841,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4809,10 +4908,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -4860,7 +4959,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -4914,12 +5013,12 @@
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
@@ -4929,25 +5028,22 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A275" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B275" s="11">
-        <v>10</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>217</v>
+      <c r="A275" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B275" s="5">
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -4956,7 +5052,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
-        <v>658.75</v>
+        <v>735.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
@@ -4964,44 +5060,44 @@
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="5">
         <f>SUM(B263:B278)</f>
-        <v>658.75</v>
+        <v>735.75</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21814.29</v>
+        <v>21891.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B282" s="11">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5009,7 +5105,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5017,7 +5113,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5025,7 +5121,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5033,7 +5129,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5041,7 +5137,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
@@ -5052,7 +5148,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
@@ -5063,7 +5159,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
@@ -5074,13 +5170,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5095,18 +5191,18 @@
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>22700.31</v>
+        <v>22777.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5114,7 +5210,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B296" s="5">
         <v>25</v>
@@ -5122,7 +5218,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B297" s="5">
         <v>88</v>
@@ -5130,7 +5226,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B298" s="5">
         <v>256.8</v>
@@ -5138,7 +5234,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B299" s="5">
         <v>136.5</v>
@@ -5146,7 +5242,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B300" s="5">
         <v>229.23</v>
@@ -5154,7 +5250,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B301" s="11">
         <v>9.8000000000000007</v>
@@ -5163,55 +5259,84 @@
         <v>38</v>
       </c>
     </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B302" s="11">
+        <v>10</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C303" s="4">
-        <v>0</v>
+      <c r="A303" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B303" s="11">
+        <v>10</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B304" s="5">
-        <f>SUM(B295:B303)</f>
-        <v>910.32999999999993</v>
-      </c>
-      <c r="C304" s="10">
-        <f>SUM(C292:C303)</f>
-        <v>23586.33</v>
-      </c>
-    </row>
-    <row r="354" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J354" s="9"/>
-    </row>
-    <row r="396" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I396" s="8"/>
-    </row>
-    <row r="684" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O684" s="8"/>
+      <c r="A304" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B304" s="11">
+        <v>10</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B305" s="11">
+        <v>10</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B306" s="11">
+        <v>10</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C308" s="4">
+        <v>960.33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B309" s="5">
+        <f>SUM(B295:B308)</f>
+        <v>960.32999999999993</v>
+      </c>
+      <c r="C309" s="10">
+        <f>SUM(C292:C308)</f>
+        <v>24623.660000000003</v>
+      </c>
+    </row>
+    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J359" s="9"/>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I401" s="8"/>
     </row>
     <row r="689" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y689">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="690" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y690">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="691" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y691">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N692" s="8"/>
-      <c r="Y692">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="693" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y693">
-        <v>10</v>
-      </c>
+      <c r="O689" s="8"/>
     </row>
     <row r="694" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y694">
@@ -5220,55 +5345,58 @@
     </row>
     <row r="695" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y695">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="696" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y696">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N697" s="8"/>
       <c r="Y697">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y698">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="699" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y699">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y700">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y701">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y702">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y703">
         <v>8</v>
       </c>
     </row>
-    <row r="699" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y699" s="7">
-        <f>SUM(Y689:Y698)</f>
+    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y704" s="7">
+        <f>SUM(Y694:Y703)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
@@ -5281,6 +5409,29 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="252">
   <si>
     <t>魅力闪光     海贼王       薇薇</t>
     <rPh sb="0" eb="1">
@@ -1932,43 +1932,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>国产figma    凹造型人偶模型</t>
-    <rPh sb="0" eb="1">
-      <t>guo'chan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ao'zao'xin</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ren'ou</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>mo'xin</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>路人女主     加藤惠 兔女郎</t>
     <rPh sb="9" eb="10">
       <t>jia'ten'hui</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>tu'nv'lang</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>路人女主     霞之丘诗羽  兔女郎</t>
-    <rPh sb="9" eb="10">
-      <t>xia'zhi'qiu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shi'pian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
       <t>tu'nv'lang</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -2359,10 +2327,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2649,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y704"/>
+  <dimension ref="A1:Y702"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2668,10 +2636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2699,10 +2667,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2758,10 +2726,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2794,10 +2762,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2815,10 +2783,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2858,10 +2826,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2879,10 +2847,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2954,10 +2922,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3046,10 +3014,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3082,10 +3050,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3134,10 +3102,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3194,10 +3162,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3238,10 +3206,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3274,10 +3242,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3318,10 +3286,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3370,10 +3338,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3422,10 +3390,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3466,10 +3434,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3574,10 +3542,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3639,10 +3607,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3735,10 +3703,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3897,10 +3865,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4063,10 +4031,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4174,10 +4142,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4217,10 +4185,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4341,10 +4309,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4387,10 +4355,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4473,10 +4441,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4494,10 +4462,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4587,10 +4555,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4635,10 +4603,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4841,10 +4809,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4908,10 +4876,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5018,7 +4986,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
@@ -5029,7 +4997,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5068,10 +5036,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5195,10 +5163,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="27"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
@@ -5210,64 +5178,70 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B296" s="5">
-        <v>25</v>
+        <v>256.8</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B297" s="5">
-        <v>88</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B298" s="5">
+        <v>229.23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B298" s="5">
-        <v>256.8</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B299" s="5">
-        <v>136.5</v>
+      <c r="B299" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B300" s="5">
-        <v>229.23</v>
+      <c r="B300" s="11">
+        <v>10</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B301" s="11">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5278,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5289,79 +5263,67 @@
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B305" s="11">
-        <v>10</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B306" s="11">
-        <v>10</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C308" s="4">
-        <v>960.33</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B309" s="5">
-        <f>SUM(B295:B308)</f>
-        <v>960.32999999999993</v>
-      </c>
-      <c r="C309" s="10">
-        <f>SUM(C292:C308)</f>
-        <v>24623.660000000003</v>
-      </c>
-    </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J359" s="9"/>
-    </row>
-    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I401" s="8"/>
-    </row>
-    <row r="689" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O689" s="8"/>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C306" s="4">
+        <v>847.33</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="5">
+        <f>SUM(B295:B306)</f>
+        <v>847.32999999999993</v>
+      </c>
+      <c r="C307" s="10">
+        <f>SUM(C292:C306)</f>
+        <v>24510.660000000003</v>
+      </c>
+    </row>
+    <row r="357" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J357" s="9"/>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I399" s="8"/>
+    </row>
+    <row r="687" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O687" s="8"/>
+    </row>
+    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y692">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y693">
+        <v>12</v>
+      </c>
     </row>
     <row r="694" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y694">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N695" s="8"/>
       <c r="Y695">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y696">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N697" s="8"/>
       <c r="Y697">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="698" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y698">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699" spans="14:25" x14ac:dyDescent="0.3">
@@ -5371,32 +5333,45 @@
     </row>
     <row r="700" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y700">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="701" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y701">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="702" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y702">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y703">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y704" s="7">
-        <f>SUM(Y694:Y703)</f>
+      <c r="Y702" s="7">
+        <f>SUM(Y692:Y701)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
@@ -5409,29 +5384,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="252">
-  <si>
-    <t>魅力闪光     海贼王       薇薇</t>
-    <rPh sb="0" eb="1">
-      <t>mei'li'shan'guang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hai'zei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wang</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei'wei</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="253">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2112,6 +2096,29 @@
     <t>皆好</t>
     <rPh sb="0" eb="1">
       <t>jie'hao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力闪光     海贼王      泳装薇薇</t>
+    <rPh sb="0" eb="1">
+      <t>mei'li'shan'guang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hai'zei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong'zhuang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'wei</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2327,10 +2334,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2617,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y702"/>
+  <dimension ref="A1:Y701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A267" sqref="A266:A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2636,14 +2643,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2651,7 +2658,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2667,14 +2674,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2682,7 +2689,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2690,7 +2697,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2698,7 +2705,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2706,7 +2713,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2726,14 +2733,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2741,7 +2748,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2762,17 +2769,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2783,14 +2790,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2798,7 +2805,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2806,7 +2813,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2826,17 +2833,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2847,14 +2854,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="27"/>
+      <c r="A25" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2862,7 +2869,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2870,7 +2877,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2878,7 +2885,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2886,7 +2893,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -2894,7 +2901,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -2902,7 +2909,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -2922,14 +2929,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -2937,7 +2944,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -2945,7 +2952,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -2953,7 +2960,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -2961,7 +2968,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -2969,7 +2976,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -2977,7 +2984,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -2985,7 +2992,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -2993,7 +3000,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3014,14 +3021,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B45" s="27"/>
+      <c r="A45" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3029,7 +3036,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3050,14 +3057,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="27"/>
+      <c r="A49" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3065,7 +3072,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3073,7 +3080,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3081,7 +3088,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3102,14 +3109,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="27"/>
+      <c r="A55" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3117,7 +3124,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3125,7 +3132,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3133,7 +3140,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3141,7 +3148,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3162,14 +3169,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="27"/>
+      <c r="A62" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3177,7 +3184,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3185,7 +3192,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3206,14 +3213,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="27"/>
+      <c r="A67" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3221,7 +3228,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3242,14 +3249,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="27"/>
+      <c r="A71" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3257,7 +3264,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3265,7 +3272,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3286,14 +3293,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="27"/>
+      <c r="A76" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3301,7 +3308,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3309,7 +3316,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3317,7 +3324,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3338,14 +3345,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="27"/>
+      <c r="A82" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3353,7 +3360,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3361,7 +3368,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3369,7 +3376,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3390,14 +3397,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="27"/>
+      <c r="A88" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3405,7 +3412,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3413,7 +3420,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3434,14 +3441,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B93" s="27"/>
+      <c r="A93" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3449,7 +3456,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3457,7 +3464,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3465,7 +3472,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3473,7 +3480,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3481,7 +3488,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3489,7 +3496,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3497,7 +3504,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3505,7 +3512,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3513,7 +3520,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3521,7 +3528,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3542,15 +3549,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106" s="27"/>
+      <c r="A106" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3559,7 +3566,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3568,7 +3575,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3577,7 +3584,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3586,7 +3593,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3607,15 +3614,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="27"/>
+      <c r="A113" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3624,7 +3631,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3633,7 +3640,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3642,7 +3649,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3650,7 +3657,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3658,7 +3665,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3666,7 +3673,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3674,7 +3681,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3682,7 +3689,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3703,14 +3710,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B124" s="27"/>
+      <c r="A124" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3718,7 +3725,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3726,7 +3733,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3734,7 +3741,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3742,7 +3749,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3750,7 +3757,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3758,7 +3765,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3766,7 +3773,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3774,7 +3781,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3782,7 +3789,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3790,7 +3797,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3798,7 +3805,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3807,7 +3814,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3816,7 +3823,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3825,7 +3832,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3834,7 +3841,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3843,7 +3850,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3865,15 +3872,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B143" s="27"/>
+      <c r="A143" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3882,7 +3889,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -3891,7 +3898,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -3899,7 +3906,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -3907,7 +3914,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -3915,7 +3922,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -3923,7 +3930,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -3931,7 +3938,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -3939,7 +3946,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -3947,7 +3954,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -3955,7 +3962,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -3963,7 +3970,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -3971,7 +3978,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -3979,7 +3986,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -3987,7 +3994,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -3995,7 +4002,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4008,7 +4015,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4031,14 +4038,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4046,7 +4053,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4054,7 +4061,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4062,7 +4069,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4070,7 +4077,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4078,7 +4085,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4086,7 +4093,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4094,7 +4101,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4102,7 +4109,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4110,7 +4117,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4122,7 +4129,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4142,14 +4149,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4157,7 +4164,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4165,7 +4172,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4185,14 +4192,14 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4200,7 +4207,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4208,7 +4215,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4216,7 +4223,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4224,7 +4231,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4232,7 +4239,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4240,7 +4247,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4248,7 +4255,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4256,7 +4263,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4264,7 +4271,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4272,7 +4279,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4280,7 +4287,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4288,7 +4295,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4309,14 +4316,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4324,7 +4331,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4332,7 +4339,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4355,14 +4362,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4370,7 +4377,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4378,7 +4385,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4386,7 +4393,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4394,7 +4401,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4402,7 +4409,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4410,7 +4417,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4418,7 +4425,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4441,10 +4448,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4462,14 +4469,14 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4477,7 +4484,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4485,7 +4492,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4493,7 +4500,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4501,7 +4508,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4509,7 +4516,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4517,7 +4524,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4525,7 +4532,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4533,7 +4540,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4555,14 +4562,14 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B227" s="27"/>
+      <c r="A227" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4570,7 +4577,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4578,13 +4585,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B230" s="11">
         <v>10</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4603,157 +4610,157 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B233" s="27"/>
+      <c r="A233" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B238" s="11">
         <v>9.66</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B240" s="11">
         <v>9.66</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B241" s="11">
         <v>9.66</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B243" s="11">
         <v>9.66</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B244" s="11">
         <v>9.66</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246" s="11">
         <v>9.61</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
@@ -4761,35 +4768,35 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B248" s="11">
         <v>9.61</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B249" s="11">
         <v>9.61</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B250" s="11">
         <v>9.61</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4809,25 +4816,25 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B254" s="11">
         <v>9.61</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B255" s="5">
         <v>68</v>
@@ -4835,7 +4842,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B256" s="5">
         <v>80.3</v>
@@ -4843,7 +4850,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B257" s="5">
         <v>129.69999999999999</v>
@@ -4851,13 +4858,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B258" s="11">
         <v>9.61</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4876,58 +4883,58 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B263" s="11">
         <v>9.61</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B264" s="11">
         <v>9.61</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B265" s="11">
         <v>9.61</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B266" s="11">
         <v>9.61</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -4935,7 +4942,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B268" s="5">
         <v>59.5</v>
@@ -4943,7 +4950,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B269" s="5">
         <v>59</v>
@@ -4951,7 +4958,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B270" s="5">
         <v>81.2</v>
@@ -4959,7 +4966,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -4967,7 +4974,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -4975,29 +4982,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5005,13 +5012,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5036,36 +5043,36 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B282" s="11">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5073,7 +5080,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5081,7 +5088,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5089,7 +5096,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5097,7 +5104,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5105,46 +5112,46 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,14 +5170,14 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5178,7 +5185,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5186,7 +5193,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5194,7 +5201,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5202,176 +5209,180 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B300" s="11">
         <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="4">
+        <v>847.33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B306" s="5">
+        <f>SUM(B295:B305)</f>
+        <v>847.32999999999993</v>
+      </c>
+      <c r="C306" s="10">
+        <f>SUM(C292:C305)</f>
+        <v>24510.660000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A307" s="27" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C306" s="4">
-        <v>847.33</v>
-      </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B307" s="5">
-        <f>SUM(B295:B306)</f>
-        <v>847.32999999999993</v>
-      </c>
-      <c r="C307" s="10">
-        <f>SUM(C292:C306)</f>
+      <c r="B307" s="26"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B314" s="5">
+        <f>SUM(B308:B313)</f>
+        <v>0</v>
+      </c>
+      <c r="C314" s="10">
+        <f>SUM(C306:C313)</f>
         <v>24510.660000000003</v>
       </c>
     </row>
-    <row r="357" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J357" s="9"/>
-    </row>
-    <row r="399" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I399" s="8"/>
-    </row>
-    <row r="687" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O687" s="8"/>
+    <row r="356" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J356" s="9"/>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I398" s="8"/>
+    </row>
+    <row r="686" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O686" s="8"/>
+    </row>
+    <row r="691" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y691">
+        <v>9</v>
+      </c>
     </row>
     <row r="692" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y692">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="693" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y693">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="694" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N694" s="8"/>
       <c r="Y694">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="695" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N695" s="8"/>
       <c r="Y695">
         <v>10</v>
       </c>
     </row>
     <row r="696" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y696">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="697" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y697">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y698">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="699" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y699">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="700" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y700">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y701">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y702" s="7">
-        <f>SUM(Y692:Y701)</f>
+      <c r="Y701" s="7">
+        <f>SUM(Y691:Y700)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
+  <mergeCells count="36">
+    <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
@@ -5384,12 +5395,35 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18" numberStoredAsText="1"/>
+    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18 A307" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="257">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2119,6 +2119,49 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>wei'wei</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖国版 PA 改士官长</t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo'ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'guan'zhang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷变宝   暗黑禁闭</t>
+    <rPh sb="0" eb="1">
+      <t>ku'bian'bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an'hei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'bi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐拼 福特野马</t>
+    <rPh sb="0" eb="1">
+      <t>le'ping</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'te'ye'ma</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VT 01 OKUT禁闭</t>
+    <rPh sb="10" eb="11">
+      <t>jin'bi</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2334,10 +2377,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2624,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y701"/>
+  <dimension ref="A1:Y704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A267" sqref="A266:A267"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2643,10 +2686,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2674,10 +2717,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2733,10 +2776,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2769,10 +2812,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2790,10 +2833,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2833,10 +2876,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2854,10 +2897,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2929,10 +2972,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3021,10 +3064,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3057,10 +3100,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3109,10 +3152,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3169,10 +3212,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3213,10 +3256,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3249,10 +3292,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3293,10 +3336,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3345,10 +3388,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3397,10 +3440,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3441,10 +3484,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3549,10 +3592,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3614,10 +3657,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3710,10 +3753,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3872,10 +3915,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4038,10 +4081,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4149,10 +4192,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4192,10 +4235,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4316,10 +4359,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4362,10 +4405,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4448,10 +4491,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4469,10 +4512,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4562,10 +4605,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4610,10 +4653,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4816,10 +4859,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4883,10 +4926,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5043,10 +5086,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5170,10 +5213,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="27"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
@@ -5289,99 +5332,149 @@
       </c>
     </row>
     <row r="307" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
+      <c r="A307" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B307" s="26"/>
+      <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="B308" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C313" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B314" s="5">
-        <f>SUM(B308:B313)</f>
-        <v>0</v>
-      </c>
-      <c r="C314" s="10">
-        <f>SUM(C306:C313)</f>
-        <v>24510.660000000003</v>
-      </c>
-    </row>
-    <row r="356" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J356" s="9"/>
-    </row>
-    <row r="398" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I398" s="8"/>
-    </row>
-    <row r="686" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O686" s="8"/>
-    </row>
-    <row r="691" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y691">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B309" s="5">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B310" s="5">
+        <v>161.69999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B311" s="5">
+        <v>185.22</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C316" s="4">
+        <v>539.22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B317" s="5">
+        <f>SUM(B308:B316)</f>
+        <v>539.22</v>
+      </c>
+      <c r="C317" s="10">
+        <f>SUM(C306:C316)</f>
+        <v>25049.880000000005</v>
+      </c>
+    </row>
+    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J359" s="9"/>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I401" s="8"/>
+    </row>
+    <row r="689" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="O689" s="8"/>
+    </row>
+    <row r="694" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y694">
         <v>9</v>
-      </c>
-    </row>
-    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y692">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="693" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y693">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="694" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N694" s="8"/>
-      <c r="Y694">
-        <v>10</v>
       </c>
     </row>
     <row r="695" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y695">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="696" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y696">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N697" s="8"/>
       <c r="Y697">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y698">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y699">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="700" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y700">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y701">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y702">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y703">
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y701" s="7">
-        <f>SUM(Y691:Y700)</f>
+    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y704" s="7">
+        <f>SUM(Y694:Y703)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
@@ -5395,29 +5488,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="262">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2162,6 +2162,65 @@
     <t>VT 01 OKUT禁闭</t>
     <rPh sb="10" eb="11">
       <t>jin'bi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷变宝放大版甲壳虫</t>
+    <rPh sb="0" eb="1">
+      <t>ku'bian'bao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'da'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'ke'chong</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖国版 街霸美少女    山下嘉米</t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo'ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'ba'mei'shao'nv</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shan'xia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jia'mi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">惯性滑翔车玩具 </t>
+    <rPh sb="4" eb="5">
+      <t>che</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'ju</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠扭蛋</t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu'niu'dan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>S牌   阿斯顿马丁积木</t>
+    <rPh sb="1" eb="2">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>a'si'dun'ma'din</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'mu</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2377,10 +2436,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2667,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y704"/>
+  <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2686,10 +2745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2717,10 +2776,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2776,10 +2835,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2812,10 +2871,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2833,10 +2892,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2876,10 +2935,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2897,10 +2956,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -2972,10 +3031,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3064,10 +3123,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3100,10 +3159,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3152,10 +3211,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3212,10 +3271,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3256,10 +3315,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3292,10 +3351,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3336,10 +3395,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3388,10 +3447,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3440,10 +3499,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3484,10 +3543,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3592,10 +3651,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3657,10 +3716,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3753,10 +3812,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -3915,10 +3974,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4081,10 +4140,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4192,10 +4251,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4235,10 +4294,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4359,10 +4418,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4405,10 +4464,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4491,10 +4550,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4512,10 +4571,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4605,10 +4664,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4653,10 +4712,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4859,10 +4918,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4926,10 +4985,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5086,10 +5145,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5213,10 +5272,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
@@ -5332,10 +5391,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
+      <c r="A307" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B307" s="27"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
@@ -5369,112 +5428,129 @@
         <v>185.22</v>
       </c>
     </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B312" s="5">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B313" s="5">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B314" s="5">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B315" s="5">
+        <v>144</v>
+      </c>
+    </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C316" s="4">
-        <v>539.22</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B317" s="5">
-        <f>SUM(B308:B316)</f>
-        <v>539.22</v>
-      </c>
-      <c r="C317" s="10">
-        <f>SUM(C306:C316)</f>
-        <v>25049.880000000005</v>
-      </c>
-    </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J359" s="9"/>
-    </row>
-    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I401" s="8"/>
-    </row>
-    <row r="689" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O689" s="8"/>
-    </row>
-    <row r="694" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y694">
+      <c r="A316" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B316" s="5">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C319" s="4">
+        <v>953.52</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="5">
+        <f>SUM(B308:B319)</f>
+        <v>953.5200000000001</v>
+      </c>
+      <c r="C320" s="10">
+        <f>SUM(C306:C319)</f>
+        <v>25464.180000000004</v>
+      </c>
+    </row>
+    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J362" s="9"/>
+    </row>
+    <row r="404" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I404" s="8"/>
+    </row>
+    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="O692" s="8"/>
+    </row>
+    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y697">
         <v>9</v>
-      </c>
-    </row>
-    <row r="695" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y695">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="696" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y696">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N697" s="8"/>
-      <c r="Y697">
-        <v>10</v>
       </c>
     </row>
     <row r="698" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y698">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="699" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y699">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="700" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N700" s="8"/>
       <c r="Y700">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y701">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y702">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="703" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y703">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y704">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y705">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y706">
         <v>8</v>
       </c>
     </row>
-    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y704" s="7">
-        <f>SUM(Y694:Y703)</f>
+    <row r="707" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y707" s="7">
+        <f>SUM(Y697:Y706)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
@@ -5488,6 +5564,29 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="264">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -192,13 +192,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">龙珠GT    贝吉塔超4               预定 </t>
-    <rPh sb="0" eb="1">
-      <t>long'zh</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 海侠 甚平                    预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2222,6 +2215,30 @@
     <rPh sb="10" eb="11">
       <t>ji'mu</t>
     </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龙珠GT    贝吉塔超4              </t>
+    <rPh sb="0" eb="1">
+      <t>long'zh</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴       IT02 恐龙勇士        预定</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kong'long'yong'shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛霏城堡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2728,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2769,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2760,7 +2777,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2783,7 +2800,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2791,7 +2808,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2799,7 +2816,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2807,7 +2824,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2815,7 +2832,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2836,13 +2853,13 @@
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2850,7 +2867,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2872,7 +2889,7 @@
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="4">
@@ -2881,7 +2898,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2893,13 +2910,13 @@
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2907,7 +2924,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2915,7 +2932,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2936,7 +2953,7 @@
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="4">
@@ -2945,7 +2962,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2957,13 +2974,13 @@
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2971,7 +2988,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2979,7 +2996,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -2987,7 +3004,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -2995,7 +3012,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3003,7 +3020,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3011,7 +3028,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3032,13 +3049,13 @@
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3046,7 +3063,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3054,7 +3071,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3062,7 +3079,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3070,7 +3087,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3078,7 +3095,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3086,7 +3103,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3094,7 +3111,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3102,7 +3119,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3124,13 +3141,13 @@
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3138,7 +3155,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3160,13 +3177,13 @@
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3174,7 +3191,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3182,7 +3199,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3190,7 +3207,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3212,13 +3229,13 @@
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3226,7 +3243,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3234,7 +3251,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3242,7 +3259,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3250,7 +3267,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3272,13 +3289,13 @@
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3286,7 +3303,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3294,7 +3311,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3316,13 +3333,13 @@
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3330,7 +3347,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3352,13 +3369,13 @@
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3366,7 +3383,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3374,7 +3391,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3396,13 +3413,13 @@
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3410,7 +3427,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3418,7 +3435,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3426,7 +3443,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3448,13 +3465,13 @@
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3462,7 +3479,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3470,7 +3487,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3478,7 +3495,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3500,13 +3517,13 @@
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3514,7 +3531,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3522,7 +3539,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3544,13 +3561,13 @@
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3558,7 +3575,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3566,7 +3583,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3574,7 +3591,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3582,7 +3599,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3590,7 +3607,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3598,7 +3615,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3606,7 +3623,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3614,7 +3631,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3622,7 +3639,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3630,7 +3647,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3652,14 +3669,14 @@
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3668,7 +3685,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3677,7 +3694,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3686,7 +3703,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3695,7 +3712,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3717,14 +3734,14 @@
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3733,7 +3750,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3742,7 +3759,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3751,7 +3768,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3759,7 +3776,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3767,7 +3784,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3775,7 +3792,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3783,7 +3800,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3791,7 +3808,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3813,13 +3830,13 @@
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3827,7 +3844,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3835,7 +3852,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3843,7 +3860,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3851,7 +3868,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3859,7 +3876,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3867,7 +3884,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3875,7 +3892,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3883,7 +3900,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3891,7 +3908,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3899,7 +3916,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3907,7 +3924,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3916,7 +3933,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3925,7 +3942,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3934,7 +3951,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3943,7 +3960,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3952,7 +3969,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3975,14 +3992,14 @@
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -3991,7 +4008,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4000,7 +4017,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4008,7 +4025,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4016,7 +4033,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4024,7 +4041,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4032,7 +4049,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4040,7 +4057,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4048,7 +4065,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4056,7 +4073,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4064,7 +4081,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4072,7 +4089,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4080,7 +4097,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4088,7 +4105,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4096,7 +4113,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4104,7 +4121,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4117,7 +4134,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4147,7 +4164,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4155,7 +4172,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4163,7 +4180,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4171,7 +4188,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4179,7 +4196,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4187,7 +4204,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4195,7 +4212,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4203,7 +4220,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4211,7 +4228,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4219,7 +4236,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4231,7 +4248,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4258,7 +4275,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4266,7 +4283,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4274,7 +4291,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4301,7 +4318,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4309,7 +4326,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4317,7 +4334,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4325,7 +4342,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4333,7 +4350,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4341,7 +4358,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4349,7 +4366,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4357,7 +4374,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4365,7 +4382,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4373,7 +4390,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4381,7 +4398,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4389,7 +4406,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4397,7 +4414,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4425,7 +4442,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4433,7 +4450,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4441,7 +4458,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4471,7 +4488,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4479,7 +4496,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4487,7 +4504,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4495,7 +4512,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4503,7 +4520,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4511,7 +4528,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4519,7 +4536,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4527,7 +4544,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4578,7 +4595,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4586,7 +4603,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4594,7 +4611,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4602,7 +4619,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4610,7 +4627,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4618,7 +4635,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4626,7 +4643,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4634,7 +4651,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4642,7 +4659,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4665,13 +4682,13 @@
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4679,7 +4696,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4687,13 +4704,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B230" s="11">
         <v>10</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4713,13 +4730,13 @@
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -4730,7 +4747,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -4741,7 +4758,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -4752,7 +4769,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -4763,7 +4780,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B238" s="11">
         <v>9.66</v>
@@ -4774,7 +4791,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -4785,7 +4802,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B240" s="11">
         <v>9.66</v>
@@ -4796,7 +4813,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B241" s="11">
         <v>9.66</v>
@@ -4807,7 +4824,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -4818,7 +4835,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B243" s="11">
         <v>9.66</v>
@@ -4829,7 +4846,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B244" s="11">
         <v>9.66</v>
@@ -4840,7 +4857,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
@@ -4850,14 +4867,11 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B246" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>3</v>
+      <c r="A246" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B246" s="5">
+        <v>83.61</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4904,17 +4918,17 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>263.10000000000002</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>263.10000000000002</v>
+        <v>337.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20858.32</v>
+        <v>20932.32</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4981,7 +4995,7 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>21155.54</v>
+        <v>21229.54</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5036,7 +5050,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5068,7 +5082,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5076,7 +5090,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5084,29 +5098,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5114,13 +5128,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5141,7 +5155,7 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21891.29</v>
+        <v>21965.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
@@ -5152,29 +5166,29 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B282" s="11">
         <v>20</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5182,7 +5196,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5190,7 +5204,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5198,7 +5212,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5206,7 +5220,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5214,46 +5228,46 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5268,7 +5282,7 @@
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>22777.31</v>
+        <v>22851.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5279,7 +5293,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5287,7 +5301,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5295,7 +5309,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5303,7 +5317,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5311,176 +5325,187 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B300" s="11">
         <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
         <v>847.33</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="5">
         <f>SUM(B295:B305)</f>
         <v>847.32999999999993</v>
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>24510.660000000003</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>24584.660000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A307" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B307" s="26"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B317" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C319" s="4">
-        <v>953.52</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+        <v>973.12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="5">
         <f>SUM(B308:B319)</f>
-        <v>953.5200000000001</v>
+        <v>973.12000000000012</v>
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>25464.180000000004</v>
+        <v>25557.780000000002</v>
       </c>
     </row>
     <row r="362" spans="10:10" x14ac:dyDescent="0.3">

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="266">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -177,10 +177,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Grandista  山治                   预定           </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Grandista  索隆                   预定           </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1657,22 +1653,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>黑曼巴   甲壳虫大黄蜂             预定</t>
-    <rPh sb="0" eb="1">
-      <t>hei'man'ba</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jia'ke'chong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>da'huang'feng</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>伊家</t>
     <rPh sb="0" eb="1">
       <t>yi</t>
@@ -1919,16 +1899,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>黑曼巴       ls-03擎天柱</t>
-    <rPh sb="0" eb="1">
-      <t>hei'man'ba</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>qin'tian'zhu</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>NBK  大力神+酷变宝灾星</t>
     <rPh sb="0" eb="1">
       <t>bian'bao</t>
@@ -2239,6 +2209,62 @@
   </si>
   <si>
     <t>洛霏城堡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandista  山治                              </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黑曼巴   甲壳虫大黄蜂             </t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'ke'chong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da'huang'feng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴       ls-03 擎天柱</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qin'tian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>XINHAO 硬体  织田  1/4桑岛优子</t>
+    <rPh sb="7" eb="8">
+      <t>ying'ti</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi'tian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>sang'dao'you'zi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>S牌   再来一个阿斯顿马丁  积木</t>
+    <rPh sb="1" eb="2">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zai'lai'y'ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>a'si'dun'ma'din</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'mu</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2453,10 +2479,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2745,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2762,14 +2788,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2777,7 +2803,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2793,14 +2819,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2808,7 +2834,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2816,7 +2842,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2824,7 +2850,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2832,7 +2858,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2852,14 +2878,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="26"/>
+      <c r="A12" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2867,7 +2893,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2888,17 +2914,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2909,14 +2935,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="26"/>
+      <c r="A18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2924,7 +2950,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2932,7 +2958,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2952,17 +2978,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="26"/>
+      <c r="A23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -2973,14 +2999,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="26"/>
+      <c r="A25" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -2988,7 +3014,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -2996,7 +3022,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3004,7 +3030,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3012,7 +3038,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3020,7 +3046,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3028,7 +3054,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3048,14 +3074,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="26"/>
+      <c r="A34" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3063,7 +3089,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3071,7 +3097,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3079,7 +3105,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3087,7 +3113,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3095,7 +3121,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3103,7 +3129,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3111,7 +3137,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3119,7 +3145,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3140,14 +3166,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="26"/>
+      <c r="A45" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3155,7 +3181,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3176,14 +3202,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="26"/>
+      <c r="A49" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3191,7 +3217,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3199,7 +3225,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3207,7 +3233,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3228,14 +3254,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="26"/>
+      <c r="A55" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3243,7 +3269,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3251,7 +3277,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3259,7 +3285,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3267,7 +3293,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3288,14 +3314,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="26"/>
+      <c r="A62" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3303,7 +3329,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3311,7 +3337,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3332,14 +3358,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="26"/>
+      <c r="A67" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3347,7 +3373,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3368,14 +3394,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="26"/>
+      <c r="A71" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3383,7 +3409,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3391,7 +3417,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3412,14 +3438,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="26"/>
+      <c r="A76" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3427,7 +3453,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3435,7 +3461,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3443,7 +3469,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3464,14 +3490,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="26"/>
+      <c r="A82" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3479,7 +3505,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3487,7 +3513,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3495,7 +3521,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3516,14 +3542,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88" s="26"/>
+      <c r="A88" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3531,7 +3557,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3539,7 +3565,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3560,14 +3586,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="26"/>
+      <c r="A93" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3575,7 +3601,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3583,7 +3609,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3591,7 +3617,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3599,7 +3625,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3607,7 +3633,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3615,7 +3641,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3623,7 +3649,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3631,7 +3657,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3639,7 +3665,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3647,7 +3673,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3668,15 +3694,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="26"/>
+      <c r="A106" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3685,7 +3711,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3694,7 +3720,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3703,7 +3729,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3712,7 +3738,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3733,15 +3759,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="26"/>
+      <c r="A113" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3750,7 +3776,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3759,7 +3785,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3768,7 +3794,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3776,7 +3802,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3784,7 +3810,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3792,7 +3818,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3800,7 +3826,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3808,7 +3834,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3829,14 +3855,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124" s="26"/>
+      <c r="A124" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3844,7 +3870,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3852,7 +3878,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3860,7 +3886,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3868,7 +3894,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3876,7 +3902,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3884,7 +3910,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3892,7 +3918,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3900,7 +3926,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3908,7 +3934,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3916,7 +3942,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3924,7 +3950,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3933,7 +3959,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3942,7 +3968,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3951,7 +3977,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3960,7 +3986,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3969,7 +3995,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -3991,15 +4017,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B143" s="26"/>
+      <c r="A143" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4008,7 +4034,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4017,7 +4043,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4025,7 +4051,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4033,7 +4059,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4041,7 +4067,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4049,7 +4075,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4057,7 +4083,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4065,7 +4091,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4073,7 +4099,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4081,7 +4107,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4089,7 +4115,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4097,7 +4123,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4105,7 +4131,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4113,7 +4139,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4121,7 +4147,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4134,7 +4160,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4157,14 +4183,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4172,7 +4198,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4180,7 +4206,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4188,7 +4214,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4196,7 +4222,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4204,7 +4230,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4212,7 +4238,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4220,7 +4246,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4228,7 +4254,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4236,7 +4262,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4248,7 +4274,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4268,14 +4294,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4283,7 +4309,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4291,7 +4317,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4311,14 +4337,14 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4326,7 +4352,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4334,7 +4360,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4342,7 +4368,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4350,7 +4376,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4358,7 +4384,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4366,7 +4392,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4374,7 +4400,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4382,7 +4408,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4390,7 +4416,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4398,7 +4424,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4406,7 +4432,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4414,7 +4440,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4435,14 +4461,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4450,7 +4476,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4458,7 +4484,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4481,14 +4507,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4496,7 +4522,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4504,7 +4530,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4512,7 +4538,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4520,7 +4546,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4528,7 +4554,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4536,7 +4562,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4544,7 +4570,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4567,10 +4593,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4588,14 +4614,14 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4603,7 +4629,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4611,7 +4637,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4619,7 +4645,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4627,7 +4653,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4635,7 +4661,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4643,7 +4669,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4651,7 +4677,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4659,7 +4685,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4681,14 +4707,14 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B227" s="26"/>
+      <c r="A227" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4696,7 +4722,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4704,13 +4730,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B230" s="11">
         <v>10</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4729,14 +4755,14 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B233" s="26"/>
+      <c r="A233" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -4747,7 +4773,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -4758,7 +4784,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -4769,7 +4795,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -4780,7 +4806,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B238" s="11">
         <v>9.66</v>
@@ -4791,7 +4817,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -4802,7 +4828,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B240" s="11">
         <v>9.66</v>
@@ -4813,7 +4839,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B241" s="11">
         <v>9.66</v>
@@ -4824,7 +4850,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -4835,7 +4861,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B243" s="11">
         <v>9.66</v>
@@ -4846,7 +4872,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B244" s="11">
         <v>9.66</v>
@@ -4857,7 +4883,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
@@ -4868,7 +4894,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -4876,7 +4902,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
@@ -4884,7 +4910,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B248" s="11">
         <v>9.61</v>
@@ -4894,14 +4920,11 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B249" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>3</v>
+      <c r="A249" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B249" s="5">
+        <v>83.61</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4918,24 +4941,24 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>337.1</v>
+        <v>411.1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>337.1</v>
+        <v>411.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>20932.32</v>
+        <v>21006.32</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
@@ -4995,14 +5018,14 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>21229.54</v>
+        <v>21303.54</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5050,7 +5073,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5082,7 +5105,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5090,7 +5113,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5098,29 +5121,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5128,13 +5151,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5155,40 +5178,37 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>21965.29</v>
+        <v>22039.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A282" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B282" s="11">
-        <v>20</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>217</v>
+      <c r="A282" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B282" s="5">
+        <v>170</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5196,7 +5216,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5204,7 +5224,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5212,7 +5232,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5220,7 +5240,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5228,72 +5248,72 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
-        <v>886.02</v>
+        <v>1036.02</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
-        <v>886.02</v>
+        <v>1036.02</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>22851.31</v>
+        <v>23075.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="27"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5301,7 +5321,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5309,7 +5329,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5317,7 +5337,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5325,68 +5345,68 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B300" s="11">
         <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5401,18 +5421,18 @@
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>24584.660000000003</v>
+        <v>24958.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B307" s="26"/>
+      <c r="A307" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5420,7 +5440,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5428,7 +5448,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5436,7 +5456,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5444,7 +5464,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5452,7 +5472,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5460,7 +5480,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5468,7 +5488,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5476,7 +5496,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5484,13 +5504,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5505,7 +5525,44 @@
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>25557.780000000002</v>
+        <v>25931.780000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A321" s="26">
+        <v>2019.04</v>
+      </c>
+      <c r="B321" s="27"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B322" s="5">
+        <v>154.84</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B323" s="5">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C326" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B327" s="5">
+        <f>SUM(B322:B326)</f>
+        <v>228.34</v>
+      </c>
+      <c r="C327" s="10">
+        <f>SUM(C320:C326)</f>
+        <v>25931.780000000002</v>
       </c>
     </row>
     <row r="362" spans="10:10" x14ac:dyDescent="0.3">
@@ -5575,7 +5632,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
@@ -5589,6 +5649,19 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A76:B76"/>
@@ -5597,21 +5670,6 @@
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BADC690F-AA2A-9A40-9655-8469A6864E26}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="6160" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="267">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2264,6 +2265,13 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ji'mu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙珠扭蛋</t>
+    <rPh sb="0" eb="2">
+      <t>long'zh</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2271,11 +2279,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2479,10 +2487,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2768,14 +2776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="C322" sqref="C322"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -2787,13 +2795,13 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+    <row r="1" spans="1:3" ht="28">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -2801,7 +2809,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>207</v>
       </c>
@@ -2809,7 +2817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -2818,13 +2826,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>206</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
@@ -2840,7 +2848,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>204</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>203</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>202</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -2877,13 +2885,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:3" ht="28">
+      <c r="A12" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
         <v>200</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="24" t="s">
         <v>199</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -2913,16 +2921,16 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:3" ht="28">
+      <c r="A16" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
         <v>197</v>
       </c>
@@ -2934,13 +2942,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:3" ht="28">
+      <c r="A18" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>194</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>195</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>194</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -2977,16 +2985,16 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:3" ht="28">
+      <c r="A23" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>192</v>
       </c>
@@ -2998,13 +3006,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:3" ht="28">
+      <c r="A25" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="24" t="s">
         <v>190</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>189</v>
       </c>
@@ -3020,7 +3028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>189</v>
       </c>
@@ -3028,7 +3036,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>187</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>186</v>
       </c>
@@ -3052,7 +3060,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>185</v>
       </c>
@@ -3063,7 +3071,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -3073,13 +3081,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:3" ht="28">
+      <c r="A34" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>183</v>
       </c>
@@ -3087,7 +3095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>182</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>181</v>
       </c>
@@ -3103,7 +3111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>180</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>179</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>178</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -3135,7 +3143,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>177</v>
       </c>
@@ -3143,7 +3151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="15" t="s">
         <v>176</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -3165,13 +3173,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:3" ht="28">
+      <c r="A45" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="26"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="15" t="s">
         <v>174</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="15" t="s">
         <v>173</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -3201,13 +3209,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:3" ht="28">
+      <c r="A49" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="27"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="26"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
         <v>171</v>
       </c>
@@ -3215,7 +3223,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>170</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>169</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
         <v>168</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3253,13 +3261,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:3" ht="28">
+      <c r="A55" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="27"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="26"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="24" t="s">
         <v>166</v>
       </c>
@@ -3267,7 +3275,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
         <v>165</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="15" t="s">
         <v>164</v>
       </c>
@@ -3283,7 +3291,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>163</v>
       </c>
@@ -3291,7 +3299,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="15" t="s">
         <v>162</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3313,13 +3321,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+    <row r="62" spans="1:3" ht="28">
+      <c r="A62" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="27"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="15" t="s">
         <v>160</v>
       </c>
@@ -3327,7 +3335,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="15" t="s">
         <v>159</v>
       </c>
@@ -3335,7 +3343,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
         <v>158</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3357,13 +3365,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+    <row r="67" spans="1:3" ht="28">
+      <c r="A67" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="27"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="26"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="15" t="s">
         <v>156</v>
       </c>
@@ -3371,7 +3379,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="15" t="s">
         <v>155</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3393,13 +3401,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+    <row r="71" spans="1:3" ht="28">
+      <c r="A71" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="27"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="15" t="s">
         <v>153</v>
       </c>
@@ -3407,7 +3415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="15" t="s">
         <v>152</v>
       </c>
@@ -3415,7 +3423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="15" t="s">
         <v>151</v>
       </c>
@@ -3426,7 +3434,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3437,13 +3445,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+    <row r="76" spans="1:3" ht="28">
+      <c r="A76" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="27"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="26"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="15" t="s">
         <v>149</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="15" t="s">
         <v>148</v>
       </c>
@@ -3459,7 +3467,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="15" t="s">
         <v>147</v>
       </c>
@@ -3467,7 +3475,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="15" t="s">
         <v>146</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3489,13 +3497,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+    <row r="82" spans="1:3" ht="28">
+      <c r="A82" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="26"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="15" t="s">
         <v>145</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="15" t="s">
         <v>144</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="15" t="s">
         <v>143</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="15" t="s">
         <v>142</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3541,13 +3549,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+    <row r="88" spans="1:3" ht="28">
+      <c r="A88" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="27"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="26"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="15" t="s">
         <v>140</v>
       </c>
@@ -3555,7 +3563,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="15" t="s">
         <v>139</v>
       </c>
@@ -3563,7 +3571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="15" t="s">
         <v>138</v>
       </c>
@@ -3574,7 +3582,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3585,13 +3593,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+    <row r="93" spans="1:3" ht="28">
+      <c r="A93" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="27"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="26"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="15" t="s">
         <v>136</v>
       </c>
@@ -3599,7 +3607,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="15" t="s">
         <v>124</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="15" t="s">
         <v>135</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="15" t="s">
         <v>134</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="15" t="s">
         <v>133</v>
       </c>
@@ -3631,7 +3639,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="15" t="s">
         <v>132</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="15" t="s">
         <v>131</v>
       </c>
@@ -3647,7 +3655,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="15" t="s">
         <v>130</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="15" t="s">
         <v>129</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="15" t="s">
         <v>128</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="15" t="s">
         <v>127</v>
       </c>
@@ -3682,7 +3690,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3693,14 +3701,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+    <row r="106" spans="1:3" ht="28">
+      <c r="A106" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="20" t="s">
         <v>125</v>
       </c>
@@ -3709,7 +3717,7 @@
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>124</v>
       </c>
@@ -3718,7 +3726,7 @@
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="20" t="s">
         <v>123</v>
       </c>
@@ -3727,7 +3735,7 @@
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="20" t="s">
         <v>122</v>
       </c>
@@ -3736,7 +3744,7 @@
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="20" t="s">
         <v>121</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -3758,14 +3766,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+    <row r="113" spans="1:3" ht="28">
+      <c r="A113" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="20" t="s">
         <v>119</v>
       </c>
@@ -3774,7 +3782,7 @@
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="20" t="s">
         <v>118</v>
       </c>
@@ -3783,7 +3791,7 @@
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="20" t="s">
         <v>117</v>
       </c>
@@ -3792,7 +3800,7 @@
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="20" t="s">
         <v>116</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>115</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="20" t="s">
         <v>114</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="20" t="s">
         <v>113</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="20" t="s">
         <v>112</v>
       </c>
@@ -3832,7 +3840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>111</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -3854,13 +3862,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+    <row r="124" spans="1:3" ht="28">
+      <c r="A124" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="26"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>109</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>108</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>107</v>
       </c>
@@ -3884,7 +3892,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>106</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>105</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="19" t="s">
         <v>104</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="19" t="s">
         <v>103</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>102</v>
       </c>
@@ -3924,7 +3932,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -3940,7 +3948,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3957,7 +3965,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>97</v>
       </c>
@@ -3966,7 +3974,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>96</v>
       </c>
@@ -3975,7 +3983,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>95</v>
       </c>
@@ -3984,7 +3992,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>94</v>
       </c>
@@ -3993,7 +4001,7 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>93</v>
       </c>
@@ -4005,7 +4013,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -4016,14 +4024,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+    <row r="143" spans="1:3" ht="28">
+      <c r="A143" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>91</v>
       </c>
@@ -4032,7 +4040,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="6" t="s">
         <v>90</v>
       </c>
@@ -4041,7 +4049,7 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="6" t="s">
         <v>89</v>
       </c>
@@ -4049,7 +4057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="6" t="s">
         <v>88</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="6" t="s">
         <v>87</v>
       </c>
@@ -4065,7 +4073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149" s="6" t="s">
         <v>86</v>
       </c>
@@ -4073,7 +4081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="6" t="s">
         <v>85</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="6" t="s">
         <v>84</v>
       </c>
@@ -4089,7 +4097,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="6" t="s">
         <v>83</v>
       </c>
@@ -4097,7 +4105,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="6" t="s">
         <v>82</v>
       </c>
@@ -4105,7 +4113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="15" t="s">
         <v>81</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="15" t="s">
         <v>80</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="15" t="s">
         <v>79</v>
       </c>
@@ -4129,7 +4137,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="15" t="s">
         <v>78</v>
       </c>
@@ -4137,7 +4145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="15" t="s">
         <v>77</v>
       </c>
@@ -4145,7 +4153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="15" t="s">
         <v>76</v>
       </c>
@@ -4158,7 +4166,7 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="15" t="s">
         <v>75</v>
       </c>
@@ -4171,7 +4179,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -4182,13 +4190,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+    <row r="162" spans="1:15" ht="28">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B162" s="26"/>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="15" t="s">
         <v>74</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="6" t="s">
         <v>73</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="6" t="s">
         <v>72</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="6" t="s">
         <v>71</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="6" t="s">
         <v>70</v>
       </c>
@@ -4228,7 +4236,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="6" t="s">
         <v>69</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="15" t="s">
         <v>68</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="6" t="s">
         <v>67</v>
       </c>
@@ -4252,7 +4260,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="6" t="s">
         <v>66</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="6" t="s">
         <v>65</v>
       </c>
@@ -4272,7 +4280,7 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="6" t="s">
         <v>64</v>
       </c>
@@ -4283,7 +4291,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4293,13 +4301,13 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+    <row r="175" spans="1:15" ht="28">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B175" s="26"/>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="6" t="s">
         <v>63</v>
       </c>
@@ -4307,7 +4315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>62</v>
       </c>
@@ -4315,7 +4323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>61</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4336,13 +4344,13 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+    <row r="180" spans="1:3" ht="28">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="26"/>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>60</v>
       </c>
@@ -4350,7 +4358,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>59</v>
       </c>
@@ -4358,7 +4366,7 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>58</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>57</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>56</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="48">
       <c r="A186" s="15" t="s">
         <v>55</v>
       </c>
@@ -4390,7 +4398,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
         <v>54</v>
       </c>
@@ -4398,7 +4406,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="15" t="s">
         <v>53</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="15" t="s">
         <v>52</v>
       </c>
@@ -4414,7 +4422,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="15" t="s">
         <v>51</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="15" t="s">
         <v>50</v>
       </c>
@@ -4430,7 +4438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="15" t="s">
         <v>49</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="15" t="s">
         <v>48</v>
       </c>
@@ -4449,7 +4457,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4460,13 +4468,13 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+    <row r="195" spans="1:3" ht="28">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="26"/>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="15" t="s">
         <v>47</v>
       </c>
@@ -4474,7 +4482,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="15" t="s">
         <v>46</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>45</v>
       </c>
@@ -4490,13 +4498,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4506,13 +4514,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+    <row r="201" spans="1:3" ht="28">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="26"/>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>44</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>43</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>221</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>42</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>41</v>
       </c>
@@ -4552,7 +4560,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>40</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>39</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>231</v>
       </c>
@@ -4576,13 +4584,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4592,18 +4600,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+    <row r="212" spans="1:3" ht="28">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="26"/>
+    </row>
+    <row r="213" spans="1:3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4613,13 +4621,13 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+    <row r="215" spans="1:3" ht="28">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="26"/>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>38</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>37</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>36</v>
       </c>
@@ -4643,7 +4651,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>230</v>
       </c>
@@ -4651,7 +4659,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
         <v>226</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>227</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>228</v>
       </c>
@@ -4675,7 +4683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>229</v>
       </c>
@@ -4683,7 +4691,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>34</v>
       </c>
@@ -4691,12 +4699,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4706,13 +4714,13 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+    <row r="227" spans="1:4" ht="28">
+      <c r="A227" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B227" s="27"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="26"/>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
         <v>32</v>
       </c>
@@ -4720,7 +4728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
         <v>31</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="12" t="s">
         <v>30</v>
       </c>
@@ -4739,12 +4747,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="C231" s="4">
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>388</v>
@@ -4754,13 +4762,13 @@
         <v>20595.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+    <row r="233" spans="1:4" ht="28">
+      <c r="A233" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B233" s="27"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="26"/>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="12" t="s">
         <v>27</v>
       </c>
@@ -4771,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="12" t="s">
         <v>26</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="12" t="s">
         <v>25</v>
       </c>
@@ -4793,7 +4801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="12" t="s">
         <v>24</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="12" t="s">
         <v>23</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="12" t="s">
         <v>22</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="12" t="s">
         <v>21</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="12" t="s">
         <v>20</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="12" t="s">
         <v>19</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="12" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="12" t="s">
         <v>17</v>
       </c>
@@ -4881,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="12" t="s">
         <v>16</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
         <v>258</v>
       </c>
@@ -4900,7 +4908,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
         <v>15</v>
       </c>
@@ -4908,7 +4916,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="12" t="s">
         <v>14</v>
       </c>
@@ -4919,7 +4927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
         <v>261</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" s="12" t="s">
         <v>13</v>
       </c>
@@ -4938,13 +4946,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>411.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>411.1</v>
@@ -4954,13 +4962,13 @@
         <v>21006.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+    <row r="253" spans="1:4" ht="28">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="26"/>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="12" t="s">
         <v>12</v>
       </c>
@@ -4971,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
         <v>11</v>
       </c>
@@ -4979,7 +4987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4995,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
         <v>9</v>
       </c>
@@ -4995,7 +5003,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" s="12" t="s">
         <v>8</v>
       </c>
@@ -5006,12 +5014,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="C260" s="4">
         <v>297.22000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="B261" s="5">
         <f>SUM(B254:B260)</f>
         <v>297.22000000000003</v>
@@ -5021,13 +5029,13 @@
         <v>21303.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+    <row r="262" spans="1:4" ht="28">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="26"/>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="12" t="s">
         <v>7</v>
       </c>
@@ -5038,7 +5046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" s="12" t="s">
         <v>6</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" s="12" t="s">
         <v>5</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" s="12" t="s">
         <v>4</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
         <v>223</v>
       </c>
@@ -5079,7 +5087,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
         <v>248</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>209</v>
       </c>
@@ -5119,7 +5127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273" s="12" t="s">
         <v>210</v>
       </c>
@@ -5130,7 +5138,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10">
       <c r="A274" s="12" t="s">
         <v>241</v>
       </c>
@@ -5141,7 +5149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10">
       <c r="A275" s="6" t="s">
         <v>240</v>
       </c>
@@ -5149,7 +5157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276" s="12" t="s">
         <v>213</v>
       </c>
@@ -5160,18 +5168,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="C278" s="4">
         <v>735.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="B279" s="5">
         <f>SUM(B263:B278)</f>
         <v>735.75</v>
@@ -5181,13 +5189,13 @@
         <v>22039.29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+    <row r="280" spans="1:10" ht="28">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B280" s="26"/>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="12" t="s">
         <v>214</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282" s="6" t="s">
         <v>262</v>
       </c>
@@ -5206,7 +5214,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283" s="6" t="s">
         <v>216</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284" s="6" t="s">
         <v>217</v>
       </c>
@@ -5222,7 +5230,7 @@
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285" s="6" t="s">
         <v>219</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286" s="6" t="s">
         <v>218</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287" s="6" t="s">
         <v>220</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288" s="12" t="s">
         <v>222</v>
       </c>
@@ -5257,7 +5265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" s="12" t="s">
         <v>224</v>
       </c>
@@ -5268,7 +5276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" s="12" t="s">
         <v>225</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" s="12" t="s">
         <v>233</v>
       </c>
@@ -5290,12 +5298,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="C292" s="4">
         <v>1036.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
         <v>1036.02</v>
@@ -5305,13 +5313,13 @@
         <v>23075.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+    <row r="294" spans="1:4" ht="28">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="26"/>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
         <v>234</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
         <v>263</v>
       </c>
@@ -5327,7 +5335,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
         <v>235</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
         <v>236</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" s="12" t="s">
         <v>237</v>
       </c>
@@ -5354,7 +5362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" s="12" t="s">
         <v>238</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" s="12" t="s">
         <v>242</v>
       </c>
@@ -5376,7 +5384,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" s="12" t="s">
         <v>243</v>
       </c>
@@ -5387,7 +5395,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" s="12" t="s">
         <v>244</v>
       </c>
@@ -5398,7 +5406,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" s="12" t="s">
         <v>245</v>
       </c>
@@ -5409,12 +5417,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="C305" s="4">
         <v>847.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="B306" s="5">
         <f>SUM(B295:B305)</f>
         <v>847.32999999999993</v>
@@ -5424,13 +5432,13 @@
         <v>24958.660000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
+    <row r="307" spans="1:4" ht="28">
+      <c r="A307" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B307" s="27"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="26"/>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
         <v>249</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
         <v>250</v>
       </c>
@@ -5446,7 +5454,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
         <v>251</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
         <v>252</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
         <v>253</v>
       </c>
@@ -5470,7 +5478,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
         <v>254</v>
       </c>
@@ -5478,7 +5486,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
         <v>255</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
         <v>256</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
         <v>257</v>
       </c>
@@ -5502,7 +5510,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" s="12" t="s">
         <v>259</v>
       </c>
@@ -5513,12 +5521,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="B320" s="5">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
@@ -5528,13 +5536,13 @@
         <v>25931.780000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="26">
+    <row r="321" spans="1:3" ht="28">
+      <c r="A321" s="27">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="27"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="26"/>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="6" t="s">
         <v>264</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="6" t="s">
         <v>265</v>
       </c>
@@ -5550,82 +5558,90 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
+      <c r="A324" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B324" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="C326" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="B327" s="5">
         <f>SUM(B322:B326)</f>
-        <v>228.34</v>
+        <v>372.34000000000003</v>
       </c>
       <c r="C327" s="10">
         <f>SUM(C320:C326)</f>
         <v>25931.780000000002</v>
       </c>
     </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="10:10">
       <c r="J362" s="9"/>
     </row>
-    <row r="404" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="9:9">
       <c r="I404" s="8"/>
     </row>
-    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="692" spans="14:25">
       <c r="O692" s="8"/>
     </row>
-    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="697" spans="14:25">
       <c r="Y697">
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="698" spans="14:25">
       <c r="Y698">
         <v>12</v>
       </c>
     </row>
-    <row r="699" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="699" spans="14:25">
       <c r="Y699">
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="700" spans="14:25">
       <c r="N700" s="8"/>
       <c r="Y700">
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="701" spans="14:25">
       <c r="Y701">
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="702" spans="14:25">
       <c r="Y702">
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="703" spans="14:25">
       <c r="Y703">
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="704" spans="14:25">
       <c r="Y704">
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="705" spans="25:25">
       <c r="Y705">
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="706" spans="25:25">
       <c r="Y706">
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="707" spans="25:25">
       <c r="Y707" s="7">
         <f>SUM(Y697:Y706)</f>
         <v>97</v>
@@ -5633,6 +5649,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
@@ -5649,27 +5686,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BADC690F-AA2A-9A40-9655-8469A6864E26}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="266">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -241,20 +240,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>玩模主义</t>
-    <rPh sb="0" eb="2">
-      <t>wan'mo</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>御模道     1/6 赛文               预定</t>
-    <rPh sb="0" eb="1">
-      <t>yu'mo'da</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">HG     魔神Z大魔神                </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2272,6 +2257,13 @@
     <t>龙珠扭蛋</t>
     <rPh sb="0" eb="2">
       <t>long'zh</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">御模道     1/6 赛文               </t>
+    <rPh sb="0" eb="1">
+      <t>yu'mo'da</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2279,11 +2271,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2487,10 +2479,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2776,14 +2768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -2795,29 +2787,29 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
-      <c r="A1" s="26">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -2826,47 +2818,47 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
-      <c r="A5" s="26">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2875,7 +2867,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -2885,23 +2877,23 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28">
-      <c r="A12" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:3">
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2910,7 +2902,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -2921,18 +2913,18 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28">
-      <c r="A16" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2942,31 +2934,31 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28">
-      <c r="A18" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:3">
+    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2975,7 +2967,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -2985,18 +2977,18 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28">
-      <c r="A23" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="26"/>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3006,63 +2998,63 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28">
-      <c r="A25" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:3">
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3071,7 +3063,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -3081,79 +3073,79 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28">
-      <c r="A34" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="26"/>
-    </row>
-    <row r="35" spans="1:3">
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3162,7 +3154,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -3173,23 +3165,23 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28">
-      <c r="A45" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="26"/>
-    </row>
-    <row r="46" spans="1:3">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="27"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3198,7 +3190,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -3209,39 +3201,39 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28">
-      <c r="A49" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="26"/>
-    </row>
-    <row r="50" spans="1:3">
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3250,7 +3242,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3261,47 +3253,47 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28">
-      <c r="A55" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="26"/>
-    </row>
-    <row r="56" spans="1:3">
+    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="27"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3310,7 +3302,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3321,31 +3313,31 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28">
-      <c r="A62" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="26"/>
-    </row>
-    <row r="63" spans="1:3">
+    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3354,7 +3346,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3365,23 +3357,23 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28">
-      <c r="A67" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="26"/>
-    </row>
-    <row r="68" spans="1:3">
+    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3390,7 +3382,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3401,31 +3393,31 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28">
-      <c r="A71" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:3">
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3434,7 +3426,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3445,39 +3437,39 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28">
-      <c r="A76" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="26"/>
-    </row>
-    <row r="77" spans="1:3">
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3486,7 +3478,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3497,39 +3489,39 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28">
-      <c r="A82" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="26"/>
-    </row>
-    <row r="83" spans="1:3">
+    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3538,7 +3530,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3549,31 +3541,31 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28">
-      <c r="A88" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="26"/>
-    </row>
-    <row r="89" spans="1:3">
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A88" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3582,7 +3574,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3593,95 +3585,95 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28">
-      <c r="A93" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93" s="26"/>
-    </row>
-    <row r="94" spans="1:3">
+    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A93" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3690,7 +3682,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3701,52 +3693,52 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28">
-      <c r="A106" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B106" s="26"/>
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A106" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3755,7 +3747,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -3766,83 +3758,83 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28">
-      <c r="A113" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="26"/>
+    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A113" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1">
+    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3852,7 +3844,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -3862,148 +3854,148 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28">
-      <c r="A124" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="26"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A124" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4013,7 +4005,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -4024,138 +4016,138 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28">
-      <c r="A143" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B143" s="26"/>
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4166,9 +4158,9 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4179,7 +4171,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -4190,87 +4182,87 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28">
-      <c r="A162" s="27">
+    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="B162" s="27"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4280,9 +4272,9 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4291,7 +4283,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4301,31 +4293,31 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28">
-      <c r="A175" s="27">
+    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="B175" s="27"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4334,7 +4326,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4344,111 +4336,111 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28">
-      <c r="A180" s="27">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="B180" s="27"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48">
+    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4457,7 +4449,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4468,43 +4460,43 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28">
-      <c r="A195" s="27">
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="B195" s="27"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4514,83 +4506,83 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28">
-      <c r="A201" s="27">
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="B201" s="27"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4600,18 +4592,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28">
-      <c r="A212" s="27">
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="B212" s="27"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4621,90 +4613,90 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28">
-      <c r="A215" s="27">
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="B215" s="27"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4714,61 +4706,58 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28">
-      <c r="A227" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B227" s="26"/>
-    </row>
-    <row r="228" spans="1:4">
+    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A227" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" s="27"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B230" s="11">
-        <v>10</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B230" s="5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C231" s="4">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
-        <v>388</v>
+        <v>746</v>
       </c>
       <c r="C232" s="10">
         <f>SUM(C225:C231)</f>
-        <v>20595.22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="28">
-      <c r="A233" s="27" t="s">
+        <v>20953.22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A233" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B233" s="26"/>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="B233" s="27"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>27</v>
       </c>
@@ -4779,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>26</v>
       </c>
@@ -4790,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>25</v>
       </c>
@@ -4801,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>24</v>
       </c>
@@ -4812,7 +4801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>23</v>
       </c>
@@ -4823,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>22</v>
       </c>
@@ -4834,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>21</v>
       </c>
@@ -4845,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>20</v>
       </c>
@@ -4856,7 +4845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>19</v>
       </c>
@@ -4867,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>18</v>
       </c>
@@ -4878,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>17</v>
       </c>
@@ -4889,7 +4878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>16</v>
       </c>
@@ -4900,15 +4889,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>15</v>
       </c>
@@ -4916,7 +4905,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>14</v>
       </c>
@@ -4927,15 +4916,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>13</v>
       </c>
@@ -4946,29 +4935,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>411.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>411.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>21006.32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="28">
-      <c r="A253" s="27">
+        <v>21364.32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="B253" s="27"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>12</v>
       </c>
@@ -4979,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +4976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +4984,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>9</v>
       </c>
@@ -5003,7 +4992,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>8</v>
       </c>
@@ -5014,28 +5003,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C260" s="4">
         <v>297.22000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="5">
         <f>SUM(B254:B260)</f>
         <v>297.22000000000003</v>
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>21303.54</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="28">
-      <c r="A262" s="27">
+        <v>21661.54</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="B262" s="27"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>7</v>
       </c>
@@ -5046,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>6</v>
       </c>
@@ -5057,7 +5046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>5</v>
       </c>
@@ -5068,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>4</v>
       </c>
@@ -5079,15 +5068,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5095,7 +5084,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5103,7 +5092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5111,537 +5100,537 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
         <v>735.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="5">
         <f>SUM(B263:B278)</f>
         <v>735.75</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>22039.29</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="28">
-      <c r="A280" s="27">
+        <v>22397.29</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="B280" s="27"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
         <v>1036.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="5">
         <f>SUM(B281:B292)</f>
         <v>1036.02</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>23075.31</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="28">
-      <c r="A294" s="27">
+        <v>23433.31</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="B294" s="27"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B300" s="11">
         <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
         <v>847.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="5">
         <f>SUM(B295:B305)</f>
         <v>847.32999999999993</v>
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>24958.660000000003</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="28">
-      <c r="A307" s="27" t="s">
+        <v>25316.660000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A307" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B307" s="27"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B307" s="26"/>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="5">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>25931.780000000002</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="28">
-      <c r="A321" s="27">
+        <v>26289.780000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A321" s="26">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="26"/>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="B321" s="27"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C326" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B327" s="5">
         <f>SUM(B322:B326)</f>
         <v>372.34000000000003</v>
       </c>
       <c r="C327" s="10">
         <f>SUM(C320:C326)</f>
-        <v>25931.780000000002</v>
-      </c>
-    </row>
-    <row r="362" spans="10:10">
+        <v>26289.780000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J362" s="9"/>
     </row>
-    <row r="404" spans="9:9">
+    <row r="404" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I404" s="8"/>
     </row>
-    <row r="692" spans="14:25">
+    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O692" s="8"/>
     </row>
-    <row r="697" spans="14:25">
+    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y697">
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="14:25">
+    <row r="698" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y698">
         <v>12</v>
       </c>
     </row>
-    <row r="699" spans="14:25">
+    <row r="699" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y699">
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="14:25">
+    <row r="700" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N700" s="8"/>
       <c r="Y700">
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="14:25">
+    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y701">
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="14:25">
+    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y702">
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="14:25">
+    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y703">
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="14:25">
+    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y704">
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="25:25">
+    <row r="705" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y705">
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="25:25">
+    <row r="706" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y706">
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="25:25">
+    <row r="707" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y707" s="7">
         <f>SUM(Y697:Y706)</f>
         <v>97</v>
@@ -5649,6 +5638,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A321:B321"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A55:B55"/>
@@ -5665,27 +5675,6 @@
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="266">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -166,21 +166,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>闪光与魅力      布尔玛            预定</t>
-    <rPh sb="0" eb="2">
-      <t>shan'guan</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOH       欧尔麦特                预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandista  索隆                   预定           </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>变形金刚封绘集</t>
     <rPh sb="0" eb="2">
       <t>bian'xi</t>
@@ -192,10 +177,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BWFC 山治                         预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 孙悟空 军装                  预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -213,10 +194,6 @@
   </si>
   <si>
     <t>BWFC 孙悟空 打伞修行              预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 佛利萨 第2形态               预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2265,6 +2242,29 @@
     <rPh sb="0" eb="1">
       <t>yu'mo'da</t>
     </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">闪光与魅力      布尔玛            </t>
+    <rPh sb="0" eb="2">
+      <t>shan'guan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 佛利萨 第2形态               </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandista  索隆                         </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AOH       欧尔麦特                </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 山治                         </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2771,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="4">
@@ -2924,7 +2924,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2936,13 +2936,13 @@
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="4">
@@ -2988,7 +2988,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3000,13 +3000,13 @@
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3491,13 +3491,13 @@
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3695,14 +3695,14 @@
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3760,14 +3760,14 @@
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3856,13 +3856,13 @@
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4018,14 +4018,14 @@
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4708,13 +4708,13 @@
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -4753,13 +4753,13 @@
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -4802,19 +4802,16 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B238" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>3</v>
+      <c r="A238" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B238" s="5">
+        <v>77.66</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B240" s="11">
         <v>9.66</v>
@@ -4836,7 +4833,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B241" s="11">
         <v>9.66</v>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -4858,7 +4855,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B243" s="11">
         <v>9.66</v>
@@ -4868,19 +4865,16 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B244" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>3</v>
+      <c r="A244" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B244" s="5">
+        <v>77.66</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
@@ -4891,7 +4885,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -4899,56 +4893,50 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B248" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>3</v>
+      <c r="A248" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B248" s="5">
+        <v>83.61</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B250" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>3</v>
+      <c r="A250" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B250" s="5">
+        <v>77.61</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>411.1</v>
+        <v>689.1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>411.1</v>
+        <v>689.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>21364.32</v>
+        <v>21642.32</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -4958,14 +4946,11 @@
       <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B254" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>3</v>
+      <c r="A254" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" s="5">
+        <v>83.61</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5005,17 +4990,17 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C260" s="4">
-        <v>297.22000000000003</v>
+        <v>371.22</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="5">
         <f>SUM(B254:B260)</f>
-        <v>297.22000000000003</v>
+        <v>371.22</v>
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>21661.54</v>
+        <v>22013.54</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5070,7 +5055,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5102,7 +5087,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5110,7 +5095,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5118,29 +5103,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5148,13 +5133,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5175,7 +5160,7 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>22397.29</v>
+        <v>22749.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
@@ -5186,18 +5171,18 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5205,7 +5190,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5213,7 +5198,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5221,7 +5206,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5229,7 +5214,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5237,7 +5222,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5245,46 +5230,46 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5299,7 +5284,7 @@
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>23433.31</v>
+        <v>23785.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5310,7 +5295,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5318,7 +5303,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5326,7 +5311,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5334,7 +5319,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5342,68 +5327,68 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B300" s="11">
         <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5418,18 +5403,18 @@
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>25316.660000000003</v>
+        <v>25668.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A307" s="26" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5437,7 +5422,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5445,7 +5430,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5453,7 +5438,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5461,7 +5446,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5469,7 +5454,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5477,7 +5462,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5485,7 +5470,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5493,7 +5478,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5501,13 +5486,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5522,7 +5507,7 @@
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>26289.780000000002</v>
+        <v>26641.780000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -5533,7 +5518,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5541,7 +5526,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5549,7 +5534,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5557,7 +5542,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C326" s="4">
-        <v>0</v>
+        <v>372.34</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -5567,7 +5552,7 @@
       </c>
       <c r="C327" s="10">
         <f>SUM(C320:C326)</f>
-        <v>26289.780000000002</v>
+        <v>27014.120000000003</v>
       </c>
     </row>
     <row r="362" spans="10:10" x14ac:dyDescent="0.3">

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="267">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2265,6 +2265,16 @@
   </si>
   <si>
     <t xml:space="preserve">BWFC 山治                         </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宝    OP小柱子</t>
+    <rPh sb="0" eb="1">
+      <t>jin'bao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'zhu'zi</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2479,10 +2489,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2771,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A326" sqref="A326"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2788,10 +2798,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2819,10 +2829,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2878,10 +2888,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2914,10 +2924,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2935,10 +2945,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2978,10 +2988,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -2999,10 +3009,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -3074,10 +3084,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3166,10 +3176,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3202,10 +3212,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3254,10 +3264,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3314,10 +3324,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3358,10 +3368,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3394,10 +3404,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3438,10 +3448,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3490,10 +3500,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3542,10 +3552,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3586,10 +3596,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3694,10 +3704,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3759,10 +3769,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3855,10 +3865,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -4017,10 +4027,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4183,10 +4193,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4294,10 +4304,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4337,10 +4347,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4461,10 +4471,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4507,10 +4517,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4593,10 +4603,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4614,10 +4624,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4707,10 +4717,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4752,10 +4762,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4940,10 +4950,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
@@ -5004,10 +5014,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5164,10 +5174,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5288,10 +5298,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
@@ -5407,10 +5417,10 @@
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
+      <c r="A307" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="B307" s="27"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
@@ -5511,10 +5521,10 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="26">
+      <c r="A321" s="27">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="27"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
@@ -5540,6 +5550,14 @@
         <v>144</v>
       </c>
     </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B325" s="5">
+        <v>84.6</v>
+      </c>
+    </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C326" s="4">
         <v>372.34</v>
@@ -5548,7 +5566,7 @@
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B327" s="5">
         <f>SUM(B322:B326)</f>
-        <v>372.34000000000003</v>
+        <v>456.94000000000005</v>
       </c>
       <c r="C327" s="10">
         <f>SUM(C320:C326)</f>
@@ -5623,6 +5641,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
@@ -5639,27 +5678,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4840" yWindow="1700" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="267">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -189,10 +189,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BWFC 比克 短笛                    预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 孙悟空 打伞修行              预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2275,6 +2271,10 @@
     <rPh sb="8" eb="9">
       <t>xiao'zhu'zi</t>
     </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 比克 短笛                    </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2489,10 +2489,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2798,14 +2798,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2829,14 +2829,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -2888,14 +2888,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="26"/>
+      <c r="A12" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -2924,17 +2924,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -2945,14 +2945,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="26"/>
+      <c r="A18" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -2988,17 +2988,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="26"/>
+      <c r="A23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3009,14 +3009,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="26"/>
+      <c r="A25" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3084,14 +3084,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="26"/>
+      <c r="A34" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3176,14 +3176,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="26"/>
+      <c r="A45" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3212,14 +3212,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="26"/>
+      <c r="A49" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3264,14 +3264,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="26"/>
+      <c r="A55" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3324,14 +3324,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="26"/>
+      <c r="A62" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3368,14 +3368,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="26"/>
+      <c r="A67" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3404,14 +3404,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="26"/>
+      <c r="A71" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3448,14 +3448,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="26"/>
+      <c r="A76" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3500,14 +3500,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="26"/>
+      <c r="A82" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3552,14 +3552,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="26"/>
+      <c r="A88" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3596,14 +3596,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="26"/>
+      <c r="A93" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3704,15 +3704,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" s="26"/>
+      <c r="A106" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3769,15 +3769,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="26"/>
+      <c r="A113" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -3865,14 +3865,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="26"/>
+      <c r="A124" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4027,15 +4027,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B143" s="26"/>
+      <c r="A143" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4193,14 +4193,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4304,14 +4304,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4347,14 +4347,14 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4471,14 +4471,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4517,14 +4517,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4603,10 +4603,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4624,14 +4624,14 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4717,14 +4717,14 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B227" s="26"/>
+      <c r="A227" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -4762,14 +4762,14 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B233" s="26"/>
+      <c r="A233" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -4831,14 +4831,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B240" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>3</v>
+      <c r="A240" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B240" s="5">
+        <v>83.66</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4876,7 +4873,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
@@ -4927,7 +4924,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
@@ -4936,28 +4933,28 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>689.1</v>
+        <v>763.1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>689.1</v>
+        <v>763.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>21642.32</v>
+        <v>21716.32</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
@@ -5004,20 +5001,20 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B261" s="5">
+      <c r="B261" s="13">
         <f>SUM(B254:B260)</f>
         <v>371.22</v>
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>22013.54</v>
+        <v>22087.54</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5065,7 +5062,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5097,7 +5094,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5105,7 +5102,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5113,29 +5110,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5143,13 +5140,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5164,35 +5161,35 @@
       <c r="J278"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B279" s="5">
+      <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
         <v>735.75</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>22749.29</v>
+        <v>22823.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5200,7 +5197,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5208,7 +5205,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5216,7 +5213,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5224,7 +5221,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5232,7 +5229,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5240,46 +5237,46 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5288,24 +5285,24 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B293" s="5">
+      <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
         <v>1036.02</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>23785.31</v>
+        <v>23859.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="27"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5313,7 +5310,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5321,7 +5318,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5329,7 +5326,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5337,68 +5334,68 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B300" s="11">
         <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5407,24 +5404,24 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B306" s="5">
+      <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
         <v>847.32999999999993</v>
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>25668.660000000003</v>
+        <v>25742.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B307" s="26"/>
+      <c r="A307" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5432,7 +5429,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5440,7 +5437,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5448,7 +5445,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5456,7 +5453,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5464,7 +5461,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5472,7 +5469,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5480,7 +5477,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5488,7 +5485,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5496,13 +5493,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5511,24 +5508,24 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B320" s="5">
+      <c r="B320" s="13">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>26641.780000000002</v>
+        <v>26715.780000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="27">
+      <c r="A321" s="26">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="26"/>
+      <c r="B321" s="27"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5536,7 +5533,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5544,7 +5541,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
@@ -5560,17 +5557,17 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C326" s="4">
-        <v>372.34</v>
+        <v>456.94</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B327" s="5">
+      <c r="B327" s="13">
         <f>SUM(B322:B326)</f>
         <v>456.94000000000005</v>
       </c>
       <c r="C327" s="10">
         <f>SUM(C320:C326)</f>
-        <v>27014.120000000003</v>
+        <v>27172.720000000001</v>
       </c>
     </row>
     <row r="362" spans="10:10" x14ac:dyDescent="0.3">
@@ -5641,6 +5638,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A321:B321"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A55:B55"/>
@@ -5657,27 +5675,6 @@
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="1700" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="266">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -1878,32 +1878,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>龙珠    超绝技巧四   极意空       预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chao'jue'ji'qiao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>si</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yi'si</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>明源</t>
-    <rPh sb="0" eb="1">
-      <t>min'yuan</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">剧场版  终极战士   悟吉塔         </t>
     <rPh sb="0" eb="1">
       <t>ju'chang'ban</t>
@@ -2248,10 +2222,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">BWFC 佛利萨 第2形态               </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Grandista  索隆                         </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2275,6 +2245,26 @@
   </si>
   <si>
     <t xml:space="preserve">BWFC 比克 短笛                    </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龙珠    超绝技巧四   极意空       </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chao'jue'ji'qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>si</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'si</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 佛利萨 第2形态               </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2489,10 +2479,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2781,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2798,10 +2788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2829,10 +2819,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2888,10 +2878,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2924,10 +2914,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -2945,10 +2935,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2988,10 +2978,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -3009,10 +2999,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -3084,10 +3074,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3176,10 +3166,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3212,10 +3202,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3264,10 +3254,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3324,10 +3314,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3368,10 +3358,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3404,10 +3394,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3448,10 +3438,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3500,10 +3490,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3552,10 +3542,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3596,10 +3586,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3704,10 +3694,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3769,10 +3759,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3865,10 +3855,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -4027,10 +4017,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4193,10 +4183,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4304,10 +4294,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4347,10 +4337,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4471,10 +4461,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4517,10 +4507,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4603,10 +4593,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4624,10 +4614,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -4717,10 +4707,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4740,7 +4730,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -4762,10 +4752,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -4813,7 +4803,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
@@ -4832,7 +4822,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
@@ -4873,7 +4863,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
@@ -4892,7 +4882,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -4908,7 +4898,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
@@ -4916,7 +4906,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
@@ -4924,7 +4914,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
@@ -4947,14 +4937,14 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
@@ -5011,10 +5001,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5094,7 +5084,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5121,7 +5111,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
@@ -5132,7 +5122,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5171,10 +5161,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5189,7 +5179,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5295,10 +5285,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
@@ -5310,7 +5300,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5344,84 +5334,81 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B300" s="11">
-        <v>10</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>231</v>
+      <c r="A300" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B300" s="5">
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
-        <v>847.33</v>
+        <v>924.33</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
-        <v>847.32999999999993</v>
+        <v>924.32999999999993</v>
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>25742.660000000003</v>
+        <v>25819.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B307" s="27"/>
+      <c r="A307" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5429,7 +5416,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5437,7 +5424,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5445,7 +5432,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5453,7 +5440,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5461,7 +5448,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5469,7 +5456,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5477,7 +5464,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5485,7 +5472,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5493,13 +5480,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5514,18 +5501,18 @@
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>26715.780000000002</v>
+        <v>26792.780000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="26">
+      <c r="A321" s="27">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="27"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5533,7 +5520,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5541,7 +5528,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5549,7 +5536,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
@@ -5567,7 +5554,7 @@
       </c>
       <c r="C327" s="10">
         <f>SUM(C320:C326)</f>
-        <v>27172.720000000001</v>
+        <v>27249.72</v>
       </c>
     </row>
     <row r="362" spans="10:10" x14ac:dyDescent="0.3">
@@ -5638,6 +5625,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
@@ -5654,27 +5662,6 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{294B3E2F-E666-CA49-9ECC-F8B31350378B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="3960" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="268">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2265,17 +2266,25 @@
   </si>
   <si>
     <t xml:space="preserve">BWFC 佛利萨 第2形态               </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>THF 灌铅脚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>THF 透明声波</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2479,10 +2488,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2768,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y707"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -2787,13 +2796,13 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+    <row r="1" spans="1:3" ht="28">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>199</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -2818,13 +2827,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>198</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>197</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>196</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>195</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>194</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -2877,13 +2886,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" ht="28">
+      <c r="A12" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
         <v>192</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="24" t="s">
         <v>191</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -2913,16 +2922,16 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:3" ht="28">
+      <c r="A16" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
         <v>189</v>
       </c>
@@ -2934,13 +2943,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:3" ht="28">
+      <c r="A18" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>186</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>187</v>
       </c>
@@ -2956,7 +2965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>186</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -2977,16 +2986,16 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:3" ht="28">
+      <c r="A23" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>184</v>
       </c>
@@ -2998,13 +3007,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:3" ht="28">
+      <c r="A25" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="24" t="s">
         <v>182</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>181</v>
       </c>
@@ -3020,7 +3029,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>181</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>180</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>179</v>
       </c>
@@ -3044,7 +3053,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>178</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>177</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -3073,13 +3082,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:3" ht="28">
+      <c r="A34" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="26"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>175</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>174</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>173</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>172</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>171</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>170</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>169</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>169</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="15" t="s">
         <v>168</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -3165,13 +3174,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:3" ht="28">
+      <c r="A45" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="26"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="27"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="15" t="s">
         <v>166</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="15" t="s">
         <v>165</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -3201,13 +3210,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:3" ht="28">
+      <c r="A49" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="26"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
         <v>163</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>162</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>161</v>
       </c>
@@ -3231,7 +3240,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
         <v>160</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3253,13 +3262,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+    <row r="55" spans="1:3" ht="28">
+      <c r="A55" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="26"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="27"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="24" t="s">
         <v>158</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
         <v>157</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="15" t="s">
         <v>156</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>155</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="15" t="s">
         <v>154</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3313,13 +3322,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:3" ht="28">
+      <c r="A62" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="26"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="15" t="s">
         <v>152</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="15" t="s">
         <v>151</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
         <v>150</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3357,13 +3366,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+    <row r="67" spans="1:3" ht="28">
+      <c r="A67" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="26"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="15" t="s">
         <v>148</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="15" t="s">
         <v>147</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3393,13 +3402,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+    <row r="71" spans="1:3" ht="28">
+      <c r="A71" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="15" t="s">
         <v>145</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="15" t="s">
         <v>144</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="15" t="s">
         <v>143</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3437,13 +3446,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+    <row r="76" spans="1:3" ht="28">
+      <c r="A76" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="26"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="15" t="s">
         <v>141</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="15" t="s">
         <v>140</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="15" t="s">
         <v>139</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="15" t="s">
         <v>138</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3489,13 +3498,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+    <row r="82" spans="1:3" ht="28">
+      <c r="A82" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="26"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="15" t="s">
         <v>137</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="15" t="s">
         <v>136</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="15" t="s">
         <v>135</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="15" t="s">
         <v>134</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3541,13 +3550,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+    <row r="88" spans="1:3" ht="28">
+      <c r="A88" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="26"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="15" t="s">
         <v>132</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="15" t="s">
         <v>131</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="15" t="s">
         <v>130</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3585,13 +3594,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+    <row r="93" spans="1:3" ht="28">
+      <c r="A93" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="26"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="15" t="s">
         <v>128</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="15" t="s">
         <v>116</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="15" t="s">
         <v>127</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="15" t="s">
         <v>126</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="15" t="s">
         <v>125</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="15" t="s">
         <v>124</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="15" t="s">
         <v>123</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="15" t="s">
         <v>122</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="15" t="s">
         <v>121</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="15" t="s">
         <v>120</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="15" t="s">
         <v>119</v>
       </c>
@@ -3682,7 +3691,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3693,14 +3702,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+    <row r="106" spans="1:3" ht="28">
+      <c r="A106" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="20" t="s">
         <v>117</v>
       </c>
@@ -3709,7 +3718,7 @@
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>116</v>
       </c>
@@ -3718,7 +3727,7 @@
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="20" t="s">
         <v>115</v>
       </c>
@@ -3727,7 +3736,7 @@
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="20" t="s">
         <v>114</v>
       </c>
@@ -3736,7 +3745,7 @@
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="20" t="s">
         <v>113</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -3758,14 +3767,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+    <row r="113" spans="1:3" ht="28">
+      <c r="A113" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="20" t="s">
         <v>111</v>
       </c>
@@ -3774,7 +3783,7 @@
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="20" t="s">
         <v>110</v>
       </c>
@@ -3783,7 +3792,7 @@
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="20" t="s">
         <v>109</v>
       </c>
@@ -3792,7 +3801,7 @@
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="20" t="s">
         <v>108</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>107</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="20" t="s">
         <v>106</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="20" t="s">
         <v>105</v>
       </c>
@@ -3824,7 +3833,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="20" t="s">
         <v>104</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>103</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -3854,13 +3863,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+    <row r="124" spans="1:3" ht="28">
+      <c r="A124" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B124" s="26"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>101</v>
       </c>
@@ -3868,7 +3877,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3876,7 +3885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3884,7 +3893,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3892,7 +3901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>97</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="19" t="s">
         <v>96</v>
       </c>
@@ -3908,7 +3917,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="19" t="s">
         <v>95</v>
       </c>
@@ -3916,7 +3925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>94</v>
       </c>
@@ -3924,7 +3933,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>93</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>92</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>91</v>
       </c>
@@ -3948,7 +3957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>90</v>
       </c>
@@ -3957,7 +3966,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>89</v>
       </c>
@@ -3966,7 +3975,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>88</v>
       </c>
@@ -3975,7 +3984,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>87</v>
       </c>
@@ -3984,7 +3993,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>86</v>
       </c>
@@ -3993,7 +4002,7 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>85</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -4016,14 +4025,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+    <row r="143" spans="1:3" ht="28">
+      <c r="A143" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>83</v>
       </c>
@@ -4032,7 +4041,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="6" t="s">
         <v>82</v>
       </c>
@@ -4041,7 +4050,7 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="6" t="s">
         <v>81</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="6" t="s">
         <v>80</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="6" t="s">
         <v>79</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149" s="6" t="s">
         <v>78</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="6" t="s">
         <v>77</v>
       </c>
@@ -4081,7 +4090,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="6" t="s">
         <v>76</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="6" t="s">
         <v>75</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="6" t="s">
         <v>74</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="15" t="s">
         <v>73</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="15" t="s">
         <v>72</v>
       </c>
@@ -4121,7 +4130,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="15" t="s">
         <v>71</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="15" t="s">
         <v>70</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="15" t="s">
         <v>69</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="15" t="s">
         <v>68</v>
       </c>
@@ -4158,7 +4167,7 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="15" t="s">
         <v>67</v>
       </c>
@@ -4171,7 +4180,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -4182,13 +4191,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+    <row r="162" spans="1:15" ht="28">
+      <c r="A162" s="26">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B162" s="27"/>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="15" t="s">
         <v>66</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="6" t="s">
         <v>65</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="6" t="s">
         <v>64</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="6" t="s">
         <v>63</v>
       </c>
@@ -4220,7 +4229,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="6" t="s">
         <v>62</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="6" t="s">
         <v>61</v>
       </c>
@@ -4236,7 +4245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="15" t="s">
         <v>60</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="6" t="s">
         <v>59</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="6" t="s">
         <v>58</v>
       </c>
@@ -4260,7 +4269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="6" t="s">
         <v>57</v>
       </c>
@@ -4272,7 +4281,7 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="6" t="s">
         <v>56</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4293,13 +4302,13 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+    <row r="175" spans="1:15" ht="28">
+      <c r="A175" s="26">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B175" s="27"/>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="6" t="s">
         <v>55</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
         <v>54</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>53</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4336,13 +4345,13 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+    <row r="180" spans="1:3" ht="28">
+      <c r="A180" s="26">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="27"/>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>52</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>51</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>50</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>49</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>48</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="48">
       <c r="A186" s="15" t="s">
         <v>47</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
         <v>46</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="15" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="15" t="s">
         <v>44</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="15" t="s">
         <v>43</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="15" t="s">
         <v>42</v>
       </c>
@@ -4430,7 +4439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="15" t="s">
         <v>41</v>
       </c>
@@ -4438,7 +4447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="15" t="s">
         <v>40</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4460,13 +4469,13 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+    <row r="195" spans="1:3" ht="28">
+      <c r="A195" s="26">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="27"/>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="15" t="s">
         <v>39</v>
       </c>
@@ -4474,7 +4483,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="15" t="s">
         <v>38</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>37</v>
       </c>
@@ -4490,13 +4499,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4506,13 +4515,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+    <row r="201" spans="1:3" ht="28">
+      <c r="A201" s="26">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="27"/>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>36</v>
       </c>
@@ -4520,7 +4529,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>35</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>213</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>34</v>
       </c>
@@ -4544,7 +4553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>33</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>32</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>31</v>
       </c>
@@ -4568,7 +4577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>223</v>
       </c>
@@ -4576,13 +4585,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4592,18 +4601,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+    <row r="212" spans="1:3" ht="28">
+      <c r="A212" s="26">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="27"/>
+    </row>
+    <row r="213" spans="1:3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4613,13 +4622,13 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+    <row r="215" spans="1:3" ht="28">
+      <c r="A215" s="26">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="27"/>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -4627,7 +4636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>29</v>
       </c>
@@ -4635,7 +4644,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>28</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>222</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
         <v>218</v>
       </c>
@@ -4659,7 +4668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>219</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>220</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>221</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>26</v>
       </c>
@@ -4691,12 +4700,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4706,13 +4715,13 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+    <row r="227" spans="1:4" ht="28">
+      <c r="A227" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B227" s="26"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="27"/>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
         <v>24</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
         <v>23</v>
       </c>
@@ -4728,7 +4737,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
         <v>257</v>
       </c>
@@ -4736,12 +4745,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="C231" s="4">
         <v>746</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>746</v>
@@ -4751,13 +4760,13 @@
         <v>20953.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+    <row r="233" spans="1:4" ht="28">
+      <c r="A233" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B233" s="26"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="27"/>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="12" t="s">
         <v>21</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="12" t="s">
         <v>20</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="12" t="s">
         <v>19</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="12" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
         <v>265</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="12" t="s">
         <v>17</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
         <v>263</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>83.66</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="12" t="s">
         <v>16</v>
       </c>
@@ -4839,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="12" t="s">
         <v>15</v>
       </c>
@@ -4850,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="12" t="s">
         <v>14</v>
       </c>
@@ -4861,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>261</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="12" t="s">
         <v>13</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
         <v>248</v>
       </c>
@@ -4888,7 +4897,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
         <v>12</v>
       </c>
@@ -4896,7 +4905,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
         <v>259</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
         <v>251</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
         <v>260</v>
       </c>
@@ -4920,13 +4929,13 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>763.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>763.1</v>
@@ -4936,13 +4945,13 @@
         <v>21716.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+    <row r="253" spans="1:4" ht="28">
+      <c r="A253" s="26">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="27"/>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
         <v>258</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
         <v>11</v>
       </c>
@@ -4958,7 +4967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
         <v>10</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" s="12" t="s">
         <v>8</v>
       </c>
@@ -4985,12 +4994,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="C260" s="4">
         <v>371.22</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="B261" s="13">
         <f>SUM(B254:B260)</f>
         <v>371.22</v>
@@ -5000,13 +5009,13 @@
         <v>22087.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+    <row r="262" spans="1:4" ht="28">
+      <c r="A262" s="26">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="27"/>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="12" t="s">
         <v>7</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" s="12" t="s">
         <v>6</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" s="12" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" s="12" t="s">
         <v>4</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
         <v>215</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
         <v>238</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>201</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273" s="12" t="s">
         <v>202</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10">
       <c r="A274" s="12" t="s">
         <v>231</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10">
       <c r="A275" s="6" t="s">
         <v>230</v>
       </c>
@@ -5128,7 +5137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276" s="12" t="s">
         <v>205</v>
       </c>
@@ -5139,18 +5148,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="C278" s="4">
         <v>735.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
         <v>735.75</v>
@@ -5160,13 +5169,13 @@
         <v>22823.29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+    <row r="280" spans="1:10" ht="28">
+      <c r="A280" s="26">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B280" s="27"/>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="12" t="s">
         <v>206</v>
       </c>
@@ -5177,7 +5186,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282" s="6" t="s">
         <v>252</v>
       </c>
@@ -5185,7 +5194,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283" s="6" t="s">
         <v>208</v>
       </c>
@@ -5193,7 +5202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284" s="6" t="s">
         <v>209</v>
       </c>
@@ -5201,7 +5210,7 @@
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285" s="6" t="s">
         <v>211</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286" s="6" t="s">
         <v>210</v>
       </c>
@@ -5217,7 +5226,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287" s="6" t="s">
         <v>212</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288" s="12" t="s">
         <v>214</v>
       </c>
@@ -5236,7 +5245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" s="12" t="s">
         <v>216</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" s="12" t="s">
         <v>217</v>
       </c>
@@ -5258,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" s="12" t="s">
         <v>225</v>
       </c>
@@ -5269,12 +5278,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="C292" s="4">
         <v>1036.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
         <v>1036.02</v>
@@ -5284,13 +5293,13 @@
         <v>23859.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+    <row r="294" spans="1:4" ht="28">
+      <c r="A294" s="26">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="27"/>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
         <v>226</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
         <v>253</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
         <v>227</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
         <v>228</v>
       </c>
@@ -5322,7 +5331,7 @@
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" s="12" t="s">
         <v>229</v>
       </c>
@@ -5333,7 +5342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
         <v>264</v>
       </c>
@@ -5341,7 +5350,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" s="12" t="s">
         <v>232</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" s="12" t="s">
         <v>233</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" s="12" t="s">
         <v>234</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" s="12" t="s">
         <v>235</v>
       </c>
@@ -5385,12 +5394,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="C305" s="4">
         <v>924.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
         <v>924.32999999999993</v>
@@ -5400,13 +5409,13 @@
         <v>25819.660000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
+    <row r="307" spans="1:4" ht="28">
+      <c r="A307" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B307" s="26"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="27"/>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="6" t="s">
         <v>239</v>
       </c>
@@ -5414,7 +5423,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
         <v>240</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
         <v>241</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
         <v>242</v>
       </c>
@@ -5438,7 +5447,7 @@
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
         <v>243</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
         <v>244</v>
       </c>
@@ -5454,7 +5463,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
         <v>245</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
         <v>246</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
         <v>247</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" s="12" t="s">
         <v>249</v>
       </c>
@@ -5489,12 +5498,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="B320" s="13">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
@@ -5504,13 +5513,13 @@
         <v>26792.780000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="27">
+    <row r="321" spans="1:3" ht="28">
+      <c r="A321" s="26">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="26"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="27"/>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="6" t="s">
         <v>254</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="6" t="s">
         <v>255</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" s="6" t="s">
         <v>256</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" s="6" t="s">
         <v>262</v>
       </c>
@@ -5542,89 +5551,126 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C326" s="4">
-        <v>456.94</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B327" s="13">
-        <f>SUM(B322:B326)</f>
-        <v>456.94000000000005</v>
-      </c>
-      <c r="C327" s="10">
-        <f>SUM(C320:C326)</f>
-        <v>27249.72</v>
-      </c>
-    </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J362" s="9"/>
-    </row>
-    <row r="404" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I404" s="8"/>
-    </row>
-    <row r="692" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O692" s="8"/>
-    </row>
-    <row r="697" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y697">
+    <row r="326" spans="1:3">
+      <c r="A326" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B326" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B327" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="C329" s="4">
+        <v>629.94000000000005</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="B330" s="13">
+        <f>SUM(B322:B328)</f>
+        <v>629.94000000000005</v>
+      </c>
+      <c r="C330" s="10">
+        <f>SUM(C320:C329)</f>
+        <v>27422.720000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="10:10">
+      <c r="J364" s="9"/>
+    </row>
+    <row r="406" spans="9:9">
+      <c r="I406" s="8"/>
+    </row>
+    <row r="694" spans="14:25">
+      <c r="O694" s="8"/>
+    </row>
+    <row r="699" spans="14:25">
+      <c r="Y699">
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y698">
+    <row r="700" spans="14:25">
+      <c r="Y700">
         <v>12</v>
       </c>
     </row>
-    <row r="699" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y699">
+    <row r="701" spans="14:25">
+      <c r="Y701">
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N700" s="8"/>
-      <c r="Y700">
+    <row r="702" spans="14:25">
+      <c r="N702" s="8"/>
+      <c r="Y702">
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y701">
+    <row r="703" spans="14:25">
+      <c r="Y703">
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y702">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y703">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="704" spans="14:25">
       <c r="Y704">
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="705" spans="25:25">
       <c r="Y705">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="706" spans="25:25">
+      <c r="Y706">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="25:25">
+      <c r="Y707">
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y706">
+    <row r="708" spans="25:25">
+      <c r="Y708">
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y707" s="7">
-        <f>SUM(Y697:Y706)</f>
+    <row r="709" spans="25:25">
+      <c r="Y709" s="7">
+        <f>SUM(Y699:Y708)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A321:B321"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A55:B55"/>
@@ -5641,27 +5687,6 @@
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{294B3E2F-E666-CA49-9ECC-F8B31350378B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9440" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="278">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2274,17 +2273,156 @@
   </si>
   <si>
     <t>THF 透明声波</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.05</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">祖国优质版 白胡子 </t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo'ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'zhi'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bai'hu'zi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>万代龙珠超  11扭蛋            预定</t>
+    <rPh sb="0" eb="1">
+      <t>wan'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>long'zhu'chao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>niu'dan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖国一番赏四档猿王枪路飞</t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'fan'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si'dang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan'wang'qiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lu'fei</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  超四孙悟空zeno        预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao'si</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sun'wu'kong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 竞争对手3  悟吉塔      预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'zhen'dui'shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 竞争对手3  布罗利      预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'zhen'dui'shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'luo'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 爆裂激战  蓝超贝吉塔   预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'lie'ji'zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bei'ji'ta</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂   GROS   悟天克斯      预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'tian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂   GROS   小樱          预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao'yin</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2777,14 +2915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y709"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -2796,13 +2934,13 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="27">
         <v>2014.4</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -2810,7 +2948,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>199</v>
       </c>
@@ -2818,7 +2956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -2827,13 +2965,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>2014.5</v>
       </c>
       <c r="B5" s="27"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>198</v>
       </c>
@@ -2841,7 +2979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>197</v>
       </c>
@@ -2849,7 +2987,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>196</v>
       </c>
@@ -2857,7 +2995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>195</v>
       </c>
@@ -2865,7 +3003,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>194</v>
       </c>
@@ -2876,7 +3014,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -2886,13 +3024,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28">
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>193</v>
       </c>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>192</v>
       </c>
@@ -2900,7 +3038,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>191</v>
       </c>
@@ -2911,7 +3049,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -2922,7 +3060,7 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>190</v>
       </c>
@@ -2931,7 +3069,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>189</v>
       </c>
@@ -2943,13 +3081,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28">
+    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B18" s="27"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>186</v>
       </c>
@@ -2957,7 +3095,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>187</v>
       </c>
@@ -2965,7 +3103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>186</v>
       </c>
@@ -2976,7 +3114,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -2986,7 +3124,7 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28">
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>185</v>
       </c>
@@ -2995,7 +3133,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>184</v>
       </c>
@@ -3007,13 +3145,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28">
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>183</v>
       </c>
       <c r="B25" s="27"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>182</v>
       </c>
@@ -3021,7 +3159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>181</v>
       </c>
@@ -3029,7 +3167,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>181</v>
       </c>
@@ -3037,7 +3175,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>180</v>
       </c>
@@ -3045,7 +3183,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>179</v>
       </c>
@@ -3053,7 +3191,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>178</v>
       </c>
@@ -3061,7 +3199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>177</v>
       </c>
@@ -3072,7 +3210,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -3082,13 +3220,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28">
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B34" s="27"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>175</v>
       </c>
@@ -3096,7 +3234,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>174</v>
       </c>
@@ -3104,7 +3242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>173</v>
       </c>
@@ -3112,7 +3250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>172</v>
       </c>
@@ -3120,7 +3258,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>171</v>
       </c>
@@ -3128,7 +3266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>170</v>
       </c>
@@ -3136,7 +3274,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>169</v>
       </c>
@@ -3144,7 +3282,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>169</v>
       </c>
@@ -3152,7 +3290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>168</v>
       </c>
@@ -3163,7 +3301,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -3174,13 +3312,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="27"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>166</v>
       </c>
@@ -3188,7 +3326,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>165</v>
       </c>
@@ -3199,7 +3337,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -3210,13 +3348,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28">
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>164</v>
       </c>
       <c r="B49" s="27"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>163</v>
       </c>
@@ -3224,7 +3362,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>162</v>
       </c>
@@ -3232,7 +3370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>161</v>
       </c>
@@ -3240,7 +3378,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>160</v>
       </c>
@@ -3251,7 +3389,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3262,13 +3400,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28">
+    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>159</v>
       </c>
       <c r="B55" s="27"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>158</v>
       </c>
@@ -3276,7 +3414,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>157</v>
       </c>
@@ -3284,7 +3422,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>156</v>
       </c>
@@ -3292,7 +3430,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>155</v>
       </c>
@@ -3300,7 +3438,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>154</v>
       </c>
@@ -3311,7 +3449,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3322,13 +3460,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28">
+    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
         <v>153</v>
       </c>
       <c r="B62" s="27"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>152</v>
       </c>
@@ -3336,7 +3474,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>151</v>
       </c>
@@ -3344,7 +3482,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>150</v>
       </c>
@@ -3355,7 +3493,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3366,13 +3504,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28">
+    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B67" s="27"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>148</v>
       </c>
@@ -3380,7 +3518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>147</v>
       </c>
@@ -3391,7 +3529,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3402,13 +3540,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28">
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>145</v>
       </c>
@@ -3416,7 +3554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>144</v>
       </c>
@@ -3424,7 +3562,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>143</v>
       </c>
@@ -3435,7 +3573,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3446,13 +3584,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28">
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B76" s="27"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>141</v>
       </c>
@@ -3460,7 +3598,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>140</v>
       </c>
@@ -3468,7 +3606,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>139</v>
       </c>
@@ -3476,7 +3614,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>138</v>
       </c>
@@ -3487,7 +3625,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3498,13 +3636,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28">
+    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B82" s="27"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>137</v>
       </c>
@@ -3512,7 +3650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>136</v>
       </c>
@@ -3520,7 +3658,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>135</v>
       </c>
@@ -3528,7 +3666,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>134</v>
       </c>
@@ -3539,7 +3677,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3550,13 +3688,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28">
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B88" s="27"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>132</v>
       </c>
@@ -3564,7 +3702,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>131</v>
       </c>
@@ -3572,7 +3710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>130</v>
       </c>
@@ -3583,7 +3721,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3594,13 +3732,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28">
+    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B93" s="27"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>128</v>
       </c>
@@ -3608,7 +3746,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>116</v>
       </c>
@@ -3616,7 +3754,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>127</v>
       </c>
@@ -3624,7 +3762,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>126</v>
       </c>
@@ -3632,7 +3770,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>125</v>
       </c>
@@ -3640,7 +3778,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>124</v>
       </c>
@@ -3648,7 +3786,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>123</v>
       </c>
@@ -3656,7 +3794,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>122</v>
       </c>
@@ -3664,7 +3802,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>121</v>
       </c>
@@ -3672,7 +3810,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>120</v>
       </c>
@@ -3680,7 +3818,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>119</v>
       </c>
@@ -3691,7 +3829,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3702,14 +3840,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>117</v>
       </c>
@@ -3718,7 +3856,7 @@
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>116</v>
       </c>
@@ -3727,7 +3865,7 @@
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>115</v>
       </c>
@@ -3736,7 +3874,7 @@
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>114</v>
       </c>
@@ -3745,7 +3883,7 @@
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>113</v>
       </c>
@@ -3756,7 +3894,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -3767,14 +3905,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28">
+    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>111</v>
       </c>
@@ -3783,7 +3921,7 @@
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
         <v>110</v>
       </c>
@@ -3792,7 +3930,7 @@
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
         <v>109</v>
       </c>
@@ -3801,7 +3939,7 @@
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
         <v>108</v>
       </c>
@@ -3809,7 +3947,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1">
+    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>107</v>
       </c>
@@ -3817,7 +3955,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
         <v>106</v>
       </c>
@@ -3825,7 +3963,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
         <v>105</v>
       </c>
@@ -3833,7 +3971,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
         <v>104</v>
       </c>
@@ -3841,7 +3979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>103</v>
       </c>
@@ -3853,7 +3991,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -3863,13 +4001,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B124" s="27"/>
     </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1">
+    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>101</v>
       </c>
@@ -3877,7 +4015,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3885,7 +4023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3893,7 +4031,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3901,7 +4039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>97</v>
       </c>
@@ -3909,7 +4047,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>96</v>
       </c>
@@ -3917,7 +4055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>95</v>
       </c>
@@ -3925,7 +4063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>94</v>
       </c>
@@ -3933,7 +4071,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>93</v>
       </c>
@@ -3941,7 +4079,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>92</v>
       </c>
@@ -3949,7 +4087,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>91</v>
       </c>
@@ -3957,7 +4095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>90</v>
       </c>
@@ -3966,7 +4104,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>89</v>
       </c>
@@ -3975,7 +4113,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>88</v>
       </c>
@@ -3984,7 +4122,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>87</v>
       </c>
@@ -3993,7 +4131,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>86</v>
       </c>
@@ -4002,7 +4140,7 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>85</v>
       </c>
@@ -4014,7 +4152,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -4025,14 +4163,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28">
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>83</v>
       </c>
@@ -4041,7 +4179,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>82</v>
       </c>
@@ -4050,7 +4188,7 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>81</v>
       </c>
@@ -4058,7 +4196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>80</v>
       </c>
@@ -4066,7 +4204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>79</v>
       </c>
@@ -4074,7 +4212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>78</v>
       </c>
@@ -4082,7 +4220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>77</v>
       </c>
@@ -4090,7 +4228,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>76</v>
       </c>
@@ -4098,7 +4236,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>75</v>
       </c>
@@ -4106,7 +4244,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>74</v>
       </c>
@@ -4114,7 +4252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>73</v>
       </c>
@@ -4122,7 +4260,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>72</v>
       </c>
@@ -4130,7 +4268,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>71</v>
       </c>
@@ -4138,7 +4276,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>70</v>
       </c>
@@ -4146,7 +4284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>69</v>
       </c>
@@ -4154,7 +4292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>68</v>
       </c>
@@ -4167,7 +4305,7 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>67</v>
       </c>
@@ -4180,7 +4318,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -4191,13 +4329,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28">
+    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>2018.01</v>
       </c>
       <c r="B162" s="27"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>66</v>
       </c>
@@ -4205,7 +4343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>65</v>
       </c>
@@ -4213,7 +4351,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>64</v>
       </c>
@@ -4221,7 +4359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>63</v>
       </c>
@@ -4229,7 +4367,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>62</v>
       </c>
@@ -4237,7 +4375,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>61</v>
       </c>
@@ -4245,7 +4383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>60</v>
       </c>
@@ -4253,7 +4391,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>59</v>
       </c>
@@ -4261,7 +4399,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>58</v>
       </c>
@@ -4269,7 +4407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>57</v>
       </c>
@@ -4281,7 +4419,7 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>56</v>
       </c>
@@ -4292,7 +4430,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4302,13 +4440,13 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28">
+    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A175" s="26">
         <v>2018.02</v>
       </c>
       <c r="B175" s="27"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>55</v>
       </c>
@@ -4316,7 +4454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>54</v>
       </c>
@@ -4324,7 +4462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>53</v>
       </c>
@@ -4335,7 +4473,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4345,13 +4483,13 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="26">
         <v>2018.03</v>
       </c>
       <c r="B180" s="27"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>52</v>
       </c>
@@ -4359,7 +4497,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>51</v>
       </c>
@@ -4367,7 +4505,7 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>50</v>
       </c>
@@ -4375,7 +4513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>49</v>
       </c>
@@ -4383,7 +4521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>48</v>
       </c>
@@ -4391,7 +4529,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48">
+    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>47</v>
       </c>
@@ -4399,7 +4537,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>46</v>
       </c>
@@ -4407,7 +4545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>45</v>
       </c>
@@ -4415,7 +4553,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>44</v>
       </c>
@@ -4423,7 +4561,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>43</v>
       </c>
@@ -4431,7 +4569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>42</v>
       </c>
@@ -4439,7 +4577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>41</v>
       </c>
@@ -4447,7 +4585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>40</v>
       </c>
@@ -4458,7 +4596,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4469,13 +4607,13 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28">
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A195" s="26">
         <v>2018.04</v>
       </c>
       <c r="B195" s="27"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>39</v>
       </c>
@@ -4483,7 +4621,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>38</v>
       </c>
@@ -4491,7 +4629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>37</v>
       </c>
@@ -4499,13 +4637,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4515,13 +4653,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28">
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A201" s="26">
         <v>2018.05</v>
       </c>
       <c r="B201" s="27"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>36</v>
       </c>
@@ -4529,7 +4667,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>35</v>
       </c>
@@ -4537,7 +4675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>213</v>
       </c>
@@ -4545,7 +4683,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>34</v>
       </c>
@@ -4553,7 +4691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>33</v>
       </c>
@@ -4561,7 +4699,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>32</v>
       </c>
@@ -4569,7 +4707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>31</v>
       </c>
@@ -4577,7 +4715,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>223</v>
       </c>
@@ -4585,13 +4723,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4601,18 +4739,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28">
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="26">
         <v>2018.06</v>
       </c>
       <c r="B212" s="27"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4622,13 +4760,13 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28">
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A215" s="26">
         <v>2018.08</v>
       </c>
       <c r="B215" s="27"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -4636,7 +4774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>29</v>
       </c>
@@ -4644,7 +4782,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>28</v>
       </c>
@@ -4652,7 +4790,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>222</v>
       </c>
@@ -4660,7 +4798,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>218</v>
       </c>
@@ -4668,7 +4806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>219</v>
       </c>
@@ -4676,7 +4814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>220</v>
       </c>
@@ -4684,7 +4822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>221</v>
       </c>
@@ -4692,7 +4830,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>26</v>
       </c>
@@ -4700,12 +4838,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4715,13 +4853,13 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28">
+    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B227" s="27"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>24</v>
       </c>
@@ -4729,7 +4867,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>23</v>
       </c>
@@ -4737,7 +4875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>257</v>
       </c>
@@ -4745,12 +4883,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C231" s="4">
         <v>746</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>746</v>
@@ -4760,13 +4898,13 @@
         <v>20953.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28">
+    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B233" s="27"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>21</v>
       </c>
@@ -4777,7 +4915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>20</v>
       </c>
@@ -4788,7 +4926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>19</v>
       </c>
@@ -4799,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>18</v>
       </c>
@@ -4810,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>265</v>
       </c>
@@ -4818,7 +4956,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>17</v>
       </c>
@@ -4829,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>263</v>
       </c>
@@ -4837,7 +4975,7 @@
         <v>83.66</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>16</v>
       </c>
@@ -4848,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>15</v>
       </c>
@@ -4859,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>14</v>
       </c>
@@ -4870,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>261</v>
       </c>
@@ -4878,7 +5016,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>13</v>
       </c>
@@ -4889,7 +5027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>248</v>
       </c>
@@ -4897,7 +5035,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>12</v>
       </c>
@@ -4905,7 +5043,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>259</v>
       </c>
@@ -4913,7 +5051,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>251</v>
       </c>
@@ -4921,7 +5059,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>260</v>
       </c>
@@ -4929,13 +5067,13 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>763.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>763.1</v>
@@ -4945,13 +5083,13 @@
         <v>21716.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28">
+    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A253" s="26">
         <v>2018.11</v>
       </c>
       <c r="B253" s="27"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>258</v>
       </c>
@@ -4959,7 +5097,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +5105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>10</v>
       </c>
@@ -4975,7 +5113,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>9</v>
       </c>
@@ -4983,7 +5121,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>8</v>
       </c>
@@ -4994,12 +5132,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C260" s="4">
         <v>371.22</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="13">
         <f>SUM(B254:B260)</f>
         <v>371.22</v>
@@ -5009,13 +5147,13 @@
         <v>22087.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28">
+    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A262" s="26">
         <v>2018.12</v>
       </c>
       <c r="B262" s="27"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>7</v>
       </c>
@@ -5026,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>6</v>
       </c>
@@ -5037,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>5</v>
       </c>
@@ -5048,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>215</v>
       </c>
@@ -5067,7 +5205,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5075,7 +5213,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5083,7 +5221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5091,7 +5229,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>238</v>
       </c>
@@ -5099,7 +5237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>201</v>
       </c>
@@ -5107,7 +5245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>202</v>
       </c>
@@ -5118,7 +5256,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
         <v>231</v>
       </c>
@@ -5129,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>230</v>
       </c>
@@ -5137,7 +5275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>205</v>
       </c>
@@ -5148,18 +5286,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
         <v>735.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
         <v>735.75</v>
@@ -5169,13 +5307,13 @@
         <v>22823.29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28">
+    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A280" s="26">
         <v>2019.01</v>
       </c>
       <c r="B280" s="27"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>206</v>
       </c>
@@ -5186,7 +5324,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>252</v>
       </c>
@@ -5194,7 +5332,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>208</v>
       </c>
@@ -5202,7 +5340,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>209</v>
       </c>
@@ -5210,7 +5348,7 @@
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>211</v>
       </c>
@@ -5218,7 +5356,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>210</v>
       </c>
@@ -5226,7 +5364,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>212</v>
       </c>
@@ -5234,7 +5372,7 @@
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>214</v>
       </c>
@@ -5245,7 +5383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>216</v>
       </c>
@@ -5256,7 +5394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>217</v>
       </c>
@@ -5267,7 +5405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>225</v>
       </c>
@@ -5278,12 +5416,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
         <v>1036.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
         <v>1036.02</v>
@@ -5293,13 +5431,13 @@
         <v>23859.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28">
+    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A294" s="26">
         <v>2019.02</v>
       </c>
       <c r="B294" s="27"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>226</v>
       </c>
@@ -5307,7 +5445,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>253</v>
       </c>
@@ -5315,7 +5453,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>227</v>
       </c>
@@ -5323,7 +5461,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>228</v>
       </c>
@@ -5331,7 +5469,7 @@
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>229</v>
       </c>
@@ -5342,7 +5480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>264</v>
       </c>
@@ -5350,7 +5488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>232</v>
       </c>
@@ -5361,7 +5499,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>233</v>
       </c>
@@ -5372,7 +5510,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
         <v>234</v>
       </c>
@@ -5383,7 +5521,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
         <v>235</v>
       </c>
@@ -5394,12 +5532,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
         <v>924.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
         <v>924.32999999999993</v>
@@ -5409,13 +5547,13 @@
         <v>25819.660000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="28">
+    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A307" s="26" t="s">
         <v>237</v>
       </c>
       <c r="B307" s="27"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>239</v>
       </c>
@@ -5423,7 +5561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>240</v>
       </c>
@@ -5431,7 +5569,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>241</v>
       </c>
@@ -5439,7 +5577,7 @@
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>242</v>
       </c>
@@ -5447,7 +5585,7 @@
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>243</v>
       </c>
@@ -5455,7 +5593,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>244</v>
       </c>
@@ -5463,7 +5601,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>245</v>
       </c>
@@ -5471,7 +5609,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>246</v>
       </c>
@@ -5479,7 +5617,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>247</v>
       </c>
@@ -5487,7 +5625,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>249</v>
       </c>
@@ -5498,12 +5636,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="13">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
@@ -5513,13 +5651,13 @@
         <v>26792.780000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="28">
+    <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A321" s="26">
         <v>2019.04</v>
       </c>
       <c r="B321" s="27"/>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>254</v>
       </c>
@@ -5527,7 +5665,7 @@
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>255</v>
       </c>
@@ -5535,7 +5673,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>256</v>
       </c>
@@ -5543,7 +5681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>262</v>
       </c>
@@ -5551,7 +5689,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>266</v>
       </c>
@@ -5559,7 +5697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>267</v>
       </c>
@@ -5567,92 +5705,209 @@
         <v>133</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="C329" s="4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C328" s="4">
         <v>629.94000000000005</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="B330" s="13">
-        <f>SUM(B322:B328)</f>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="13">
+        <f>SUM(B322:B327)</f>
         <v>629.94000000000005</v>
       </c>
-      <c r="C330" s="10">
-        <f>SUM(C320:C329)</f>
+      <c r="C329" s="10">
+        <f>SUM(C320:C328)</f>
         <v>27422.720000000001</v>
       </c>
     </row>
-    <row r="364" spans="10:10">
-      <c r="J364" s="9"/>
-    </row>
-    <row r="406" spans="9:9">
-      <c r="I406" s="8"/>
-    </row>
-    <row r="694" spans="14:25">
-      <c r="O694" s="8"/>
-    </row>
-    <row r="699" spans="14:25">
-      <c r="Y699">
+    <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A330" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B330" s="27"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B331" s="5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B332" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B333" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B334" s="11">
+        <v>10</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B335" s="11">
+        <v>10</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B336" s="11">
+        <v>10</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B337" s="11">
+        <v>10</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B338" s="11">
+        <v>10</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B339" s="11">
+        <v>10</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="5"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C342" s="4">
+        <v>412.6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="5">
+        <f>SUM(B331:B339)</f>
+        <v>412.6</v>
+      </c>
+      <c r="C343" s="10">
+        <f>SUM(C329:C342)</f>
+        <v>27835.32</v>
+      </c>
+    </row>
+    <row r="365" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J365" s="9"/>
+    </row>
+    <row r="407" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I407" s="8"/>
+    </row>
+    <row r="695" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="O695" s="8"/>
+    </row>
+    <row r="700" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y700">
         <v>9</v>
       </c>
     </row>
-    <row r="700" spans="14:25">
-      <c r="Y700">
+    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y701">
         <v>12</v>
       </c>
     </row>
-    <row r="701" spans="14:25">
-      <c r="Y701">
+    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y702">
         <v>8</v>
       </c>
     </row>
-    <row r="702" spans="14:25">
-      <c r="N702" s="8"/>
-      <c r="Y702">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="703" spans="14:25">
+    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N703" s="8"/>
       <c r="Y703">
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="14:25">
+    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y704">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="705" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y705">
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="25:25">
-      <c r="Y705">
+    <row r="706" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y706">
         <v>16</v>
       </c>
     </row>
-    <row r="706" spans="25:25">
-      <c r="Y706">
+    <row r="707" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y707">
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="25:25">
-      <c r="Y707">
+    <row r="708" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y708">
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="25:25">
-      <c r="Y708">
+    <row r="709" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y709">
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="25:25">
-      <c r="Y709" s="7">
-        <f>SUM(Y699:Y708)</f>
+    <row r="710" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y710" s="7">
+        <f>SUM(Y700:Y709)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
+  <mergeCells count="38">
     <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
@@ -5666,11 +5921,16 @@
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A143:B143"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A330:B330"/>
     <mergeCell ref="A321:B321"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A55:B55"/>
@@ -5686,13 +5946,12 @@
     <mergeCell ref="A175:B175"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18 A307" numberStoredAsText="1"/>
+    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18 A307 A330" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -256,13 +256,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>屁股</t>
-    <rPh sb="0" eb="2">
-      <t>pi'gi</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">BOS         超赛悟空              </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
@@ -2411,6 +2404,19 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>xiao'yin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">馒头社的屁股             </t>
+    <rPh sb="0" eb="1">
+      <t>man'tou'she</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pi'gu</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2918,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="E305" sqref="E305"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2950,7 +2956,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2981,7 +2987,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2989,7 +2995,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -3005,7 +3011,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -3026,13 +3032,13 @@
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -3040,7 +3046,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -3062,7 +3068,7 @@
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="4">
@@ -3071,7 +3077,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -3083,13 +3089,13 @@
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -3105,7 +3111,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -3126,7 +3132,7 @@
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="4">
@@ -3135,7 +3141,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3147,13 +3153,13 @@
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -3161,7 +3167,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -3169,7 +3175,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3177,7 +3183,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3201,7 +3207,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3222,13 +3228,13 @@
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3252,7 +3258,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3260,7 +3266,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3276,7 +3282,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3284,7 +3290,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3292,7 +3298,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3314,13 +3320,13 @@
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3350,13 +3356,13 @@
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3380,7 +3386,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3402,13 +3408,13 @@
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3424,7 +3430,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3432,7 +3438,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3440,7 +3446,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3462,13 +3468,13 @@
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3484,7 +3490,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3506,13 +3512,13 @@
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3542,13 +3548,13 @@
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3564,7 +3570,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3586,13 +3592,13 @@
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3600,7 +3606,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3608,7 +3614,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3616,7 +3622,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3638,13 +3644,13 @@
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3652,7 +3658,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3660,7 +3666,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3690,13 +3696,13 @@
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3704,7 +3710,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3712,7 +3718,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3734,13 +3740,13 @@
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3748,7 +3754,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3756,7 +3762,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3764,7 +3770,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3772,7 +3778,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3780,7 +3786,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3788,7 +3794,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3796,7 +3802,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3804,7 +3810,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3812,7 +3818,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3820,7 +3826,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3842,14 +3848,14 @@
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3858,7 +3864,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3867,7 +3873,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3876,7 +3882,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3885,7 +3891,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3907,14 +3913,14 @@
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3923,7 +3929,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3932,7 +3938,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3941,7 +3947,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3949,7 +3955,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3957,7 +3963,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3965,7 +3971,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3973,7 +3979,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3981,7 +3987,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -4003,13 +4009,13 @@
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -4041,7 +4047,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -4049,7 +4055,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -4057,7 +4063,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -4065,7 +4071,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -4081,7 +4087,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -4089,7 +4095,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -4106,7 +4112,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -4115,7 +4121,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -4133,7 +4139,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -4142,7 +4148,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4165,14 +4171,14 @@
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4181,7 +4187,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4190,7 +4196,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4206,7 +4212,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4214,7 +4220,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4222,7 +4228,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4230,7 +4236,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4246,7 +4252,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4254,7 +4260,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4262,7 +4268,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4270,7 +4276,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4278,7 +4284,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4286,7 +4292,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4294,7 +4300,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4307,7 +4313,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4337,7 +4343,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4353,7 +4359,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4369,7 +4375,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4377,7 +4383,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4393,7 +4399,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4409,7 +4415,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4421,7 +4427,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4448,7 +4454,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4456,7 +4462,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4464,7 +4470,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4491,7 +4497,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4499,7 +4505,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4507,7 +4513,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4515,7 +4521,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4523,7 +4529,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4547,7 +4553,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4555,7 +4561,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4563,7 +4569,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4579,7 +4585,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4587,7 +4593,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4615,7 +4621,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4623,7 +4629,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4631,7 +4637,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4661,7 +4667,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4669,7 +4675,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4677,7 +4683,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4685,7 +4691,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4693,7 +4699,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4701,7 +4707,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4709,7 +4715,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4717,7 +4723,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4768,7 +4774,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4792,7 +4798,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4800,7 +4806,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4808,7 +4814,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4816,7 +4822,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4824,7 +4830,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4877,7 +4883,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -4950,7 +4956,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
@@ -5029,7 +5035,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -5045,7 +5051,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
@@ -5053,7 +5059,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
@@ -5061,7 +5067,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
@@ -5091,7 +5097,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
@@ -5199,7 +5205,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5231,7 +5237,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5239,7 +5245,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5247,18 +5253,18 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
@@ -5269,7 +5275,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5277,13 +5283,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5315,18 +5321,18 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5334,7 +5340,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5342,7 +5348,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5350,7 +5356,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5358,7 +5364,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5366,7 +5372,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5374,7 +5380,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
@@ -5385,7 +5391,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
@@ -5396,7 +5402,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
@@ -5407,13 +5413,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5439,7 +5445,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5447,7 +5453,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5455,7 +5461,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5463,7 +5469,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5471,7 +5477,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
@@ -5482,7 +5488,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B300" s="5">
         <v>87</v>
@@ -5490,46 +5496,46 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5549,13 +5555,13 @@
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A307" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5563,7 +5569,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5571,7 +5577,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5579,7 +5585,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5587,7 +5593,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5595,7 +5601,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5603,7 +5609,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5611,7 +5617,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5619,7 +5625,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5627,13 +5633,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5659,7 +5665,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5667,7 +5673,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5675,7 +5681,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5683,7 +5689,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
@@ -5691,7 +5697,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B326" s="5">
         <v>40</v>
@@ -5699,7 +5705,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B327" s="5">
         <v>133</v>
@@ -5722,13 +5728,13 @@
     </row>
     <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B330" s="27"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B331" s="5">
         <v>238</v>
@@ -5736,7 +5742,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
@@ -5747,7 +5753,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B333" s="5">
         <v>95</v>
@@ -5755,68 +5761,68 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B334" s="11">
         <v>10</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B335" s="11">
         <v>10</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B336" s="11">
         <v>10</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -5908,6 +5914,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
@@ -5922,30 +5951,7 @@
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="3760" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="279">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -96,22 +96,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DXF   一拳超人   琦玉             预定</t>
-    <rPh sb="6" eb="7">
-      <t>yi'quan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao'ren</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>qi'yu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>EXQ     叛逆的鲁路修 CC           预定</t>
     <rPh sb="8" eb="9">
       <t>pan'ni</t>
@@ -2286,66 +2270,147 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>万代龙珠超  11扭蛋            预定</t>
+    <t>祖国一番赏四档猿王枪路飞</t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'fan'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si'dang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan'wang'qiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lu'fei</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  超四孙悟空zeno        预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao'si</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sun'wu'kong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 竞争对手3  悟吉塔      预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'zhen'dui'shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 竞争对手3  布罗利      预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'zhen'dui'shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'luo'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 爆裂激战  蓝超贝吉塔   预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'lie'ji'zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bei'ji'ta</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂   GROS   悟天克斯      预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'tian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂   GROS   小樱          预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao'yin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">馒头社的屁股             </t>
+    <rPh sb="0" eb="1">
+      <t>man'tou'she</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pi'gu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DXF   一拳超人   琦玉             </t>
+    <rPh sb="6" eb="7">
+      <t>yi'quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao'ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qi'yu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>万代龙珠超  11父子波扭蛋      预定</t>
     <rPh sb="0" eb="1">
       <t>wan'dai</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>long'zhu'chao</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="12" eb="13">
       <t>niu'dan</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国一番赏四档猿王枪路飞</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'fan'shang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>si'dang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yuan'wang'qiang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>lu'fei</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼镜厂  超四孙悟空zeno        预定</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jin'chang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chao'si</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>sun'wu'kong</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼镜厂 竞争对手3  悟吉塔      预定</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jin'chang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jin'zhen'dui'shou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wu'ji'ta</t>
     </rPh>
     <rPh sb="20" eb="21">
       <t>yu'din</t>
@@ -2353,70 +2418,12 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>眼镜厂 竞争对手3  布罗利      预定</t>
+    <t>眼镜厂   BOS  红发悟空        预定</t>
     <rPh sb="0" eb="1">
       <t>yan'jin'chang</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>jin'zhen'dui'shou</t>
-    </rPh>
     <rPh sb="11" eb="12">
-      <t>bu'luo'li</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼镜厂 爆裂激战  蓝超贝吉塔   预定</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jin'chang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'lie'ji'zhan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼镜厂   GROS   悟天克斯      预定</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jin'chang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wu'tian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼镜厂   GROS   小樱          预定</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jin'chang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xiao'yin</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">馒头社的屁股             </t>
-    <rPh sb="0" eb="1">
-      <t>man'tou'she</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pi'gu</t>
+      <t>hong'fa'wu'kong</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2575,7 +2582,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2632,10 +2639,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2924,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2941,14 +2951,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -2956,7 +2966,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -2972,14 +2982,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -2987,7 +2997,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -2995,7 +3005,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -3003,7 +3013,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -3011,7 +3021,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -3031,14 +3041,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -3046,7 +3056,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -3067,17 +3077,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -3088,14 +3098,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -3103,7 +3113,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -3111,7 +3121,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -3131,17 +3141,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3152,14 +3162,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="27"/>
+      <c r="A25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -3167,7 +3177,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -3175,7 +3185,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3183,7 +3193,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3191,7 +3201,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3199,7 +3209,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3207,7 +3217,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3227,14 +3237,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3242,7 +3252,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3250,7 +3260,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3258,7 +3268,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3266,7 +3276,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3274,7 +3284,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3282,7 +3292,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3290,7 +3300,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3298,7 +3308,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3319,14 +3329,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="27"/>
+      <c r="A45" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3334,7 +3344,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3355,14 +3365,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="27"/>
+      <c r="A49" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3370,7 +3380,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3378,7 +3388,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3386,7 +3396,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3407,14 +3417,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="27"/>
+      <c r="A55" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3422,7 +3432,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3430,7 +3440,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3438,7 +3448,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3446,7 +3456,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3467,14 +3477,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="27"/>
+      <c r="A62" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3482,7 +3492,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3490,7 +3500,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3511,14 +3521,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="27"/>
+      <c r="A67" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3526,7 +3536,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3547,14 +3557,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="27"/>
+      <c r="A71" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3562,7 +3572,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3570,7 +3580,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3591,14 +3601,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" s="27"/>
+      <c r="A76" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3606,7 +3616,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3614,7 +3624,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3622,7 +3632,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3643,14 +3653,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B82" s="27"/>
+      <c r="A82" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3658,7 +3668,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3666,7 +3676,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3674,7 +3684,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3695,14 +3705,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="27"/>
+      <c r="A88" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3710,7 +3720,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3718,7 +3728,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3739,14 +3749,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="27"/>
+      <c r="A93" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3754,7 +3764,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3762,7 +3772,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3770,7 +3780,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3778,7 +3788,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3786,7 +3796,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3794,7 +3804,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3802,7 +3812,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3810,7 +3820,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3818,7 +3828,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3826,7 +3836,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3847,15 +3857,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" s="27"/>
+      <c r="A106" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3864,7 +3874,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3873,7 +3883,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3882,7 +3892,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3891,7 +3901,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3912,15 +3922,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="27"/>
+      <c r="A113" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="26"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3929,7 +3939,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -3938,7 +3948,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -3947,7 +3957,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -3955,7 +3965,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -3963,7 +3973,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -3971,7 +3981,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -3979,7 +3989,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -3987,7 +3997,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -4008,14 +4018,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B124" s="27"/>
+      <c r="A124" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -4023,7 +4033,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -4031,7 +4041,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -4039,7 +4049,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -4047,7 +4057,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -4055,7 +4065,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -4063,7 +4073,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -4071,7 +4081,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -4079,7 +4089,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -4087,7 +4097,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -4095,7 +4105,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -4103,7 +4113,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -4112,7 +4122,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -4121,7 +4131,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -4130,7 +4140,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -4139,7 +4149,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -4148,7 +4158,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4170,15 +4180,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B143" s="27"/>
+      <c r="A143" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="26"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4187,7 +4197,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4196,7 +4206,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4204,7 +4214,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4212,7 +4222,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4220,7 +4230,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4228,7 +4238,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4236,7 +4246,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4244,7 +4254,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4252,7 +4262,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4260,7 +4270,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4268,7 +4278,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4276,7 +4286,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4284,7 +4294,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4292,7 +4302,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4300,7 +4310,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4313,7 +4323,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4336,14 +4346,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="26">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4351,7 +4361,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4359,7 +4369,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4367,7 +4377,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4375,7 +4385,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4383,7 +4393,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4391,7 +4401,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4399,7 +4409,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4407,7 +4417,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4415,7 +4425,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4427,7 +4437,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4447,14 +4457,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="26">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4462,7 +4472,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4470,7 +4480,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4490,14 +4500,14 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="26">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4505,7 +4515,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4513,7 +4523,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4521,7 +4531,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4529,7 +4539,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4537,7 +4547,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4545,7 +4555,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4553,7 +4563,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4561,7 +4571,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4569,7 +4579,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4577,7 +4587,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4585,7 +4595,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4593,7 +4603,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4614,14 +4624,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="26">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4629,7 +4639,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4637,7 +4647,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4660,14 +4670,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="26">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4675,7 +4685,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4683,7 +4693,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4691,7 +4701,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4699,7 +4709,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4707,7 +4717,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4715,7 +4725,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4723,7 +4733,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4746,10 +4756,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="26">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4767,14 +4777,14 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="26">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4782,7 +4792,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4790,7 +4800,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4798,7 +4808,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4806,7 +4816,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4814,7 +4824,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4822,7 +4832,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4830,7 +4840,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4838,7 +4848,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4860,14 +4870,14 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B227" s="27"/>
+      <c r="A227" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4875,7 +4885,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4883,7 +4893,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -4905,14 +4915,14 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B233" s="27"/>
+      <c r="A233" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -4923,7 +4933,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -4934,7 +4944,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -4945,7 +4955,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -4956,7 +4966,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
@@ -4964,7 +4974,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -4975,7 +4985,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
@@ -4983,7 +4993,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B241" s="11">
         <v>9.66</v>
@@ -4994,7 +5004,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -5005,7 +5015,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B243" s="11">
         <v>9.66</v>
@@ -5016,7 +5026,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
@@ -5024,7 +5034,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
@@ -5035,7 +5045,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -5043,7 +5053,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
@@ -5051,7 +5061,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
@@ -5059,7 +5069,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
@@ -5067,7 +5077,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
@@ -5090,14 +5100,14 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="26">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
@@ -5105,7 +5115,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B255" s="5">
         <v>68</v>
@@ -5113,7 +5123,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B256" s="5">
         <v>80.3</v>
@@ -5121,7 +5131,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B257" s="5">
         <v>129.69999999999999</v>
@@ -5129,7 +5139,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B258" s="11">
         <v>9.61</v>
@@ -5154,14 +5164,14 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="26">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B263" s="11">
         <v>9.61</v>
@@ -5172,7 +5182,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B264" s="11">
         <v>9.61</v>
@@ -5182,14 +5192,11 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>3</v>
+      <c r="A265" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B265" s="5">
+        <v>85.61</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5205,7 +5212,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5237,7 +5244,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5245,7 +5252,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5253,29 +5260,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5283,13 +5290,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5298,7 +5305,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
-        <v>735.75</v>
+        <v>811.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
@@ -5306,33 +5313,33 @@
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
-        <v>735.75</v>
+        <v>811.75</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>22823.29</v>
+        <v>22899.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="26">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B281" s="11">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5340,7 +5347,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5348,7 +5355,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5356,7 +5363,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5364,7 +5371,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5372,7 +5379,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5380,46 +5387,46 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5434,18 +5441,18 @@
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>23859.31</v>
+        <v>23935.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="26">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5453,7 +5460,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5461,7 +5468,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5469,7 +5476,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5477,18 +5484,18 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B300" s="5">
         <v>87</v>
@@ -5496,46 +5503,46 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5550,18 +5557,18 @@
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>25819.660000000003</v>
+        <v>25895.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B307" s="27"/>
+      <c r="A307" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5569,7 +5576,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5577,7 +5584,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5585,7 +5592,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5593,7 +5600,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5601,7 +5608,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5609,7 +5616,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5617,7 +5624,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5625,7 +5632,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5633,13 +5640,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,18 +5661,18 @@
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>26792.780000000002</v>
+        <v>26868.780000000002</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="26">
+      <c r="A321" s="27">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="27"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5673,7 +5680,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5681,7 +5688,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5689,7 +5696,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
@@ -5697,7 +5704,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B326" s="5">
         <v>40</v>
@@ -5705,7 +5712,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B327" s="5">
         <v>133</v>
@@ -5723,18 +5730,18 @@
       </c>
       <c r="C329" s="10">
         <f>SUM(C320:C328)</f>
-        <v>27422.720000000001</v>
+        <v>27498.720000000001</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A330" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B330" s="27"/>
+      <c r="A330" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B330" s="26"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B331" s="5">
         <v>238</v>
@@ -5742,18 +5749,18 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B333" s="5">
         <v>95</v>
@@ -5761,89 +5768,97 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B334" s="11">
         <v>10</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B335" s="11">
         <v>10</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B336" s="11">
         <v>10</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="5"/>
+      <c r="A340" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B340" s="28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C342" s="4">
-        <v>412.6</v>
+        <v>422.4</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B343" s="5">
-        <f>SUM(B331:B339)</f>
-        <v>412.6</v>
+        <f>SUM(B331:B340)</f>
+        <v>422.40000000000003</v>
       </c>
       <c r="C343" s="10">
         <f>SUM(C329:C342)</f>
-        <v>27835.32</v>
+        <v>27921.120000000003</v>
       </c>
     </row>
     <row r="365" spans="10:10" x14ac:dyDescent="0.3">
@@ -5914,12 +5929,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A330:B330"/>
@@ -5932,26 +5957,16 @@
     <mergeCell ref="A175:B175"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A307:B307"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="3760" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -2337,22 +2337,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>眼镜厂 爆裂激战  蓝超贝吉塔   预定</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jin'chang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'lie'ji'zhan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>眼镜厂   GROS   悟天克斯      预定</t>
     <rPh sb="0" eb="1">
       <t>yan'jin'chang</t>
@@ -2424,6 +2408,25 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>hong'fa'wu'kong</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂 爆裂激战  蓝超贝吉特   预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'lie'ji'zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bei'ji'ta</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>te'bie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2639,13 +2642,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2934,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:C180"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -2951,10 +2954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26">
+      <c r="A1" s="27">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2982,10 +2985,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3041,10 +3044,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -3077,10 +3080,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -3098,10 +3101,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -3141,10 +3144,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -3162,10 +3165,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -3237,10 +3240,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3329,10 +3332,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3365,10 +3368,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3417,10 +3420,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3477,10 +3480,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3521,10 +3524,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3557,10 +3560,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3601,10 +3604,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3653,10 +3656,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3705,10 +3708,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3749,10 +3752,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -3857,10 +3860,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3922,10 +3925,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="26"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -4018,10 +4021,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="26"/>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -4180,10 +4183,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="26"/>
+      <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4346,10 +4349,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="28">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="26"/>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4457,10 +4460,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="28">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="26"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4500,10 +4503,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="28">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="26"/>
+      <c r="B180" s="27"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4624,10 +4627,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="28">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="26"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4670,10 +4673,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="28">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="26"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4756,10 +4759,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="28">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="26"/>
+      <c r="B212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4777,14 +4780,14 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="28">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="26"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4870,10 +4873,10 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B227" s="26"/>
+      <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -4915,10 +4918,10 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B233" s="26"/>
+      <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
@@ -5100,10 +5103,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+      <c r="A253" s="28">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="26"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
@@ -5164,10 +5167,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="28">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="26"/>
+      <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
@@ -5193,7 +5196,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B265" s="5">
         <v>85.61</v>
@@ -5321,10 +5324,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="28">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="26"/>
+      <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
@@ -5445,10 +5448,10 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+      <c r="A294" s="28">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="26"/>
+      <c r="B294" s="27"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
@@ -5561,10 +5564,10 @@
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
+      <c r="A307" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="B307" s="26"/>
+      <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
@@ -5665,10 +5668,10 @@
       </c>
     </row>
     <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="27">
+      <c r="A321" s="28">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="26"/>
+      <c r="B321" s="27"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
@@ -5734,10 +5737,10 @@
       </c>
     </row>
     <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A330" s="27" t="s">
+      <c r="A330" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B330" s="26"/>
+      <c r="B330" s="27"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
@@ -5749,7 +5752,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
@@ -5801,7 +5804,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
@@ -5823,7 +5826,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
@@ -5834,9 +5837,9 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B340" s="28">
+        <v>277</v>
+      </c>
+      <c r="B340" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D340" s="3" t="s">
@@ -5929,22 +5932,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A330:B330"/>
@@ -5961,12 +5954,22 @@
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2426,6 +2426,60 @@
       <t>te'bie</t>
     </rPh>
     <rPh sb="18" eb="19">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂   娜美 FDS 皇冠        预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>na'mei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huang'guan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂   闪光魅力  娜美       预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan'guang'mei'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>na'mei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  龙珠超武道会 布罗利 全功率  预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>long'zhu'chao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu'dao'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu'luo'li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>quan'gong'lv</t>
+    </rPh>
+    <rPh sb="21" eb="22">
       <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -2935,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y710"/>
+  <dimension ref="A1:Y712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -5847,86 +5901,116 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="5"/>
+      <c r="A341" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B341" s="26">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C342" s="4">
-        <v>422.4</v>
+      <c r="A342" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B342" s="26">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B343" s="5">
-        <f>SUM(B331:B340)</f>
-        <v>422.40000000000003</v>
-      </c>
-      <c r="C343" s="10">
-        <f>SUM(C329:C342)</f>
-        <v>27921.120000000003</v>
-      </c>
-    </row>
-    <row r="365" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J365" s="9"/>
-    </row>
-    <row r="407" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I407" s="8"/>
-    </row>
-    <row r="695" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="O695" s="8"/>
-    </row>
-    <row r="700" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y700">
+      <c r="A343" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B343" s="26">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C344" s="4">
+        <v>451.8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="5">
+        <f>SUM(B331:B343)</f>
+        <v>451.80000000000007</v>
+      </c>
+      <c r="C345" s="10">
+        <f>SUM(C329:C344)</f>
+        <v>27950.52</v>
+      </c>
+    </row>
+    <row r="367" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J367" s="9"/>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I409" s="8"/>
+    </row>
+    <row r="697" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O697" s="8"/>
+    </row>
+    <row r="702" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Y702">
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y701">
+    <row r="703" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Y703">
         <v>12</v>
       </c>
     </row>
-    <row r="702" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y702">
+    <row r="704" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Y704">
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N703" s="8"/>
-      <c r="Y703">
+    <row r="705" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="N705" s="8"/>
+      <c r="Y705">
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y704">
+    <row r="706" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y706">
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y705">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="706" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y706">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="707" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="707" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y707">
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="708" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y708">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="709" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y709">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y710">
         <v>6</v>
       </c>
     </row>
-    <row r="709" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y709">
+    <row r="711" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y711">
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="25:25" x14ac:dyDescent="0.3">
-      <c r="Y710" s="7">
-        <f>SUM(Y700:Y709)</f>
+    <row r="712" spans="14:25" x14ac:dyDescent="0.3">
+      <c r="Y712" s="7">
+        <f>SUM(Y702:Y711)</f>
         <v>97</v>
       </c>
     </row>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="3500" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="284">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -81,19 +81,6 @@
   </si>
   <si>
     <t>蒲原</t>
-  </si>
-  <si>
-    <t>GROS    龙珠超悟吉塔              预定</t>
-    <rPh sb="8" eb="9">
-      <t>long'zhu'chao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EXQ     叛逆的鲁路修 CC           预定</t>
@@ -112,25 +99,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>KOA   造型王   路飞四档           预定</t>
-    <rPh sb="6" eb="7">
-      <t>zao'xin'wang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lu'fei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>si'dang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>GROS            绿谷              预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -161,15 +129,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BWFC 孙悟空 军装                  预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 卡塔库栗 卡二                预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 人造人 17号                  预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1576,26 +1536,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>黑曼巴   横炮                     预定</t>
-    <rPh sb="0" eb="1">
-      <t>hei'man'ba</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hen'pao</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊家</t>
-    <rPh sb="0" eb="1">
-      <t>yi</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>祖国版   ZERO  超赛布罗利</t>
     <rPh sb="0" eb="1">
       <t>zu'guo'ban</t>
@@ -2482,6 +2422,95 @@
     <rPh sb="21" eb="22">
       <t>yu'din</t>
     </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黑曼巴   横炮                     </t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hen'pao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROS    龙珠超悟吉塔              </t>
+    <rPh sb="8" eb="9">
+      <t>long'zhu'chao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu'ji'ta</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  绿谷出久         预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lv'gu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  荼毘             预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu'du</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 人造人 17号                </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KOA   造型王   路飞四档           </t>
+    <rPh sb="6" eb="7">
+      <t>zao'xin'wang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu'fei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>si'dang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 孙悟空 军装                 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2991,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="C340" sqref="C340"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3015,7 +3044,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -3023,7 +3052,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -3046,7 +3075,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -3054,7 +3083,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -3062,7 +3091,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -3070,7 +3099,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -3078,7 +3107,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -3099,13 +3128,13 @@
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -3113,7 +3142,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -3135,7 +3164,7 @@
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="4">
@@ -3144,7 +3173,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -3156,13 +3185,13 @@
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -3170,7 +3199,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -3178,7 +3207,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -3199,7 +3228,7 @@
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="4">
@@ -3208,7 +3237,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3220,13 +3249,13 @@
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -3234,7 +3263,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -3242,7 +3271,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3250,7 +3279,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3258,7 +3287,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3266,7 +3295,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3274,7 +3303,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3295,13 +3324,13 @@
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3309,7 +3338,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3317,7 +3346,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3325,7 +3354,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3333,7 +3362,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3341,7 +3370,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3349,7 +3378,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3357,7 +3386,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3365,7 +3394,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3387,13 +3416,13 @@
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3401,7 +3430,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3423,13 +3452,13 @@
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3437,7 +3466,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3445,7 +3474,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3453,7 +3482,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3475,13 +3504,13 @@
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3489,7 +3518,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3497,7 +3526,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3505,7 +3534,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3513,7 +3542,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3535,13 +3564,13 @@
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B62" s="27"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3549,7 +3578,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3557,7 +3586,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3579,13 +3608,13 @@
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3593,7 +3622,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3615,13 +3644,13 @@
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3629,7 +3658,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3637,7 +3666,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3659,13 +3688,13 @@
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3673,7 +3702,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3681,7 +3710,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3689,7 +3718,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3711,13 +3740,13 @@
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3725,7 +3754,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3733,7 +3762,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3741,7 +3770,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3763,13 +3792,13 @@
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3777,7 +3806,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3785,7 +3814,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3807,13 +3836,13 @@
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3821,7 +3850,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3829,7 +3858,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3837,7 +3866,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3845,7 +3874,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3853,7 +3882,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -3861,7 +3890,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -3869,7 +3898,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -3877,7 +3906,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -3885,7 +3914,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -3893,7 +3922,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3915,14 +3944,14 @@
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -3931,7 +3960,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -3940,7 +3969,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -3949,7 +3978,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -3958,7 +3987,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3980,14 +4009,14 @@
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -3996,7 +4025,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -4005,7 +4034,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -4014,7 +4043,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -4022,7 +4051,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -4030,7 +4059,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -4038,7 +4067,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -4046,7 +4075,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -4054,7 +4083,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -4076,13 +4105,13 @@
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -4090,7 +4119,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -4098,7 +4127,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -4106,7 +4135,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -4114,7 +4143,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -4122,7 +4151,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -4130,7 +4159,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -4138,7 +4167,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -4146,7 +4175,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -4154,7 +4183,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -4162,7 +4191,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -4170,7 +4199,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -4179,7 +4208,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -4188,7 +4217,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -4197,7 +4226,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -4206,7 +4235,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -4215,7 +4244,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4238,14 +4267,14 @@
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B143" s="27"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4254,7 +4283,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4263,7 +4292,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4271,7 +4300,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4279,7 +4308,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4287,7 +4316,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4295,7 +4324,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4303,7 +4332,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4311,7 +4340,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4319,7 +4348,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4327,7 +4356,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4335,7 +4364,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4343,7 +4372,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4351,7 +4380,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4359,7 +4388,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4367,7 +4396,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4380,7 +4409,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4410,7 +4439,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4418,7 +4447,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4426,7 +4455,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4434,7 +4463,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4442,7 +4471,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4450,7 +4479,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4458,7 +4487,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4466,7 +4495,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4474,7 +4503,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4482,7 +4511,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4494,7 +4523,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4521,7 +4550,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4529,7 +4558,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4537,7 +4566,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4564,7 +4593,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4572,7 +4601,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4580,7 +4609,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4588,7 +4617,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4596,7 +4625,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4604,7 +4633,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4612,7 +4641,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4620,7 +4649,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4628,7 +4657,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4636,7 +4665,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4644,7 +4673,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4652,7 +4681,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4660,7 +4689,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4688,7 +4717,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4696,7 +4725,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4704,7 +4733,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4734,7 +4763,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4742,7 +4771,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4750,7 +4779,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4758,7 +4787,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4766,7 +4795,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4774,7 +4803,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4782,7 +4811,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4790,7 +4819,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4841,7 +4870,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4849,7 +4878,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -4857,7 +4886,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -4865,7 +4894,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -4873,7 +4902,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -4881,7 +4910,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -4889,7 +4918,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -4897,7 +4926,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -4905,7 +4934,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -4928,13 +4957,13 @@
     </row>
     <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B227" s="27"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -4942,7 +4971,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -4950,7 +4979,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -4973,13 +5002,13 @@
     </row>
     <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B233" s="27"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -4990,7 +5019,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -5001,7 +5030,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -5012,7 +5041,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -5023,7 +5052,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
@@ -5031,7 +5060,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -5042,26 +5071,23 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>3</v>
+      <c r="A241" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B241" s="5">
+        <v>81.66</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -5071,19 +5097,16 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B243" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>3</v>
+      <c r="A243" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B243" s="5">
+        <v>80.66</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
@@ -5091,7 +5114,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
@@ -5102,7 +5125,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
@@ -5110,7 +5133,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
@@ -5118,7 +5141,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
@@ -5126,7 +5149,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
@@ -5134,7 +5157,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
@@ -5143,17 +5166,17 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>763.1</v>
+        <v>906.1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>763.1</v>
+        <v>906.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>21716.32</v>
+        <v>21859.32</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5164,7 +5187,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
@@ -5172,7 +5195,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B255" s="5">
         <v>68</v>
@@ -5180,7 +5203,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B256" s="5">
         <v>80.3</v>
@@ -5188,7 +5211,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B257" s="5">
         <v>129.69999999999999</v>
@@ -5196,7 +5219,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B258" s="11">
         <v>9.61</v>
@@ -5217,7 +5240,7 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>22087.54</v>
+        <v>22230.54</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5227,19 +5250,16 @@
       <c r="B262" s="27"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B263" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>3</v>
+      <c r="A263" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B263" s="5">
+        <v>79.61</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B264" s="11">
         <v>9.61</v>
@@ -5250,26 +5270,23 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B265" s="5">
         <v>85.61</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>3</v>
+      <c r="A266" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B266" s="5">
+        <v>85.61</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5301,7 +5318,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5309,7 +5326,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5317,29 +5334,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B274" s="11">
         <v>9.61</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5347,13 +5364,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5362,7 +5379,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
-        <v>811.75</v>
+        <v>957.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
@@ -5370,11 +5387,11 @@
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
-        <v>811.75</v>
+        <v>957.75000000000011</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>22899.29</v>
+        <v>23188.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
@@ -5384,19 +5401,16 @@
       <c r="B280" s="27"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A281" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B281" s="11">
-        <v>20</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>205</v>
+      <c r="A281" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B281" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5404,7 +5418,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5412,7 +5426,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5420,7 +5434,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5428,7 +5442,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5436,7 +5450,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5444,61 +5458,61 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
-        <v>1036.02</v>
+        <v>1161.02</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
-        <v>1036.02</v>
+        <v>1161.0199999999998</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>23935.31</v>
+        <v>24349.31</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5509,7 +5523,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5517,7 +5531,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5525,7 +5539,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5533,7 +5547,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5541,18 +5555,18 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B300" s="5">
         <v>87</v>
@@ -5560,46 +5574,46 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5614,18 +5628,18 @@
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>25895.660000000003</v>
+        <v>26434.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A307" s="28" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B307" s="27"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5633,7 +5647,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5641,7 +5655,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5649,7 +5663,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5657,7 +5671,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5665,7 +5679,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5673,7 +5687,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5681,7 +5695,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5689,7 +5703,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5697,13 +5711,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5718,7 +5732,7 @@
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>26868.780000000002</v>
+        <v>27407.780000000002</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
@@ -5729,7 +5743,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5737,7 +5751,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5745,7 +5759,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5753,7 +5767,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
@@ -5761,7 +5775,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B326" s="5">
         <v>40</v>
@@ -5769,7 +5783,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B327" s="5">
         <v>133</v>
@@ -5787,18 +5801,18 @@
       </c>
       <c r="C329" s="10">
         <f>SUM(C320:C328)</f>
-        <v>27498.720000000001</v>
+        <v>28037.72</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="28" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B330" s="27"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B331" s="5">
         <v>238</v>
@@ -5806,18 +5820,18 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B333" s="5">
         <v>95</v>
@@ -5825,112 +5839,112 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B334" s="11">
         <v>10</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B335" s="11">
         <v>10</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B336" s="11">
         <v>10</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B340" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B341" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B342" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B343" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -5945,10 +5959,53 @@
       </c>
       <c r="C345" s="10">
         <f>SUM(C329:C344)</f>
-        <v>27950.52</v>
-      </c>
-    </row>
-    <row r="367" spans="10:10" x14ac:dyDescent="0.3">
+        <v>28489.52</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A346" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B346" s="27"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B347" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B348" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C358" s="4">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B359" s="5">
+        <f>SUM(B347:B358)</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C359" s="10">
+        <f>SUM(C345:C358)</f>
+        <v>28509.119999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J367" s="9"/>
     </row>
     <row r="409" spans="9:9" x14ac:dyDescent="0.3">
@@ -6015,13 +6072,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
+  <mergeCells count="39">
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A330:B330"/>
@@ -6038,28 +6106,18 @@
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18 A307 A330" numberStoredAsText="1"/>
+    <ignoredError sqref="A233 A227 A143 A124 A113 A106 A93 A88 A82 A76 A71 A67 A62 A55 A49 A45 A34 A25 A23 A12 A16 A18 A307 A330 A346" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{760DB538-FCE5-544A-8983-AF6D6A0FFD4B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="15120" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="290">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -81,22 +82,6 @@
   </si>
   <si>
     <t>蒲原</t>
-  </si>
-  <si>
-    <t>EXQ     叛逆的鲁路修 CC           预定</t>
-    <rPh sb="8" eb="9">
-      <t>pan'ni</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lu'lu'xiu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GROS            绿谷              预定</t>
@@ -1808,25 +1793,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BOS  龙珠    黑发极意空           预定</t>
-    <rPh sb="5" eb="6">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hei'fa</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji'yi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙珠    超战士列传   贝吉特       预定</t>
     <rPh sb="0" eb="1">
       <t>long'zhu</t>
@@ -2511,17 +2477,133 @@
   </si>
   <si>
     <t xml:space="preserve">BWFC 孙悟空 军装                 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EXQ     叛逆的鲁路修 CC           </t>
+    <rPh sb="8" eb="9">
+      <t>pan'ni</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lu'lu'xiu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BOS  龙珠    黑发极意空           </t>
+    <rPh sb="5" eb="6">
+      <t>long'zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hei'fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇4      灭霸</t>
+    <rPh sb="0" eb="2">
+      <t>fu'cho</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  爆豪             预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  渡我             预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="295" eb="296">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  死柄木吊         预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="354" eb="355">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  饭田天哉         预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="354" eb="355">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜厂  我的英雄学院  轰焦冻           预定</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jin'chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wo'de'yin'xiong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'yuan</t>
+    </rPh>
+    <rPh sb="485" eb="486">
+      <t>yu'din</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2728,10 +2810,10 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3017,14 +3099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="C352" sqref="C352"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="A358" sqref="A358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -3036,29 +3118,29 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+    <row r="1" spans="1:3" ht="28">
+      <c r="A1" s="28">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -3067,47 +3149,47 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5" s="28">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -3116,7 +3198,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -3126,23 +3208,23 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="27"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28">
+      <c r="A12" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -3151,7 +3233,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -3162,18 +3244,18 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:3" ht="28">
+      <c r="A16" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="28"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -3183,31 +3265,31 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="28">
+      <c r="A18" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="28"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -3216,7 +3298,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -3226,18 +3308,18 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:3" ht="28">
+      <c r="A23" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="28"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3247,63 +3329,63 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="28">
+      <c r="A25" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3312,7 +3394,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -3322,79 +3404,79 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="28">
+      <c r="A34" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="28"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3403,7 +3485,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -3414,23 +3496,23 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="28">
+      <c r="A45" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="28"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3439,7 +3521,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -3450,39 +3532,39 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="27"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="28">
+      <c r="A49" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="28"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3491,7 +3573,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3502,47 +3584,47 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="27"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="28">
+      <c r="A55" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="28"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3551,7 +3633,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3562,31 +3644,31 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="27"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="28">
+      <c r="A62" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="28"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3595,7 +3677,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3606,23 +3688,23 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="27"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="28">
+      <c r="A67" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="28"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3631,7 +3713,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3642,31 +3724,31 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="27"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="28">
+      <c r="A71" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="28"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3675,7 +3757,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3686,39 +3768,39 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="27"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="28">
+      <c r="A76" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="28"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3727,7 +3809,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3738,39 +3820,39 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="28">
+      <c r="A82" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="28"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3779,7 +3861,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3790,31 +3872,31 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="27"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="28">
+      <c r="A88" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="28"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3823,7 +3905,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3834,95 +3916,95 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="27"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="28">
+      <c r="A93" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="28"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -3931,7 +4013,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -3942,52 +4024,52 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="27"/>
+    <row r="106" spans="1:3" ht="28">
+      <c r="A106" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="28"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -3996,7 +4078,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -4007,83 +4089,83 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" s="27"/>
+    <row r="113" spans="1:3" ht="28">
+      <c r="A113" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="28"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -4093,7 +4175,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -4103,148 +4185,148 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="28">
+      <c r="A124" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="28"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4254,7 +4336,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -4265,138 +4347,138 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B143" s="27"/>
+    <row r="143" spans="1:3" ht="28">
+      <c r="A143" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" s="28"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4407,9 +4489,9 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4420,7 +4502,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -4431,87 +4513,87 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="28">
+    <row r="162" spans="1:15" ht="28">
+      <c r="A162" s="27">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="27"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B162" s="28"/>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4521,9 +4603,9 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4532,7 +4614,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4542,31 +4624,31 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="28">
+    <row r="175" spans="1:15" ht="28">
+      <c r="A175" s="27">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="27"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B175" s="28"/>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4575,7 +4657,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4585,111 +4667,111 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="28">
+    <row r="180" spans="1:3" ht="28">
+      <c r="A180" s="27">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="27"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="28"/>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="48">
       <c r="A186" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4698,7 +4780,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4709,43 +4791,43 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="28">
+    <row r="195" spans="1:3" ht="28">
+      <c r="A195" s="27">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="27"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="28"/>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4755,83 +4837,83 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="28">
+    <row r="201" spans="1:3" ht="28">
+      <c r="A201" s="27">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="27"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="28"/>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4841,18 +4923,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="28">
+    <row r="212" spans="1:3" ht="28">
+      <c r="A212" s="27">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="27"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="28"/>
+    </row>
+    <row r="213" spans="1:3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4862,90 +4944,90 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="28">
+    <row r="215" spans="1:3" ht="28">
+      <c r="A215" s="27">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="27"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="28"/>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -4955,42 +5037,42 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227" s="27"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="28">
+      <c r="A227" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="28"/>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="C231" s="4">
         <v>746</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>746</v>
@@ -5000,15 +5082,15 @@
         <v>20953.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B233" s="27"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="28">
+      <c r="A233" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" s="28"/>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -5017,9 +5099,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -5028,9 +5110,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -5039,9 +5121,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -5050,17 +5132,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -5069,25 +5151,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B241" s="5">
         <v>81.66</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -5096,25 +5178,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B243" s="5">
         <v>80.66</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B245" s="11">
         <v>9.6</v>
@@ -5123,53 +5205,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B247" s="5">
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>906.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>906.1</v>
@@ -5179,47 +5261,47 @@
         <v>21859.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="28">
+    <row r="253" spans="1:4" ht="28">
+      <c r="A253" s="27">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="27"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="28"/>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B255" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B256" s="5">
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B257" s="5">
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258" s="11">
         <v>9.61</v>
@@ -5228,12 +5310,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="C260" s="4">
         <v>371.22</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="B261" s="13">
         <f>SUM(B254:B260)</f>
         <v>371.22</v>
@@ -5243,56 +5325,53 @@
         <v>22230.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="28">
+    <row r="262" spans="1:4" ht="28">
+      <c r="A262" s="27">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="27"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="28"/>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B263" s="5">
         <v>79.61</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B264" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
+      <c r="A264" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B264" s="5">
+        <v>82.61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B265" s="5">
         <v>85.61</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B266" s="5">
         <v>85.61</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5300,7 +5379,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5308,7 +5387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5316,196 +5395,193 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A274" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B274" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B274" s="5">
+        <v>82.61</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="C278" s="4">
         <v>957.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
-        <v>957.75000000000011</v>
+        <v>1103.75</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
         <v>23188.29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="28">
+    <row r="280" spans="1:10" ht="28">
+      <c r="A280" s="27">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="27"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B280" s="28"/>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B281" s="5">
         <v>145</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="C292" s="4">
         <v>1161.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
         <v>1161.0199999999998</v>
@@ -5515,113 +5591,113 @@
         <v>24349.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="28">
+    <row r="294" spans="1:4" ht="28">
+      <c r="A294" s="27">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="27"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="28"/>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B300" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="C305" s="4">
         <v>924.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
         <v>924.32999999999993</v>
@@ -5631,101 +5707,101 @@
         <v>26434.660000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="28" t="s">
+    <row r="307" spans="1:4" ht="28">
+      <c r="A307" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B307" s="28"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B307" s="27"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="B320" s="13">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
@@ -5735,66 +5811,66 @@
         <v>27407.780000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="28">
+    <row r="321" spans="1:4" ht="28">
+      <c r="A321" s="27">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="27"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="28"/>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B326" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B327" s="5">
         <v>133</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="C328" s="4">
         <v>629.94000000000005</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="B329" s="13">
         <f>SUM(B322:B327)</f>
         <v>629.94000000000005</v>
@@ -5804,155 +5880,155 @@
         <v>28037.72</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A330" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B330" s="27"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" ht="28">
+      <c r="A330" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B330" s="28"/>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B331" s="5">
         <v>238</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B333" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B334" s="11">
         <v>10</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B335" s="11">
         <v>10</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B336" s="11">
         <v>10</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B340" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B341" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B342" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B343" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="C344" s="4">
         <v>451.8</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="B345" s="5">
         <f>SUM(B331:B343)</f>
         <v>451.80000000000007</v>
@@ -5962,110 +6038,173 @@
         <v>28489.52</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A346" s="28" t="s">
+    <row r="346" spans="1:4" ht="28">
+      <c r="A346" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B346" s="28"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="B346" s="27"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="12" t="s">
-        <v>280</v>
       </c>
       <c r="B347" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B348" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B349" s="5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B350" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B351" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B352" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10">
+      <c r="A353" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B353" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10">
+      <c r="A354" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B354" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10">
       <c r="C358" s="4">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.3">
+        <v>283.60000000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
       <c r="B359" s="5">
         <f>SUM(B347:B358)</f>
-        <v>19.600000000000001</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="C359" s="10">
         <f>SUM(C345:C358)</f>
-        <v>28509.119999999999</v>
-      </c>
-    </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.3">
+        <v>28773.119999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
       <c r="J367" s="9"/>
     </row>
-    <row r="409" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="9:9">
       <c r="I409" s="8"/>
     </row>
-    <row r="697" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="697" spans="15:25">
       <c r="O697" s="8"/>
     </row>
-    <row r="702" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="702" spans="15:25">
       <c r="Y702">
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="703" spans="15:25">
       <c r="Y703">
         <v>12</v>
       </c>
     </row>
-    <row r="704" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="704" spans="15:25">
       <c r="Y704">
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="705" spans="14:25">
       <c r="N705" s="8"/>
       <c r="Y705">
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="706" spans="14:25">
       <c r="Y706">
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="707" spans="14:25">
       <c r="Y707">
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="708" spans="14:25">
       <c r="Y708">
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="709" spans="14:25">
       <c r="Y709">
         <v>9</v>
       </c>
     </row>
-    <row r="710" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="710" spans="14:25">
       <c r="Y710">
         <v>6</v>
       </c>
     </row>
-    <row r="711" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="711" spans="14:25">
       <c r="Y711">
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="712" spans="14:25">
       <c r="Y712" s="7">
         <f>SUM(Y702:Y711)</f>
         <v>97</v>
@@ -6073,23 +6212,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A330:B330"/>
@@ -6106,12 +6234,23 @@
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A280:B280"/>
     <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{760DB538-FCE5-544A-8983-AF6D6A0FFD4B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="290">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -110,10 +109,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BWFC 海侠 甚平                    预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 卡塔库栗 卡二                预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2524,10 +2519,7 @@
       <t>wo'de'yin'xiong</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>xue'yuan</t>
-    </rPh>
-    <rPh sb="238" eb="239">
-      <t>yu'din</t>
+      <t>xue'yuanyu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2540,10 +2532,7 @@
       <t>wo'de'yin'xiong</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>xue'yuan</t>
-    </rPh>
-    <rPh sb="295" eb="296">
-      <t>yu'din</t>
+      <t>xue'yuanyu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2556,10 +2545,7 @@
       <t>wo'de'yin'xiong</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>xue'yuan</t>
-    </rPh>
-    <rPh sb="354" eb="355">
-      <t>yu'din</t>
+      <t>xue'yuanyu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2572,10 +2558,7 @@
       <t>wo'de'yin'xiong</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>xue'yuan</t>
-    </rPh>
-    <rPh sb="354" eb="355">
-      <t>yu'din</t>
+      <t>xue'yuanyu'din</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2588,22 +2571,23 @@
       <t>wo'de'yin'xiong</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>xue'yuan</t>
-    </rPh>
-    <rPh sb="485" eb="486">
-      <t>yu'din</t>
-    </rPh>
+      <t>xue'yuanyu'din</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 海侠 甚平                    </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3099,14 +3083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
@@ -3118,29 +3102,29 @@
     <col min="15" max="15" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
         <v>2014.4</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -3149,47 +3133,47 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2014.5</v>
       </c>
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -3198,7 +3182,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -3208,23 +3192,23 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28">
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="28"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -3233,7 +3217,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="13">
         <f>SUM(B13:B14)</f>
@@ -3244,18 +3228,18 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -3265,31 +3249,31 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28">
+    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -3298,7 +3282,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -3308,18 +3292,18 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28">
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3329,63 +3313,63 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28">
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="28"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3394,7 +3378,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -3404,79 +3388,79 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28">
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="28"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3485,7 +3469,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="13">
         <f>SUM(B35:B43)</f>
@@ -3496,23 +3480,23 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="28"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3521,7 +3505,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="13">
         <f>SUM(B46:B47)</f>
@@ -3532,39 +3516,39 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28">
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49" s="28"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3573,7 +3557,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="13">
         <f>SUM(B50:B53)</f>
@@ -3584,47 +3568,47 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28">
+    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="28"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3633,7 +3617,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="13">
         <f>SUM(B56:B60)</f>
@@ -3644,31 +3628,31 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28">
+    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="28"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3677,7 +3661,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <f>SUM(B63:B65)</f>
@@ -3688,23 +3672,23 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28">
+    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="28"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3713,7 +3697,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <f>SUM(B68:B69)</f>
@@ -3724,31 +3708,31 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28">
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" s="28"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3757,7 +3741,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <f>SUM(B72:B74)</f>
@@ -3768,39 +3752,39 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28">
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="28"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3809,7 +3793,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <f>SUM(B77:B80)</f>
@@ -3820,39 +3804,39 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28">
+    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="28"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3861,7 +3845,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="13">
         <f>SUM(B83:B86)</f>
@@ -3872,31 +3856,31 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28">
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="28"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3905,7 +3889,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
@@ -3916,95 +3900,95 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28">
+    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="28"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -4013,7 +3997,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="13">
         <f>SUM(B94:B104)</f>
@@ -4024,52 +4008,52 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="28"/>
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
       </c>
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
       </c>
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
       </c>
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
       </c>
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -4078,7 +4062,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="13">
         <f>SUM(B107:B111)</f>
@@ -4089,83 +4073,83 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28">
+    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="28"/>
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
       </c>
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
       </c>
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
       </c>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1">
+    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -4175,7 +4159,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="13">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -4185,148 +4169,148 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B124" s="28"/>
     </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1">
+    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4336,7 +4320,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142" s="13">
         <f>SUM(B125:B141)</f>
@@ -4347,138 +4331,138 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28">
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B143" s="28"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4489,9 +4473,9 @@
       <c r="M159" s="1"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4502,7 +4486,7 @@
       <c r="D160" s="17"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="13">
         <f>SUM(B144:B160)</f>
@@ -4513,87 +4497,87 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28">
+    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A162" s="27">
         <v>2018.01</v>
       </c>
       <c r="B162" s="28"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4603,9 +4587,9 @@
       <c r="M172" s="1"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4614,7 +4598,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B174" s="13">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -4624,31 +4608,31 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28">
+    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A175" s="27">
         <v>2018.02</v>
       </c>
       <c r="B175" s="28"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4657,7 +4641,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B179" s="5">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -4667,111 +4651,111 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="27">
         <v>2018.03</v>
       </c>
       <c r="B180" s="28"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="48">
+    <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4780,7 +4764,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="13">
         <f>SUM(B181:B193)</f>
@@ -4791,43 +4775,43 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28">
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A195" s="27">
         <v>2018.04</v>
       </c>
       <c r="B195" s="28"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C199" s="4">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200" s="13">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -4837,83 +4821,83 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="28">
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A201" s="27">
         <v>2018.05</v>
       </c>
       <c r="B201" s="28"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C210" s="4">
         <f>SUM(B211,0)</f>
         <v>691.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B211" s="13">
         <f>SUM(B202:B210)</f>
         <v>691.1</v>
@@ -4923,18 +4907,18 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28">
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="27">
         <v>2018.06</v>
       </c>
       <c r="B212" s="28"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B214" s="13">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -4944,90 +4928,90 @@
         <v>17999.239999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="28">
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A215" s="27">
         <v>2018.08</v>
       </c>
       <c r="B215" s="28"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -5037,42 +5021,42 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28">
+    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B227" s="28"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C231" s="4">
         <v>746</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>746</v>
@@ -5082,15 +5066,15 @@
         <v>20953.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28">
+    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B233" s="28"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -5099,9 +5083,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -5110,9 +5094,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B236" s="11">
         <v>9.66</v>
@@ -5121,9 +5105,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -5132,17 +5116,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B239" s="11">
         <v>9.66</v>
@@ -5151,25 +5135,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B241" s="5">
         <v>81.66</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B242" s="11">
         <v>9.66</v>
@@ -5178,42 +5162,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B243" s="5">
         <v>80.66</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B245" s="11">
-        <v>9.6</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B245" s="5">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>8</v>
       </c>
@@ -5221,61 +5202,61 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>906.1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>980.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>906.1</v>
+        <v>980.1</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>21859.32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="28">
+        <v>21933.32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A253" s="27">
         <v>2018.11</v>
       </c>
       <c r="B253" s="28"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>7</v>
       </c>
@@ -5283,7 +5264,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>6</v>
       </c>
@@ -5291,7 +5272,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>5</v>
       </c>
@@ -5299,7 +5280,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>4</v>
       </c>
@@ -5310,68 +5291,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C260" s="4">
         <v>371.22</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="13">
         <f>SUM(B254:B260)</f>
         <v>371.22</v>
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>22230.54</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="28">
+        <v>22304.54</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A262" s="27">
         <v>2018.12</v>
       </c>
       <c r="B262" s="28"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B263" s="5">
         <v>79.61</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B264" s="5">
         <v>82.61</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" s="5">
         <v>85.61</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B266" s="5">
         <v>85.61</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5379,7 +5360,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5387,7 +5368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5395,816 +5376,816 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B274" s="5">
         <v>82.61</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I277" s="2"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C278" s="4">
         <v>957.75</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B279" s="13">
         <f>SUM(B263:B278)</f>
         <v>1103.75</v>
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>23188.29</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="28">
+        <v>23262.29</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A280" s="27">
         <v>2019.01</v>
       </c>
       <c r="B280" s="28"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B281" s="5">
         <v>145</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B289" s="11">
         <v>9.61</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
         <v>1161.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
         <v>1161.0199999999998</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>24349.31</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="28">
+        <v>24423.31</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A294" s="27">
         <v>2019.02</v>
       </c>
       <c r="B294" s="28"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B300" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
         <v>924.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
         <v>924.32999999999993</v>
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>26434.660000000003</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="28">
+        <v>26508.660000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A307" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B307" s="28"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="13">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>27407.780000000002</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="28">
+        <v>27481.780000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A321" s="27">
         <v>2019.04</v>
       </c>
       <c r="B321" s="28"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B326" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B327" s="5">
         <v>133</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C328" s="4">
         <v>629.94000000000005</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B329" s="13">
         <f>SUM(B322:B327)</f>
         <v>629.94000000000005</v>
       </c>
       <c r="C329" s="10">
         <f>SUM(C320:C328)</f>
-        <v>28037.72</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="28">
+        <v>28111.72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B330" s="28"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B330" s="28"/>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="B331" s="5">
         <v>238</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B333" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B334" s="11">
         <v>10</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B335" s="11">
         <v>10</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B336" s="11">
         <v>10</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B340" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B341" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B342" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B343" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C344" s="4">
         <v>451.8</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B345" s="5">
         <f>SUM(B331:B343)</f>
         <v>451.80000000000007</v>
       </c>
       <c r="C345" s="10">
         <f>SUM(C329:C344)</f>
-        <v>28489.52</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" ht="28">
+        <v>28563.52</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A346" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B346" s="28"/>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B347" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B348" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B349" s="5">
         <v>215</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B350" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B351" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B352" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B353" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B354" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C358" s="4">
         <v>283.60000000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B359" s="5">
         <f>SUM(B347:B358)</f>
         <v>283.60000000000002</v>
       </c>
       <c r="C359" s="10">
         <f>SUM(C345:C358)</f>
-        <v>28773.119999999999</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10">
+        <v>28847.119999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J367" s="9"/>
     </row>
-    <row r="409" spans="9:9">
+    <row r="409" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I409" s="8"/>
     </row>
-    <row r="697" spans="15:25">
+    <row r="697" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O697" s="8"/>
     </row>
-    <row r="702" spans="15:25">
+    <row r="702" spans="15:25" x14ac:dyDescent="0.3">
       <c r="Y702">
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="15:25">
+    <row r="703" spans="15:25" x14ac:dyDescent="0.3">
       <c r="Y703">
         <v>12</v>
       </c>
     </row>
-    <row r="704" spans="15:25">
+    <row r="704" spans="15:25" x14ac:dyDescent="0.3">
       <c r="Y704">
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="14:25">
+    <row r="705" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N705" s="8"/>
       <c r="Y705">
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="14:25">
+    <row r="706" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y706">
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="14:25">
+    <row r="707" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y707">
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="14:25">
+    <row r="708" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y708">
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="14:25">
+    <row r="709" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y709">
         <v>9</v>
       </c>
     </row>
-    <row r="710" spans="14:25">
+    <row r="710" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y710">
         <v>6</v>
       </c>
     </row>
-    <row r="711" spans="14:25">
+    <row r="711" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y711">
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="14:25">
+    <row r="712" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y712" s="7">
         <f>SUM(Y702:Y711)</f>
         <v>97</v>

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="18000" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="293">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -2577,6 +2577,39 @@
   </si>
   <si>
     <t xml:space="preserve">BWFC 海侠 甚平                    </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余未补款</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'bu'kuan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少补款</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shap</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'kuan</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大班    全装蓝异端</t>
+    <rPh sb="0" eb="1">
+      <t>da'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>quan'zhuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lan'yi'duan</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2587,7 +2620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2697,6 +2730,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2734,7 +2775,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2793,6 +2834,14 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3086,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3096,6 +3145,8 @@
     <col min="2" max="2" width="19.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="32.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="36.33203125" style="1" customWidth="1"/>
@@ -3103,10 +3154,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="28">
+      <c r="A1" s="32">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3134,10 +3185,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="32">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3193,10 +3244,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -3229,10 +3280,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
@@ -3250,10 +3301,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -3293,10 +3344,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
@@ -3314,10 +3365,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="32"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -3389,10 +3440,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -3481,10 +3532,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="32"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -3517,10 +3568,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="32"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -3569,10 +3620,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="32"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -3629,10 +3680,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="32"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -3673,10 +3724,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="32"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
@@ -3709,10 +3760,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="28"/>
+      <c r="B71" s="32"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
@@ -3753,10 +3804,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="28"/>
+      <c r="B76" s="32"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
@@ -3805,10 +3856,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="28"/>
+      <c r="B82" s="32"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
@@ -3857,10 +3908,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="28"/>
+      <c r="B88" s="32"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
@@ -3901,10 +3952,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="28"/>
+      <c r="B93" s="32"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
@@ -4009,10 +4060,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="28"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -4074,10 +4125,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B113" s="28"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -4170,10 +4221,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B124" s="28"/>
+      <c r="B124" s="32"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
@@ -4332,10 +4383,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B143" s="28"/>
+      <c r="B143" s="32"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4498,10 +4549,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="31">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="28"/>
+      <c r="B162" s="32"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
@@ -4609,10 +4660,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="31">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="28"/>
+      <c r="B175" s="32"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
@@ -4652,10 +4703,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="31">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="28"/>
+      <c r="B180" s="32"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
@@ -4776,10 +4827,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="31">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="28"/>
+      <c r="B195" s="32"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
@@ -4822,10 +4873,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="31">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="28"/>
+      <c r="B201" s="32"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
@@ -4908,10 +4959,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="31">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="28"/>
+      <c r="B212" s="32"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4929,10 +4980,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="27">
+      <c r="A215" s="31">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="28"/>
+      <c r="B215" s="32"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -5006,12 +5057,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C225" s="4">
         <v>1103.99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
         <f>SUM(B216:B225)</f>
         <v>1103.99</v>
@@ -5021,13 +5072,13 @@
         <v>19103.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+    <row r="227" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A227" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B227" s="28"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="32"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>17</v>
       </c>
@@ -5035,7 +5086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>16</v>
       </c>
@@ -5043,7 +5094,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>246</v>
       </c>
@@ -5051,12 +5102,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C231" s="4">
         <v>746</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B232" s="13">
         <f>SUM(B228:B231)</f>
         <v>746</v>
@@ -5066,13 +5117,13 @@
         <v>20953.22</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+    <row r="233" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A233" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B233" s="28"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="32"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>14</v>
       </c>
@@ -5082,8 +5133,11 @@
       <c r="D234" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>13</v>
       </c>
@@ -5093,8 +5147,11 @@
       <c r="D235" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>12</v>
       </c>
@@ -5104,8 +5161,11 @@
       <c r="D236" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>11</v>
       </c>
@@ -5115,8 +5175,11 @@
       <c r="D237" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>254</v>
       </c>
@@ -5124,7 +5187,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>10</v>
       </c>
@@ -5134,8 +5197,11 @@
       <c r="D239" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>252</v>
       </c>
@@ -5143,7 +5209,7 @@
         <v>83.66</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>278</v>
       </c>
@@ -5151,7 +5217,7 @@
         <v>81.66</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>9</v>
       </c>
@@ -5161,8 +5227,11 @@
       <c r="D242" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>280</v>
       </c>
@@ -5170,7 +5239,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>250</v>
       </c>
@@ -5178,7 +5247,7 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>289</v>
       </c>
@@ -5186,7 +5255,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>237</v>
       </c>
@@ -5194,7 +5263,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>8</v>
       </c>
@@ -5202,7 +5271,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>248</v>
       </c>
@@ -5210,7 +5279,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>240</v>
       </c>
@@ -5218,7 +5287,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>249</v>
       </c>
@@ -5226,13 +5295,13 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
         <v>980.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
         <v>980.1</v>
@@ -5242,13 +5311,13 @@
         <v>21933.32</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="27">
+    <row r="253" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A253" s="31">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="28"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="32"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>247</v>
       </c>
@@ -5256,7 +5325,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5333,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>6</v>
       </c>
@@ -5272,7 +5341,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>5</v>
       </c>
@@ -5280,7 +5349,7 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>4</v>
       </c>
@@ -5290,13 +5359,16 @@
       <c r="D258" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C260" s="4">
         <v>371.22</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B261" s="13">
         <f>SUM(B254:B260)</f>
         <v>371.22</v>
@@ -5306,13 +5378,13 @@
         <v>22304.54</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+    <row r="262" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A262" s="31">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="28"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="32"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>279</v>
       </c>
@@ -5320,7 +5392,7 @@
         <v>79.61</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>281</v>
       </c>
@@ -5328,7 +5400,7 @@
         <v>82.61</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>266</v>
       </c>
@@ -5336,7 +5408,7 @@
         <v>85.61</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>274</v>
       </c>
@@ -5344,7 +5416,7 @@
         <v>85.61</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>205</v>
       </c>
@@ -5352,7 +5424,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>2</v>
       </c>
@@ -5360,7 +5432,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>1</v>
       </c>
@@ -5368,7 +5440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>0</v>
       </c>
@@ -5376,7 +5448,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>227</v>
       </c>
@@ -5384,7 +5456,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>193</v>
       </c>
@@ -5402,6 +5474,9 @@
       <c r="D273" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="E273">
+        <v>87</v>
+      </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
@@ -5428,6 +5503,9 @@
       </c>
       <c r="D276" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="E276" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -5452,10 +5530,10 @@
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="27">
+      <c r="A280" s="31">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="28"/>
+      <c r="B280" s="32"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
@@ -5523,8 +5601,11 @@
       <c r="D288" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E288">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>206</v>
       </c>
@@ -5534,8 +5615,11 @@
       <c r="D289" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E289">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>207</v>
       </c>
@@ -5545,8 +5629,11 @@
       <c r="D290" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E290">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>215</v>
       </c>
@@ -5556,13 +5643,16 @@
       <c r="D291" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
         <v>1161.02</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
         <v>1161.0199999999998</v>
@@ -5572,13 +5662,13 @@
         <v>24423.31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="27">
+    <row r="294" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A294" s="31">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="28"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="32"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>216</v>
       </c>
@@ -5586,7 +5676,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>242</v>
       </c>
@@ -5594,7 +5684,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>217</v>
       </c>
@@ -5602,7 +5692,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>218</v>
       </c>
@@ -5610,7 +5700,7 @@
         <v>229.23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>219</v>
       </c>
@@ -5620,8 +5710,11 @@
       <c r="D299" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E299">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>253</v>
       </c>
@@ -5629,7 +5722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>221</v>
       </c>
@@ -5639,8 +5732,11 @@
       <c r="D301" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E301">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>222</v>
       </c>
@@ -5650,8 +5746,11 @@
       <c r="D302" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E302">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
         <v>223</v>
       </c>
@@ -5661,8 +5760,11 @@
       <c r="D303" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E303">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
         <v>224</v>
       </c>
@@ -5672,13 +5774,16 @@
       <c r="D304" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E304">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
         <v>924.33</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B306" s="13">
         <f>SUM(B295:B305)</f>
         <v>924.32999999999993</v>
@@ -5688,13 +5793,13 @@
         <v>26508.660000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
+    <row r="307" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A307" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B307" s="28"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="32"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>228</v>
       </c>
@@ -5702,7 +5807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>229</v>
       </c>
@@ -5710,7 +5815,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>230</v>
       </c>
@@ -5718,7 +5823,7 @@
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>231</v>
       </c>
@@ -5726,7 +5831,7 @@
         <v>185.22</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>232</v>
       </c>
@@ -5734,7 +5839,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>233</v>
       </c>
@@ -5742,7 +5847,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>234</v>
       </c>
@@ -5750,7 +5855,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>235</v>
       </c>
@@ -5758,7 +5863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>236</v>
       </c>
@@ -5766,7 +5871,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>238</v>
       </c>
@@ -5776,13 +5881,16 @@
       <c r="D317" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E317" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C319" s="4">
         <v>973.12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B320" s="13">
         <f>SUM(B308:B319)</f>
         <v>973.12000000000012</v>
@@ -5792,13 +5900,13 @@
         <v>27481.780000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="27">
+    <row r="321" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A321" s="31">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="28"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="32"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>243</v>
       </c>
@@ -5806,7 +5914,7 @@
         <v>154.84</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>244</v>
       </c>
@@ -5814,7 +5922,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>245</v>
       </c>
@@ -5822,7 +5930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>251</v>
       </c>
@@ -5830,7 +5938,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>255</v>
       </c>
@@ -5838,7 +5946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>256</v>
       </c>
@@ -5846,12 +5954,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C328" s="4">
         <v>629.94000000000005</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B329" s="13">
         <f>SUM(B322:B327)</f>
         <v>629.94000000000005</v>
@@ -5861,13 +5969,13 @@
         <v>28111.72</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A330" s="27" t="s">
+    <row r="330" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A330" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B330" s="28"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="32"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>258</v>
       </c>
@@ -5875,7 +5983,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
         <v>267</v>
       </c>
@@ -5885,8 +5993,11 @@
       <c r="D332" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E332">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>259</v>
       </c>
@@ -5894,7 +6005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
         <v>260</v>
       </c>
@@ -5904,8 +6015,11 @@
       <c r="D334" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E334">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
         <v>261</v>
       </c>
@@ -5915,8 +6029,11 @@
       <c r="D335" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E335">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
         <v>262</v>
       </c>
@@ -5926,8 +6043,11 @@
       <c r="D336" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E336">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
         <v>269</v>
       </c>
@@ -5937,8 +6057,11 @@
       <c r="D337" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E337">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>263</v>
       </c>
@@ -5948,8 +6071,11 @@
       <c r="D338" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E338">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
         <v>264</v>
       </c>
@@ -5959,8 +6085,11 @@
       <c r="D339" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E339">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>268</v>
       </c>
@@ -5970,8 +6099,11 @@
       <c r="D340" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E340">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
         <v>270</v>
       </c>
@@ -5981,8 +6113,11 @@
       <c r="D341" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E341">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
         <v>271</v>
       </c>
@@ -5992,8 +6127,11 @@
       <c r="D342" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E342">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
         <v>272</v>
       </c>
@@ -6003,13 +6141,16 @@
       <c r="D343" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E343">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C344" s="4">
         <v>451.8</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B345" s="5">
         <f>SUM(B331:B343)</f>
         <v>451.80000000000007</v>
@@ -6019,13 +6160,13 @@
         <v>28563.52</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A346" s="27" t="s">
+    <row r="346" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A346" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="B346" s="28"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="32"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
         <v>277</v>
       </c>
@@ -6035,8 +6176,11 @@
       <c r="D347" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E347">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
         <v>276</v>
       </c>
@@ -6046,8 +6190,11 @@
       <c r="D348" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E348">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>283</v>
       </c>
@@ -6055,7 +6202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
         <v>284</v>
       </c>
@@ -6065,8 +6212,11 @@
       <c r="D350" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E350">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="12" t="s">
         <v>285</v>
       </c>
@@ -6076,8 +6226,11 @@
       <c r="D351" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E351">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="12" t="s">
         <v>286</v>
       </c>
@@ -6086,6 +6239,9 @@
       </c>
       <c r="D352" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="E352">
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -6098,6 +6254,9 @@
       <c r="D353" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E353">
+        <v>90</v>
+      </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="12" t="s">
@@ -6109,20 +6268,44 @@
       <c r="D354" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E354">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B355" s="5">
+        <v>179.33</v>
+      </c>
+      <c r="E355" s="29">
+        <f>SUM(E234:E354)</f>
+        <v>3068</v>
+      </c>
+      <c r="F355" s="27" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C358" s="4">
-        <v>283.60000000000002</v>
+        <v>462.93</v>
+      </c>
+      <c r="E358" s="28" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B359" s="5">
         <f>SUM(B347:B358)</f>
-        <v>283.60000000000002</v>
+        <v>462.93000000000006</v>
       </c>
       <c r="C359" s="10">
         <f>SUM(C345:C358)</f>
-        <v>28847.119999999999</v>
+        <v>29026.45</v>
+      </c>
+      <c r="E359" s="29">
+        <v>37</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">

--- a/健身文档/模型花费.xlsx
+++ b/健身文档/模型花费.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="5460" yWindow="460" windowWidth="28800" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模型花费" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="293">
   <si>
     <t>超绝技巧     蓝发        贝吉特</t>
     <rPh sb="0" eb="1">
@@ -109,19 +109,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BWFC 卡塔库栗 卡二                预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 孙悟空 打伞修行              预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 黑悟空 扎马斯                预定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 贝吉塔 比达                  预定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1602,22 +1590,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DXF     一拳超人  杰诺斯          预定</t>
-    <rPh sb="8" eb="9">
-      <t>yi'quan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chao'ren</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jie'nuo'si</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙珠    超绝技巧五  特兰克斯      预定</t>
     <rPh sb="0" eb="1">
       <t>long'zhu</t>
@@ -2610,6 +2582,31 @@
     <rPh sb="8" eb="9">
       <t>lan'yi'duan</t>
     </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DXF     一拳超人  杰诺斯          </t>
+    <rPh sb="8" eb="9">
+      <t>yi'quan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chao'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie'nuo'si</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 卡塔库栗 卡二                </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 孙悟空 打伞修行              </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BWFC 贝吉塔 比达                  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2843,10 +2840,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3135,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="E343" sqref="E343"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3154,14 +3151,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="32">
+      <c r="A1" s="31">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5">
         <v>43.8</v>
@@ -3169,7 +3166,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" s="5">
         <v>120</v>
@@ -3185,14 +3182,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="5">
         <v>98</v>
@@ -3200,7 +3197,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B7" s="25">
         <v>68.349999999999994</v>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="5">
         <v>129</v>
@@ -3216,7 +3213,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" s="5">
         <v>180</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B10" s="5">
         <v>148</v>
@@ -3244,14 +3241,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="32"/>
+      <c r="A12" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B13" s="5">
         <v>53.75</v>
@@ -3259,7 +3256,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B14" s="5">
         <v>79</v>
@@ -3280,17 +3277,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="32"/>
+      <c r="A16" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="31"/>
       <c r="C16" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" s="13">
         <v>324</v>
@@ -3301,14 +3298,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="32"/>
+      <c r="A18" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B19" s="5">
         <v>109.61</v>
@@ -3316,7 +3313,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B20" s="5">
         <v>90</v>
@@ -3324,7 +3321,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B21" s="5">
         <v>105.7</v>
@@ -3344,17 +3341,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="32"/>
+      <c r="A23" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="31"/>
       <c r="C23" s="4">
         <v>49.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B24" s="13">
         <v>49.67</v>
@@ -3365,14 +3362,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="32"/>
+      <c r="A25" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" s="5">
         <v>95</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" s="5">
         <v>227</v>
@@ -3388,7 +3385,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5">
         <v>233</v>
@@ -3396,7 +3393,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" s="5">
         <v>308.70999999999998</v>
@@ -3404,7 +3401,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B30" s="5">
         <v>19.899999999999999</v>
@@ -3412,7 +3409,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B31" s="5">
         <v>98</v>
@@ -3420,7 +3417,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5">
         <v>116.82</v>
@@ -3440,14 +3437,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="32"/>
+      <c r="A34" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B35" s="5">
         <v>115</v>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B36" s="5">
         <v>91</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B37" s="5">
         <v>57</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B38" s="5">
         <v>35.64</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39" s="5">
         <v>61</v>
@@ -3487,7 +3484,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B40" s="5">
         <v>178.2</v>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B41" s="5">
         <v>51.27</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -3511,7 +3508,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B43" s="5">
         <v>227.92</v>
@@ -3532,14 +3529,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="32"/>
+      <c r="A45" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B46" s="5">
         <v>309.7</v>
@@ -3547,7 +3544,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B47" s="5">
         <v>191</v>
@@ -3568,14 +3565,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="32"/>
+      <c r="A49" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B50" s="5">
         <v>185</v>
@@ -3583,7 +3580,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B51" s="5">
         <v>212</v>
@@ -3591,7 +3588,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" s="5">
         <v>19.5</v>
@@ -3599,7 +3596,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B53" s="5">
         <v>99</v>
@@ -3620,14 +3617,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="32"/>
+      <c r="A55" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="31"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B56" s="5">
         <v>199.78</v>
@@ -3635,7 +3632,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B57" s="5">
         <v>290</v>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B58" s="5">
         <v>238.9</v>
@@ -3651,7 +3648,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" s="5">
         <v>197</v>
@@ -3659,7 +3656,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B60" s="5">
         <v>56</v>
@@ -3680,14 +3677,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="32"/>
+      <c r="A62" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="31"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B63" s="5">
         <v>75.239999999999995</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64" s="5">
         <v>85.84</v>
@@ -3703,7 +3700,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B65" s="5">
         <v>46.06</v>
@@ -3724,14 +3721,14 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="32"/>
+      <c r="A67" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="31"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68" s="5">
         <v>115</v>
@@ -3739,7 +3736,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B69" s="5">
         <v>83.3</v>
@@ -3760,14 +3757,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="32"/>
+      <c r="A71" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="31"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B72" s="5">
         <v>93</v>
@@ -3775,7 +3772,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B73" s="5">
         <v>202</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B74" s="5">
         <v>120</v>
@@ -3804,14 +3801,14 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="32"/>
+      <c r="A76" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="31"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B77" s="5">
         <v>71.540000000000006</v>
@@ -3819,7 +3816,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B78" s="5">
         <v>98.99</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B79" s="5">
         <v>96</v>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80" s="5">
         <v>120</v>
@@ -3856,14 +3853,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" s="32"/>
+      <c r="A82" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="31"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B83" s="5">
         <v>108</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B84" s="5">
         <v>17.149999999999999</v>
@@ -3879,7 +3876,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B85" s="5">
         <v>225</v>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86" s="5">
         <v>229</v>
@@ -3908,14 +3905,14 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="32"/>
+      <c r="A88" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="31"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B89" s="5">
         <v>36.26</v>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B90" s="5">
         <v>75</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B91" s="5">
         <v>118</v>
@@ -3952,14 +3949,14 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="32"/>
+      <c r="A93" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="31"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B94" s="5">
         <v>143.5</v>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B95" s="5">
         <v>69.8</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B96" s="5">
         <v>166.32</v>
@@ -3983,7 +3980,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B97" s="5">
         <v>14.5</v>
@@ -3991,7 +3988,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B98" s="5">
         <v>33.5</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B99" s="5">
         <v>199.5</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B100" s="5">
         <v>6.5</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B101" s="5">
         <v>26.6</v>
@@ -4023,7 +4020,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B102" s="5">
         <v>245</v>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B103" s="5">
         <v>93.1</v>
@@ -4039,7 +4036,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B104" s="5">
         <v>70.599999999999994</v>
@@ -4060,15 +4057,15 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A106" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" s="32"/>
+      <c r="A106" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="31"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B107" s="5">
         <v>99</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B108" s="5">
         <v>22.5</v>
@@ -4086,7 +4083,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109" s="5">
         <v>135.24</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -4104,7 +4101,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B111" s="5">
         <v>109.25</v>
@@ -4125,15 +4122,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B113" s="32"/>
+      <c r="A113" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="31"/>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B114" s="5">
         <v>121</v>
@@ -4142,7 +4139,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B115" s="5">
         <v>104</v>
@@ -4151,7 +4148,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B116" s="5">
         <v>34.6</v>
@@ -4160,7 +4157,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B117" s="5">
         <v>112.7</v>
@@ -4168,7 +4165,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B118" s="5">
         <v>170.6</v>
@@ -4176,7 +4173,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B119" s="5">
         <v>34.299999999999997</v>
@@ -4184,7 +4181,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B120" s="5">
         <v>90.14</v>
@@ -4192,7 +4189,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B121" s="5">
         <v>88</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B122" s="5">
         <v>80</v>
@@ -4221,14 +4218,14 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B124" s="32"/>
+      <c r="A124" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" s="31"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B125" s="5">
         <v>172</v>
@@ -4236,7 +4233,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B126" s="5">
         <v>77</v>
@@ -4244,7 +4241,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B127" s="5">
         <v>88.2</v>
@@ -4252,7 +4249,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B128" s="5">
         <v>71</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B129" s="18">
         <v>145</v>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B130" s="18">
         <v>65</v>
@@ -4276,7 +4273,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B131" s="18">
         <v>20</v>
@@ -4284,7 +4281,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B132" s="5">
         <v>78.599999999999994</v>
@@ -4292,7 +4289,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B133" s="5">
         <v>76.400000000000006</v>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B134" s="5">
         <v>44.4</v>
@@ -4308,7 +4305,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B135" s="5">
         <v>80</v>
@@ -4316,7 +4313,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B136" s="5">
         <v>70</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B137" s="5">
         <v>80</v>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B138" s="5">
         <v>60</v>
@@ -4343,7 +4340,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B139" s="5">
         <v>76</v>
@@ -4352,7 +4349,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B140" s="5">
         <v>60</v>
@@ -4361,7 +4358,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B141" s="5">
         <v>86</v>
@@ -4383,15 +4380,15 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B143" s="32"/>
+      <c r="A143" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143" s="31"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B144" s="5">
         <v>98</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B145" s="5">
         <v>83</v>
@@ -4409,7 +4406,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B146" s="5">
         <v>80</v>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B147" s="5">
         <v>80</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B148" s="5">
         <v>80</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B149" s="5">
         <v>80</v>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B150" s="5">
         <v>70.599999999999994</v>
@@ -4449,7 +4446,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B151" s="5">
         <v>49.6</v>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B152" s="5">
         <v>49.5</v>
@@ -4465,7 +4462,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B153" s="5">
         <v>51</v>
@@ -4473,7 +4470,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B154" s="5">
         <v>131.5</v>
@@ -4481,7 +4478,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B155" s="5">
         <v>158.88</v>
@@ -4489,7 +4486,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B156" s="5">
         <v>83.6</v>
@@ -4497,7 +4494,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B157" s="5">
         <v>83</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B158" s="5">
         <v>84</v>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B159" s="5">
         <v>84</v>
@@ -4526,7 +4523,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B160" s="5">
         <v>114.8</v>
@@ -4549,14 +4546,14 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="31">
+      <c r="A162" s="32">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="32"/>
+      <c r="B162" s="31"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B163" s="5">
         <v>86</v>
@@ -4564,7 +4561,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B164" s="5">
         <v>292</v>
@@ -4572,7 +4569,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B165" s="5">
         <v>42</v>
@@ -4580,7 +4577,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B166" s="5">
         <v>56.6</v>
@@ -4588,7 +4585,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B167" s="5">
         <v>272</v>
@@ -4596,7 +4593,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B168" s="5">
         <v>50</v>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B169" s="5">
         <v>84.83</v>
@@ -4612,7 +4609,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B170" s="5">
         <v>137.19999999999999</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B171" s="5">
         <v>74</v>
@@ -4628,7 +4625,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B172" s="5">
         <v>84</v>
@@ -4640,7 +4637,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B173" s="5">
         <v>84</v>
@@ -4660,14 +4657,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="31">
+      <c r="A175" s="32">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="32"/>
+      <c r="B175" s="31"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B176" s="5">
         <v>84</v>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B177" s="5">
         <v>86</v>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B178" s="5">
         <v>115.64</v>
@@ -4703,14 +4700,14 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="31">
+      <c r="A180" s="32">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="32"/>
+      <c r="B180" s="31"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B181" s="5">
         <v>84.74</v>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B182" s="5">
         <v>115.64</v>
@@ -4726,7 +4723,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B183" s="5">
         <v>86</v>
@@ -4734,7 +4731,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B184" s="5">
         <v>49</v>
@@ -4742,7 +4739,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B185" s="5">
         <v>64.680000000000007</v>
@@ -4750,7 +4747,7 @@
     </row>
     <row r="186" spans="1:3" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B186" s="5">
         <v>369</v>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B187" s="5">
         <v>83</v>
@@ -4766,7 +4763,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B188" s="5">
         <v>83.1</v>
@@ -4774,7 +4771,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B189" s="5">
         <v>84.4</v>
@@ -4782,7 +4779,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B190" s="5">
         <v>84</v>
@@ -4790,7 +4787,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B191" s="5">
         <v>117</v>
@@ -4798,7 +4795,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B192" s="5">
         <v>36</v>
@@ -4806,7 +4803,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B193" s="5">
         <v>72</v>
@@ -4827,14 +4824,14 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="31">
+      <c r="A195" s="32">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="32"/>
+      <c r="B195" s="31"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B196" s="5">
         <v>288</v>
@@ -4842,7 +4839,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B197" s="5">
         <v>82</v>
@@ -4850,7 +4847,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B198" s="5">
         <v>114.5</v>
@@ -4873,14 +4870,14 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="31">
+      <c r="A201" s="32">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="32"/>
+      <c r="B201" s="31"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B202" s="5">
         <v>137.19999999999999</v>
@@ -4888,7 +4885,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B203" s="5">
         <v>55</v>
@@ -4896,7 +4893,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B204" s="5">
         <v>77</v>
@@ -4904,7 +4901,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B205" s="5">
         <v>84</v>
@@ -4912,7 +4909,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B206" s="5">
         <v>83.9</v>
@@ -4920,7 +4917,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B207" s="5">
         <v>84</v>
@@ -4928,7 +4925,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B208" s="5">
         <v>84</v>
@@ -4936,7 +4933,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B209" s="5">
         <v>86</v>
@@ -4959,10 +4956,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="31">
+      <c r="A212" s="32">
         <v>2018.06</v>
       </c>
-      <c r="B212" s="32"/>
+      <c r="B212" s="31"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C213" s="4">
@@ -4980,14 +4977,14 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="31">
+      <c r="A215" s="32">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="32"/>
+      <c r="B215" s="31"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B216" s="5">
         <v>68</v>
@@ -4995,7 +4992,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B217" s="5">
         <v>155.80000000000001</v>
@@ -5003,7 +5000,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B218" s="5">
         <v>147.69999999999999</v>
@@ -5011,7 +5008,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B219" s="5">
         <v>83.71</v>
@@ -5019,7 +5016,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B220" s="5">
         <v>80</v>
@@ -5027,7 +5024,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B221" s="5">
         <v>80</v>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B222" s="5">
         <v>79</v>
@@ -5043,7 +5040,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B223" s="5">
         <v>70.78</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B224" s="5">
         <v>339</v>
@@ -5073,14 +5070,14 @@
       </c>
     </row>
     <row r="227" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B227" s="32"/>
+      <c r="A227" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="31"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B228" s="5">
         <v>177</v>
@@ -5088,7 +5085,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B229" s="5">
         <v>201</v>
@@ -5096,7 +5093,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B230" s="5">
         <v>368</v>
@@ -5118,14 +5115,14 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="32"/>
+      <c r="A233" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" s="31"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B234" s="11">
         <v>9.66</v>
@@ -5139,7 +5136,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B235" s="11">
         <v>9.66</v>
@@ -5152,22 +5149,16 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B236" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236">
-        <v>84</v>
+      <c r="A236" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B236" s="5">
+        <v>79.66</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B237" s="11">
         <v>9.66</v>
@@ -5181,89 +5172,77 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B238" s="5">
         <v>77.66</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B239" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239">
-        <v>84</v>
+      <c r="A239" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B239" s="5">
+        <v>79.66</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B240" s="5">
         <v>83.66</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B241" s="5">
         <v>81.66</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B242" s="11">
-        <v>9.66</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B242" s="5">
+        <v>79.66</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B243" s="5">
         <v>80.66</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B244" s="5">
         <v>77.66</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B245" s="5">
         <v>83.6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B246" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>8</v>
       </c>
@@ -5271,61 +5250,61 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B248" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B249" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B250" s="5">
         <v>77.61</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B251" s="14"/>
       <c r="C251" s="4">
-        <v>980.1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1190.0999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B252" s="13">
         <f>SUM(B234:B251)</f>
-        <v>980.1</v>
+        <v>1190.0999999999997</v>
       </c>
       <c r="C252" s="10">
         <f>SUM(C232:C251)</f>
-        <v>21933.32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="31">
+        <v>22143.32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A253" s="32">
         <v>2018.11</v>
       </c>
-      <c r="B253" s="32"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="31"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B254" s="5">
         <v>83.61</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>7</v>
       </c>
@@ -5333,7 +5312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>6</v>
       </c>
@@ -5375,18 +5354,18 @@
       </c>
       <c r="C261" s="10">
         <f>SUM(C252:C260)</f>
-        <v>22304.54</v>
+        <v>22514.54</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="31">
+      <c r="A262" s="32">
         <v>2018.12</v>
       </c>
-      <c r="B262" s="32"/>
+      <c r="B262" s="31"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B263" s="5">
         <v>79.61</v>
@@ -5394,7 +5373,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B264" s="5">
         <v>82.61</v>
@@ -5402,7 +5381,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B265" s="5">
         <v>85.61</v>
@@ -5410,7 +5389,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B266" s="5">
         <v>85.61</v>
@@ -5418,7 +5397,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B267" s="5">
         <v>180</v>
@@ -5450,7 +5429,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B271" s="5">
         <v>84</v>
@@ -5458,7 +5437,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B272" s="5">
         <v>77</v>
@@ -5466,13 +5445,13 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B273" s="11">
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E273">
         <v>87</v>
@@ -5480,7 +5459,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B274" s="5">
         <v>82.61</v>
@@ -5488,7 +5467,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B275" s="5">
         <v>87</v>
@@ -5496,13 +5475,13 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B276" s="11">
         <v>50</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E276" s="30">
         <v>0</v>
@@ -5526,18 +5505,18 @@
       </c>
       <c r="C279" s="10">
         <f>SUM(C261:C278)</f>
-        <v>23262.29</v>
+        <v>23472.29</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A280" s="31">
+      <c r="A280" s="32">
         <v>2019.01</v>
       </c>
-      <c r="B280" s="32"/>
+      <c r="B280" s="31"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B281" s="5">
         <v>145</v>
@@ -5545,7 +5524,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B282" s="5">
         <v>170</v>
@@ -5553,7 +5532,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B283" s="5">
         <v>142</v>
@@ -5561,7 +5540,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B284" s="5">
         <v>174.4</v>
@@ -5569,7 +5548,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B285" s="5">
         <v>38.799999999999997</v>
@@ -5577,7 +5556,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B286" s="5">
         <v>149</v>
@@ -5585,7 +5564,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B287" s="5">
         <v>302.8</v>
@@ -5593,41 +5572,35 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B288" s="11">
         <v>9.61</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E288">
         <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B289" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E289">
-        <v>86</v>
+      <c r="A289" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" s="5">
+        <v>79.61</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B290" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E290">
         <v>86</v>
@@ -5635,13 +5608,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B291" s="11">
         <v>10</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E291">
         <v>88</v>
@@ -5649,28 +5622,28 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C292" s="4">
-        <v>1161.02</v>
+        <v>1231.02</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B293" s="13">
         <f>SUM(B281:B292)</f>
-        <v>1161.0199999999998</v>
+        <v>1231.0199999999998</v>
       </c>
       <c r="C293" s="10">
         <f>SUM(C279:C292)</f>
-        <v>24423.31</v>
+        <v>24703.31</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A294" s="31">
+      <c r="A294" s="32">
         <v>2019.02</v>
       </c>
-      <c r="B294" s="32"/>
+      <c r="B294" s="31"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B295" s="5">
         <v>165</v>
@@ -5678,7 +5651,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B296" s="5">
         <v>256.8</v>
@@ -5686,7 +5659,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B297" s="5">
         <v>136.5</v>
@@ -5694,7 +5667,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B298" s="5">
         <v>229.23</v>
@@ -5702,13 +5675,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B299" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E299">
         <v>88</v>
@@ -5716,7 +5689,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B300" s="5">
         <v>87</v>
@@ -5724,13 +5697,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B301" s="11">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E301">
         <v>90</v>
@@ -5738,13 +5711,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B302" s="11">
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E302">
         <v>90</v>
@@ -5752,13 +5725,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B303" s="11">
         <v>10</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E303">
         <v>90</v>
@@ -5766,13 +5739,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B304" s="11">
         <v>10</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E304">
         <v>90</v>
@@ -5790,18 +5763,18 @@
       </c>
       <c r="C306" s="10">
         <f>SUM(C292:C305)</f>
-        <v>26508.660000000003</v>
+        <v>26858.660000000003</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A307" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B307" s="32"/>
+      <c r="A307" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B307" s="31"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B308" s="5">
         <v>158</v>
@@ -5809,7 +5782,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B309" s="5">
         <v>34.299999999999997</v>
@@ -5817,7 +5790,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B310" s="5">
         <v>161.69999999999999</v>
@@ -5825,7 +5798,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B311" s="5">
         <v>185.22</v>
@@ -5833,7 +5806,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B312" s="5">
         <v>60.4</v>
@@ -5841,7 +5814,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B313" s="5">
         <v>106.2</v>
@@ -5849,7 +5822,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B314" s="5">
         <v>34.1</v>
@@ -5857,7 +5830,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B315" s="5">
         <v>144</v>
@@ -5865,7 +5838,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B316" s="5">
         <v>69.599999999999994</v>
@@ -5873,13 +5846,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B317" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E317" s="30">
         <v>0</v>
@@ -5897,18 +5870,18 @@
       </c>
       <c r="C320" s="10">
         <f>SUM(C306:C319)</f>
-        <v>27481.780000000002</v>
+        <v>27831.780000000002</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A321" s="31">
+      <c r="A321" s="32">
         <v>2019.04</v>
       </c>
-      <c r="B321" s="32"/>
+      <c r="B321" s="31"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B322" s="5">
         <v>154.84</v>
@@ -5916,7 +5889,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B323" s="5">
         <v>73.5</v>
@@ -5924,7 +5897,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B324" s="5">
         <v>144</v>
@@ -5932,7 +5905,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B325" s="5">
         <v>84.6</v>
@@ -5940,7 +5913,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B326" s="5">
         <v>40</v>
@@ -5948,7 +5921,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B327" s="5">
         <v>133</v>
@@ -5966,18 +5939,18 @@
       </c>
       <c r="C329" s="10">
         <f>SUM(C320:C328)</f>
-        <v>28111.72</v>
+        <v>28461.72</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A330" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B330" s="32"/>
+      <c r="A330" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B330" s="31"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B331" s="5">
         <v>238</v>
@@ -5985,13 +5958,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B332" s="11">
         <v>19.600000000000001</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E332">
         <v>69</v>
@@ -5999,7 +5972,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B333" s="5">
         <v>95</v>
@@ -6007,13 +5980,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B334" s="11">
         <v>10</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E334">
         <v>90</v>
@@ -6021,13 +5994,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B335" s="11">
         <v>10</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E335">
         <v>90</v>
@@ -6035,13 +6008,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B336" s="11">
         <v>10</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E336">
         <v>90</v>
@@ -6049,13 +6022,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B337" s="11">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E337">
         <v>90</v>
@@ -6063,13 +6036,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B338" s="11">
         <v>10</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E338">
         <v>90</v>
@@ -6077,13 +6050,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B339" s="11">
         <v>10</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E339">
         <v>90</v>
@@ -6091,13 +6064,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B340" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E340">
         <v>90</v>
@@ -6105,13 +6078,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B341" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E341">
         <v>90</v>
@@ -6119,13 +6092,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B342" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E342">
         <v>90</v>
@@ -6133,13 +6106,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B343" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E343">
         <v>90</v>
@@ -6157,24 +6130,24 @@
       </c>
       <c r="C345" s="10">
         <f>SUM(C329:C344)</f>
-        <v>28563.52</v>
+        <v>28913.52</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A346" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="B346" s="32"/>
+      <c r="A346" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B346" s="31"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B347" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E347">
         <v>90</v>
@@ -6182,13 +6155,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B348" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E348">
         <v>90</v>
@@ -6196,7 +6169,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B349" s="5">
         <v>215</v>
@@ -6204,13 +6177,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
-        <v>284</v>
+       